--- a/test/output/data_compare_properties_2016.xlsx
+++ b/test/output/data_compare_properties_2016.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>column</t>
   </si>
@@ -218,8 +218,8 @@
     <t>sample_value</t>
   </si>
   <si>
-    <t>14279672
-13957388</t>
+    <t>11908772
+13117269</t>
   </si>
   <si>
     <t>nan_rate</t>
@@ -248,8 +248,8 @@
     <t>overlap rate</t>
   </si>
   <si>
-    <t>60375545.221
-60374053.011</t>
+    <t>60375003.0011
+60590320.292</t>
   </si>
   <si>
     <t>0.004
@@ -260,8 +260,8 @@
 99513/2982285</t>
   </si>
   <si>
-    <t>6.0375039024e+13
-6.0590889033e+13</t>
+    <t>6.0373007013e+13
+6.0371212102e+13</t>
   </si>
   <si>
     <t>0.025
@@ -275,8 +275,8 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>238.0
-572.0</t>
+    <t>1196.0
+396.0</t>
   </si>
   <si>
     <t>0.999
@@ -297,8 +297,8 @@
     <t>value_mean</t>
   </si>
   <si>
-    <t>646.883292383
-647.220651506</t>
+    <t>646.883
+647.221</t>
   </si>
   <si>
     <t>value_median</t>
@@ -316,15 +316,15 @@
   </si>
   <si>
     <t>2.0
-4.0</t>
+3.0</t>
   </si>
   <si>
     <t>37/2973755
 39/2982260</t>
   </si>
   <si>
-    <t>2.20914273368
-2.21619577099</t>
+    <t>2.209
+2.216</t>
   </si>
   <si>
     <t>2.0
@@ -335,16 +335,16 @@
 32.0</t>
   </si>
   <si>
-    <t>0.0
-2.0</t>
+    <t>4.0
+4.0</t>
   </si>
   <si>
     <t>21/2973767
 25/2982272</t>
   </si>
   <si>
-    <t>3.08894879794
-3.09336204075</t>
+    <t>3.089
+3.093</t>
   </si>
   <si>
     <t>3.0
@@ -355,40 +355,44 @@
 25.0</t>
   </si>
   <si>
+    <t>1.0
+2.0</t>
+  </si>
+  <si>
+    <t>0.043
+0.039</t>
+  </si>
+  <si>
+    <t>34/2856305
+36/2868061</t>
+  </si>
+  <si>
+    <t>1.0
+1.0</t>
+  </si>
+  <si>
+    <t>2.299
+2.304</t>
+  </si>
+  <si>
+    <t>1644.0
+1020.0</t>
+  </si>
+  <si>
+    <t>0.932
+0.932</t>
+  </si>
+  <si>
+    <t>4604/202717
+4625/203758</t>
+  </si>
+  <si>
     <t>3.0
 1.0</t>
   </si>
   <si>
-    <t>0.043
-0.039</t>
-  </si>
-  <si>
-    <t>34/2856305
-36/2868061</t>
-  </si>
-  <si>
-    <t>1.0
-1.0</t>
-  </si>
-  <si>
-    <t>2.29926250873
-2.30382582518</t>
-  </si>
-  <si>
-    <t>1043.0
-1569.0</t>
-  </si>
-  <si>
-    <t>0.932
-0.932</t>
-  </si>
-  <si>
-    <t>4604/202717
-4625/203758</t>
-  </si>
-  <si>
-    <t>1380.63039607
-1379.78046015</t>
+    <t>1380.63
+1379.78</t>
   </si>
   <si>
     <t>1283.0
@@ -399,8 +403,8 @@
 31303.0</t>
   </si>
   <si>
-    <t>1372.0
-896.0</t>
+    <t>7229.0
+5045.0</t>
   </si>
   <si>
     <t>0.019
@@ -411,8 +415,8 @@
 12631/2940120</t>
   </si>
   <si>
-    <t>1827.16212369
-1831.4552923</t>
+    <t>1827.162
+1831.455</t>
   </si>
   <si>
     <t>1572.0
@@ -423,8 +427,8 @@
 952576.0</t>
   </si>
   <si>
-    <t>1284.0
-1030.0</t>
+    <t>1700.0
+962.0</t>
   </si>
   <si>
     <t>0.092
@@ -435,8 +439,8 @@
 10732/2720786</t>
   </si>
   <si>
-    <t>1760.00060793
-1764.04499178</t>
+    <t>1760.001
+1764.045</t>
   </si>
   <si>
     <t>1539.0
@@ -447,8 +451,8 @@
 427079.0</t>
   </si>
   <si>
-    <t>1456.0
-540.0</t>
+    <t>1536.0
+1620.0</t>
   </si>
   <si>
     <t>0.997
@@ -463,8 +467,8 @@
 120.0</t>
   </si>
   <si>
-    <t>1178.90067779
-1178.91669926</t>
+    <t>1178.901
+1178.917</t>
   </si>
   <si>
     <t>1296.0
@@ -475,8 +479,8 @@
 2688.0</t>
   </si>
   <si>
-    <t>2112.0
-3866.0</t>
+    <t>2225.0
+2042.0</t>
   </si>
   <si>
     <t>0.936
@@ -491,8 +495,8 @@
 112.0</t>
   </si>
   <si>
-    <t>2739.18723467
-2754.86923259</t>
+    <t>2739.187
+2754.869</t>
   </si>
   <si>
     <t>2172.0
@@ -503,16 +507,16 @@
 820242.0</t>
   </si>
   <si>
-    <t>681.0
-1398.0</t>
+    <t>2205.0
+882.0</t>
   </si>
   <si>
     <t>4802/202717
 4888/203758</t>
   </si>
   <si>
-    <t>1388.94457791
-1392.02909334</t>
+    <t>1388.945
+1392.029</t>
   </si>
   <si>
     <t>1284.0
@@ -523,8 +527,8 @@
 41906.0</t>
   </si>
   <si>
-    <t>528.0
-4699.0</t>
+    <t>1194.0
+2108.0</t>
   </si>
   <si>
     <t>0.993
@@ -539,8 +543,8 @@
 117.0</t>
   </si>
   <si>
-    <t>2414.33943912
-2427.55520901</t>
+    <t>2414.339
+2427.555</t>
   </si>
   <si>
     <t>1992.0
@@ -555,8 +559,8 @@
 9/313124</t>
   </si>
   <si>
-    <t>1.16871003752
-1.16895862342</t>
+    <t>1.169
+1.169</t>
   </si>
   <si>
     <t>9.0
@@ -567,8 +571,12 @@
 22/2868061</t>
   </si>
   <si>
-    <t>2.24416510142
-2.24808886561</t>
+    <t>2.244
+2.248</t>
+  </si>
+  <si>
+    <t>2.0
+1.0</t>
   </si>
   <si>
     <t>0.704
@@ -579,24 +587,24 @@
 24/891008</t>
   </si>
   <si>
-    <t>1.82351655841
-1.82658068165</t>
+    <t>1.824
+1.827</t>
   </si>
   <si>
     <t>25.0
 25.0</t>
   </si>
   <si>
-    <t>590.0
-451.0</t>
+    <t>495.0
+441.0</t>
   </si>
   <si>
     <t>2240/883267
 2253/891008</t>
   </si>
   <si>
-    <t>383.769357397
-383.156219697</t>
+    <t>383.769
+383.156</t>
   </si>
   <si>
     <t>441.0
@@ -607,8 +615,8 @@
 7749.0</t>
   </si>
   <si>
-    <t>33895448.0
-33818452.0</t>
+    <t>34042648.0
+34451181.0</t>
   </si>
   <si>
     <t>852325/2973780
@@ -619,8 +627,8 @@
 33324388.0</t>
   </si>
   <si>
-    <t>34001468.6537
-34001306.0063</t>
+    <t>34001468.654
+34001306.006</t>
   </si>
   <si>
     <t>34008249.0
@@ -631,8 +639,8 @@
 34819650.0</t>
   </si>
   <si>
-    <t>-118487201.0
--117632227.0</t>
+    <t>-118111431.0
+-118173505.0</t>
   </si>
   <si>
     <t>1042550/2973780
@@ -655,8 +663,8 @@
 -117554316.0</t>
   </si>
   <si>
-    <t>7775.0
-7592.0</t>
+    <t>3018.0
+8750.0</t>
   </si>
   <si>
     <t>0.092
@@ -671,8 +679,8 @@
 100.0</t>
   </si>
   <si>
-    <t>22822.8055277
-22603.7551985</t>
+    <t>22822.806
+22603.755</t>
   </si>
   <si>
     <t>7000.0
@@ -691,8 +699,8 @@
 1/539632</t>
   </si>
   <si>
-    <t>527.0
-450.0</t>
+    <t>325.0
+420.0</t>
   </si>
   <si>
     <t>0.991
@@ -707,8 +715,8 @@
 19.0</t>
   </si>
   <si>
-    <t>519.710979971
-519.715430288</t>
+    <t>519.711
+519.715</t>
   </si>
   <si>
     <t>495.0
@@ -719,12 +727,16 @@
 17410.0</t>
   </si>
   <si>
+    <t>0.0
+4.0</t>
+  </si>
+  <si>
     <t>36/2973742
 36/2982248</t>
   </si>
   <si>
-    <t>1.47501834389
-1.47435726338</t>
+    <t>1.475
+1.474</t>
   </si>
   <si>
     <t>96.0
@@ -739,8 +751,8 @@
 7/316357</t>
   </si>
   <si>
-    <t>1.010008632
-1.01061142949</t>
+    <t>1.01
+1.011</t>
   </si>
   <si>
     <t>7.0
@@ -755,16 +767,16 @@
 154/1981042</t>
   </si>
   <si>
-    <t>1.18117108051
-1.18030309302</t>
+    <t>1.181
+1.18</t>
   </si>
   <si>
     <t>997.0
 997.0</t>
   </si>
   <si>
-    <t>86.0
-180.0</t>
+    <t>540.0
+200.0</t>
   </si>
   <si>
     <t>0.973
@@ -779,8 +791,8 @@
 10.0</t>
   </si>
   <si>
-    <t>319.803397424
-321.541611511</t>
+    <t>319.803
+321.542</t>
   </si>
   <si>
     <t>270.0
@@ -791,16 +803,16 @@
 7983.0</t>
   </si>
   <si>
-    <t>140.0
-72.0</t>
+    <t>336.0
+352.0</t>
   </si>
   <si>
     <t>594/2647
 594/2646</t>
   </si>
   <si>
-    <t>278.296562146
-278.365457294</t>
+    <t>278.297
+278.365</t>
   </si>
   <si>
     <t>168.0
@@ -819,16 +831,16 @@
 12/685676</t>
   </si>
   <si>
-    <t>1.40146378152
-1.40095613672</t>
+    <t>1.401
+1.401</t>
   </si>
   <si>
     <t>41.0
 41.0</t>
   </si>
   <si>
-    <t>992258.0
-39689.0</t>
+    <t>105000.0
+64536.0</t>
   </si>
   <si>
     <t>0.018
@@ -839,8 +851,8 @@
 437542/2938753</t>
   </si>
   <si>
-    <t>170883.577166
-178142.887952</t>
+    <t>170883.577
+178142.888</t>
   </si>
   <si>
     <t>122590.0
@@ -851,8 +863,8 @@
 255321161.0</t>
   </si>
   <si>
-    <t>440348.0
-41371.0</t>
+    <t>95563.0
+494111.0</t>
   </si>
   <si>
     <t>0.014
@@ -863,8 +875,8 @@
 661520/2950951</t>
   </si>
   <si>
-    <t>420478.990679
-443527.931066</t>
+    <t>420478.991
+443527.931</t>
   </si>
   <si>
     <t>306086.0
@@ -875,8 +887,8 @@
 319622473.0</t>
   </si>
   <si>
-    <t>88502.0
-49937.0</t>
+    <t>111605.0
+179319.0</t>
   </si>
   <si>
     <t>0.023
@@ -887,8 +899,8 @@
 553303/2925291</t>
   </si>
   <si>
-    <t>252478.029469
-268455.769121</t>
+    <t>252478.029
+268455.769</t>
   </si>
   <si>
     <t>167042.0
@@ -899,8 +911,8 @@
 94011079.0</t>
   </si>
   <si>
-    <t>14529.34
-8523.04</t>
+    <t>4074.4
+9596.53</t>
   </si>
   <si>
     <t>0.01
@@ -915,8 +927,8 @@
 0.24</t>
   </si>
   <si>
-    <t>5377.60713934
-5408.94884206</t>
+    <t>5377.607
+5408.949</t>
   </si>
   <si>
     <t>3991.78
@@ -928,7 +940,7 @@
   </si>
   <si>
     <t>14.0
-14.0</t>
+15.0</t>
   </si>
   <si>
     <t>0.981
@@ -939,8 +951,12 @@
 31/56517</t>
   </si>
   <si>
-    <t>13.8924093228
-13.8916963038</t>
+    <t>13.892
+13.892</t>
+  </si>
+  <si>
+    <t>14.0
+14.0</t>
   </si>
   <si>
     <t>99.0
@@ -972,10 +988,6 @@
 8/6061</t>
   </si>
   <si>
-    <t>4.0
-4.0</t>
-  </si>
-  <si>
     <t>0.996
 0.996</t>
   </si>
@@ -984,8 +996,8 @@
 5/12731</t>
   </si>
   <si>
-    <t>4.0
-6.0</t>
+    <t>7.0
+5.0</t>
   </si>
   <si>
     <t>0.351
@@ -1029,7 +1041,7 @@
   </si>
   <si>
     <t>7.0
-24.0</t>
+2.0</t>
   </si>
   <si>
     <t>0.395
@@ -1064,8 +1076,8 @@
 1/505895</t>
   </si>
   <si>
-    <t>010C
-1111</t>
+    <t>0100
+0100</t>
   </si>
   <si>
     <t>240/2972940
@@ -1110,8 +1122,8 @@
 16/2982285</t>
   </si>
   <si>
-    <t>LAR1
-CCR1YY</t>
+    <t>LCR110
+LAR1</t>
   </si>
   <si>
     <t>0.337
@@ -1152,8 +1164,8 @@
     <t>LARA</t>
   </si>
   <si>
-    <t>47695.0
-12447.0</t>
+    <t>40227.0
+34543.0</t>
   </si>
   <si>
     <t>0.021
@@ -1165,11 +1177,11 @@
   </si>
   <si>
     <t>3101.0
-3101.0</t>
-  </si>
-  <si>
-    <t>114914.0
-34213.0</t>
+1286.0</t>
+  </si>
+  <si>
+    <t>403184.0
+273257.0</t>
   </si>
   <si>
     <t>0.613
@@ -1180,8 +1192,8 @@
 529/1156741</t>
   </si>
   <si>
-    <t>96242.0
-96133.0</t>
+    <t>96185.0
+96083.0</t>
   </si>
   <si>
     <t>0.005
@@ -1204,8 +1216,8 @@
 5/6746</t>
   </si>
   <si>
-    <t>2007.0
-1983.0</t>
+    <t>1950.0
+1946.0</t>
   </si>
   <si>
     <t>0.02
@@ -2613,8 +2625,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="10.5"/>
-    <col customWidth="1" max="3" min="3" width="7.5"/>
+    <col customWidth="1" max="2" min="2" width="30"/>
+    <col customWidth="1" max="3" min="3" width="30"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="25" r="0" spans="1:3"/>
@@ -2736,7 +2748,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1</v>
+        <v>0.984</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="12" spans="1:3">
@@ -2879,7 +2891,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.739</v>
+        <v>0.725</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="25" spans="1:3">
@@ -2934,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>0.956</v>
+        <v>0.959</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="30" spans="1:3">
@@ -2956,7 +2968,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="32" spans="1:3">
@@ -2967,7 +2979,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="33" spans="1:3">
@@ -2978,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.964</v>
+        <v>0.96</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="34" spans="1:3">
@@ -3088,7 +3100,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="44" spans="1:3">
@@ -3242,7 +3254,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="58" spans="1:3">
@@ -3286,7 +3298,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="21"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="49.5"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -3560,7 +3572,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="18"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="46.5"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -3971,7 +3983,7 @@
         <v>85</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C45" s="9" t="n"/>
     </row>
@@ -3980,7 +3992,7 @@
         <v>87</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C46" s="9" t="n"/>
     </row>
@@ -3989,7 +4001,7 @@
         <v>89</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="9" t="n"/>
     </row>
@@ -3998,7 +4010,7 @@
         <v>91</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="9" t="n"/>
     </row>
@@ -4032,7 +4044,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52" s="8" t="n">
         <v/>
@@ -4043,7 +4055,7 @@
         <v>67</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C53" s="9" t="n"/>
     </row>
@@ -4052,7 +4064,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="9" t="n"/>
     </row>
@@ -4070,7 +4082,7 @@
         <v>87</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="9" t="n"/>
     </row>
@@ -4079,7 +4091,7 @@
         <v>89</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="9" t="n"/>
     </row>
@@ -4088,7 +4100,7 @@
         <v>91</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="9" t="n"/>
     </row>
@@ -4122,7 +4134,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="8" t="n">
         <v/>
@@ -4133,7 +4145,7 @@
         <v>67</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C63" s="9" t="n"/>
     </row>
@@ -4142,7 +4154,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="9" t="n"/>
     </row>
@@ -4160,7 +4172,7 @@
         <v>87</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="9" t="n"/>
     </row>
@@ -4169,7 +4181,7 @@
         <v>89</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="9" t="n"/>
     </row>
@@ -4178,7 +4190,7 @@
         <v>91</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="9" t="n"/>
     </row>
@@ -4212,7 +4224,7 @@
         <v>65</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C72" s="8" t="n">
         <v/>
@@ -4223,7 +4235,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C73" s="9" t="n"/>
     </row>
@@ -4232,7 +4244,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C74" s="9" t="n"/>
     </row>
@@ -4241,7 +4253,7 @@
         <v>85</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C75" s="9" t="n"/>
     </row>
@@ -4250,7 +4262,7 @@
         <v>87</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C76" s="9" t="n"/>
     </row>
@@ -4259,7 +4271,7 @@
         <v>89</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C77" s="9" t="n"/>
     </row>
@@ -4268,7 +4280,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78" s="9" t="n"/>
     </row>
@@ -4302,7 +4314,7 @@
         <v>65</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C82" s="8" t="n">
         <v/>
@@ -4313,7 +4325,7 @@
         <v>67</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C83" s="9" t="n"/>
     </row>
@@ -4322,7 +4334,7 @@
         <v>69</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C84" s="9" t="n"/>
     </row>
@@ -4331,7 +4343,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C85" s="9" t="n"/>
     </row>
@@ -4340,7 +4352,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C86" s="9" t="n"/>
     </row>
@@ -4349,7 +4361,7 @@
         <v>89</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C87" s="9" t="n"/>
     </row>
@@ -4358,7 +4370,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C88" s="9" t="n"/>
     </row>
@@ -4392,7 +4404,7 @@
         <v>65</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C92" s="8" t="n">
         <v/>
@@ -4412,7 +4424,7 @@
         <v>69</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C94" s="9" t="n"/>
     </row>
@@ -4430,7 +4442,7 @@
         <v>87</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C96" s="9" t="n"/>
     </row>
@@ -4439,7 +4451,7 @@
         <v>89</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C97" s="9" t="n"/>
     </row>
@@ -4448,7 +4460,7 @@
         <v>91</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C98" s="9" t="n"/>
     </row>
@@ -4482,7 +4494,7 @@
         <v>65</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" s="8" t="n">
         <v/>
@@ -4493,7 +4505,7 @@
         <v>67</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C103" s="9" t="n"/>
     </row>
@@ -4502,7 +4514,7 @@
         <v>69</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C104" s="9" t="n"/>
     </row>
@@ -4511,7 +4523,7 @@
         <v>85</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C105" s="9" t="n"/>
     </row>
@@ -4520,7 +4532,7 @@
         <v>87</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C106" s="9" t="n"/>
     </row>
@@ -4529,7 +4541,7 @@
         <v>89</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C107" s="9" t="n"/>
     </row>
@@ -4538,7 +4550,7 @@
         <v>91</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C108" s="9" t="n"/>
     </row>
@@ -4583,7 +4595,7 @@
         <v>67</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C113" s="9" t="n"/>
     </row>
@@ -4592,7 +4604,7 @@
         <v>69</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C114" s="9" t="n"/>
     </row>
@@ -4610,7 +4622,7 @@
         <v>87</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C116" s="9" t="n"/>
     </row>
@@ -4628,7 +4640,7 @@
         <v>91</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C118" s="9" t="n"/>
     </row>
@@ -4662,7 +4674,7 @@
         <v>65</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C122" s="8" t="n">
         <v/>
@@ -4682,7 +4694,7 @@
         <v>69</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C124" s="9" t="n"/>
     </row>
@@ -4700,7 +4712,7 @@
         <v>87</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C126" s="9" t="n"/>
     </row>
@@ -4752,7 +4764,7 @@
         <v>65</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="C132" s="8" t="n">
         <v/>
@@ -4763,7 +4775,7 @@
         <v>67</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C133" s="9" t="n"/>
     </row>
@@ -4772,7 +4784,7 @@
         <v>69</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C134" s="9" t="n"/>
     </row>
@@ -4790,7 +4802,7 @@
         <v>87</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C136" s="9" t="n"/>
     </row>
@@ -4808,7 +4820,7 @@
         <v>91</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C138" s="9" t="n"/>
     </row>
@@ -4842,7 +4854,7 @@
         <v>65</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C142" s="8" t="n">
         <v/>
@@ -4853,7 +4865,7 @@
         <v>67</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C143" s="9" t="n"/>
     </row>
@@ -4862,7 +4874,7 @@
         <v>69</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C144" s="9" t="n"/>
     </row>
@@ -4880,7 +4892,7 @@
         <v>87</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C146" s="9" t="n"/>
     </row>
@@ -4889,7 +4901,7 @@
         <v>89</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C147" s="9" t="n"/>
     </row>
@@ -4898,7 +4910,7 @@
         <v>91</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C148" s="9" t="n"/>
     </row>
@@ -4932,7 +4944,7 @@
         <v>65</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C152" s="8" t="n">
         <v/>
@@ -4952,7 +4964,7 @@
         <v>69</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C154" s="9" t="n"/>
     </row>
@@ -4961,7 +4973,7 @@
         <v>85</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C155" s="9" t="n"/>
     </row>
@@ -4970,7 +4982,7 @@
         <v>87</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C156" s="9" t="n"/>
     </row>
@@ -4979,7 +4991,7 @@
         <v>89</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C157" s="9" t="n"/>
     </row>
@@ -4988,7 +5000,7 @@
         <v>91</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C158" s="9" t="n"/>
     </row>
@@ -5022,7 +5034,7 @@
         <v>65</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C162" s="8" t="n">
         <v/>
@@ -5042,7 +5054,7 @@
         <v>69</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C164" s="9" t="n"/>
     </row>
@@ -5051,7 +5063,7 @@
         <v>85</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C165" s="9" t="n"/>
     </row>
@@ -5060,7 +5072,7 @@
         <v>87</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C166" s="9" t="n"/>
     </row>
@@ -5069,7 +5081,7 @@
         <v>89</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C167" s="9" t="n"/>
     </row>
@@ -5078,7 +5090,7 @@
         <v>91</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C168" s="9" t="n"/>
     </row>
@@ -5112,7 +5124,7 @@
         <v>65</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C172" s="8" t="n">
         <v/>
@@ -5123,7 +5135,7 @@
         <v>67</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C173" s="9" t="n"/>
     </row>
@@ -5132,7 +5144,7 @@
         <v>69</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C174" s="9" t="n"/>
     </row>
@@ -5141,7 +5153,7 @@
         <v>85</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C175" s="9" t="n"/>
     </row>
@@ -5150,7 +5162,7 @@
         <v>87</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C176" s="9" t="n"/>
     </row>
@@ -5159,7 +5171,7 @@
         <v>89</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C177" s="9" t="n"/>
     </row>
@@ -5168,7 +5180,7 @@
         <v>91</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C178" s="9" t="n"/>
     </row>
@@ -5213,7 +5225,7 @@
         <v>67</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C183" s="9" t="n"/>
     </row>
@@ -5222,7 +5234,7 @@
         <v>69</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C184" s="9" t="n"/>
     </row>
@@ -5267,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="B189" s="11" t="n">
-        <v>0.956</v>
+        <v>0.959</v>
       </c>
       <c r="C189" s="12" t="n"/>
     </row>
@@ -5292,7 +5304,7 @@
         <v>65</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C192" s="8" t="n">
         <v/>
@@ -5303,7 +5315,7 @@
         <v>67</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C193" s="9" t="n"/>
     </row>
@@ -5312,7 +5324,7 @@
         <v>69</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C194" s="9" t="n"/>
     </row>
@@ -5321,7 +5333,7 @@
         <v>85</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C195" s="9" t="n"/>
     </row>
@@ -5330,7 +5342,7 @@
         <v>87</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C196" s="9" t="n"/>
     </row>
@@ -5339,7 +5351,7 @@
         <v>89</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C197" s="9" t="n"/>
     </row>
@@ -5348,7 +5360,7 @@
         <v>91</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C198" s="9" t="n"/>
     </row>
@@ -5382,7 +5394,7 @@
         <v>65</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="C202" s="8" t="n">
         <v/>
@@ -5402,7 +5414,7 @@
         <v>69</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C204" s="9" t="n"/>
     </row>
@@ -5420,7 +5432,7 @@
         <v>87</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C206" s="9" t="n"/>
     </row>
@@ -5438,7 +5450,7 @@
         <v>91</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C208" s="9" t="n"/>
     </row>
@@ -5483,7 +5495,7 @@
         <v>67</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C213" s="9" t="n"/>
     </row>
@@ -5492,7 +5504,7 @@
         <v>69</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C214" s="9" t="n"/>
     </row>
@@ -5510,7 +5522,7 @@
         <v>87</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C216" s="9" t="n"/>
     </row>
@@ -5528,7 +5540,7 @@
         <v>91</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C218" s="9" t="n"/>
     </row>
@@ -5573,7 +5585,7 @@
         <v>67</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C223" s="9" t="n"/>
     </row>
@@ -5582,7 +5594,7 @@
         <v>69</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C224" s="9" t="n"/>
     </row>
@@ -5600,7 +5612,7 @@
         <v>87</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C226" s="9" t="n"/>
     </row>
@@ -5618,7 +5630,7 @@
         <v>91</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C228" s="9" t="n"/>
     </row>
@@ -5652,7 +5664,7 @@
         <v>65</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C232" s="8" t="n">
         <v/>
@@ -5663,7 +5675,7 @@
         <v>67</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C233" s="9" t="n"/>
     </row>
@@ -5672,7 +5684,7 @@
         <v>69</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C234" s="9" t="n"/>
     </row>
@@ -5681,7 +5693,7 @@
         <v>85</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C235" s="9" t="n"/>
     </row>
@@ -5690,7 +5702,7 @@
         <v>87</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C236" s="9" t="n"/>
     </row>
@@ -5699,7 +5711,7 @@
         <v>89</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C237" s="9" t="n"/>
     </row>
@@ -5708,7 +5720,7 @@
         <v>91</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C238" s="9" t="n"/>
     </row>
@@ -5742,7 +5754,7 @@
         <v>65</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C242" s="8" t="n">
         <v/>
@@ -5762,7 +5774,7 @@
         <v>69</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C244" s="9" t="n"/>
     </row>
@@ -5771,7 +5783,7 @@
         <v>85</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C245" s="9" t="n"/>
     </row>
@@ -5780,7 +5792,7 @@
         <v>87</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C246" s="9" t="n"/>
     </row>
@@ -5789,7 +5801,7 @@
         <v>89</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C247" s="9" t="n"/>
     </row>
@@ -5798,7 +5810,7 @@
         <v>91</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C248" s="9" t="n"/>
     </row>
@@ -5832,7 +5844,7 @@
         <v>65</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C252" s="8" t="n">
         <v/>
@@ -5843,7 +5855,7 @@
         <v>67</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C253" s="9" t="n"/>
     </row>
@@ -5852,7 +5864,7 @@
         <v>69</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C254" s="9" t="n"/>
     </row>
@@ -5870,7 +5882,7 @@
         <v>87</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C256" s="9" t="n"/>
     </row>
@@ -5888,7 +5900,7 @@
         <v>91</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C258" s="9" t="n"/>
     </row>
@@ -5922,7 +5934,7 @@
         <v>65</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C262" s="8" t="n">
         <v/>
@@ -5933,7 +5945,7 @@
         <v>67</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C263" s="9" t="n"/>
     </row>
@@ -5942,7 +5954,7 @@
         <v>69</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C264" s="9" t="n"/>
     </row>
@@ -5960,7 +5972,7 @@
         <v>87</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C266" s="9" t="n"/>
     </row>
@@ -5969,7 +5981,7 @@
         <v>89</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C267" s="9" t="n"/>
     </row>
@@ -5978,7 +5990,7 @@
         <v>91</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C268" s="9" t="n"/>
     </row>
@@ -6012,7 +6024,7 @@
         <v>65</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C272" s="8" t="n">
         <v/>
@@ -6023,7 +6035,7 @@
         <v>67</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C273" s="9" t="n"/>
     </row>
@@ -6032,7 +6044,7 @@
         <v>69</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C274" s="9" t="n"/>
     </row>
@@ -6050,7 +6062,7 @@
         <v>87</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C276" s="9" t="n"/>
     </row>
@@ -6059,7 +6071,7 @@
         <v>89</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C277" s="9" t="n"/>
     </row>
@@ -6068,7 +6080,7 @@
         <v>91</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C278" s="9" t="n"/>
     </row>
@@ -6102,7 +6114,7 @@
         <v>65</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C282" s="8" t="n">
         <v/>
@@ -6113,7 +6125,7 @@
         <v>67</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C283" s="9" t="n"/>
     </row>
@@ -6122,7 +6134,7 @@
         <v>69</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C284" s="9" t="n"/>
     </row>
@@ -6140,7 +6152,7 @@
         <v>87</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C286" s="9" t="n"/>
     </row>
@@ -6149,7 +6161,7 @@
         <v>89</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C287" s="9" t="n"/>
     </row>
@@ -6158,7 +6170,7 @@
         <v>91</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C288" s="9" t="n"/>
     </row>
@@ -6192,7 +6204,7 @@
         <v>65</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C292" s="8" t="n">
         <v/>
@@ -6203,7 +6215,7 @@
         <v>67</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C293" s="9" t="n"/>
     </row>
@@ -6212,7 +6224,7 @@
         <v>69</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C294" s="9" t="n"/>
     </row>
@@ -6221,7 +6233,7 @@
         <v>85</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C295" s="9" t="n"/>
     </row>
@@ -6230,7 +6242,7 @@
         <v>87</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C296" s="9" t="n"/>
     </row>
@@ -6239,7 +6251,7 @@
         <v>89</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C297" s="9" t="n"/>
     </row>
@@ -6248,7 +6260,7 @@
         <v>91</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C298" s="9" t="n"/>
     </row>
@@ -6282,7 +6294,7 @@
         <v>65</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C302" s="8" t="n">
         <v/>
@@ -6293,7 +6305,7 @@
         <v>67</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C303" s="9" t="n"/>
     </row>
@@ -6302,7 +6314,7 @@
         <v>69</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C304" s="9" t="n"/>
     </row>
@@ -6320,7 +6332,7 @@
         <v>87</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C306" s="9" t="n"/>
     </row>
@@ -6329,7 +6341,7 @@
         <v>89</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C307" s="9" t="n"/>
     </row>
@@ -6338,7 +6350,7 @@
         <v>91</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C308" s="9" t="n"/>
     </row>
@@ -6409,7 +6421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="21"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
     <col customWidth="1" max="2" min="2" width="37.5"/>
     <col customWidth="1" max="3" min="3" width="37.5"/>
   </cols>
@@ -6440,7 +6452,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C3" s="14" t="n">
         <v/>
@@ -6451,7 +6463,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C4" s="14" t="n">
         <v/>
@@ -6503,13 +6515,13 @@
     </row>
     <row customHeight="1" ht="25" r="9" spans="1:3">
       <c r="A9" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="10" spans="1:3">
@@ -6608,7 +6620,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C19" s="14" t="n">
         <v/>
@@ -6619,7 +6631,7 @@
         <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C20" s="14" t="n">
         <v/>
@@ -6630,7 +6642,7 @@
         <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C21" s="14" t="n">
         <v/>
@@ -6682,13 +6694,13 @@
     </row>
     <row customHeight="1" ht="25" r="26" spans="1:3">
       <c r="A26" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="27" spans="1:3">
@@ -6798,7 +6810,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="C37" s="14" t="n">
         <v/>
@@ -6809,7 +6821,7 @@
         <v>67</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C38" s="14" t="n">
         <v/>
@@ -6820,7 +6832,7 @@
         <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C39" s="14" t="n">
         <v/>
@@ -6872,13 +6884,13 @@
     </row>
     <row customHeight="1" ht="25" r="44" spans="1:3">
       <c r="A44" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="45" spans="1:3">
@@ -6955,7 +6967,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C52" s="14" t="n">
         <v/>
@@ -6966,7 +6978,7 @@
         <v>67</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C53" s="14" t="n">
         <v/>
@@ -6977,7 +6989,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C54" s="14" t="n">
         <v/>
@@ -7029,13 +7041,13 @@
     </row>
     <row customHeight="1" ht="25" r="59" spans="1:3">
       <c r="A59" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="60" spans="1:3">
@@ -7178,7 +7190,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C73" s="14" t="n">
         <v/>
@@ -7189,7 +7201,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C74" s="14" t="n">
         <v/>
@@ -7200,7 +7212,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C75" s="14" t="n">
         <v/>
@@ -7244,7 +7256,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>1</v>
+        <v>0.984</v>
       </c>
       <c r="C79" s="14" t="n">
         <v/>
@@ -7252,13 +7264,13 @@
     </row>
     <row customHeight="1" ht="25" r="80" spans="1:3">
       <c r="A80" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="81" spans="1:3">
@@ -7291,7 +7303,7 @@
         <v>65</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C84" s="14" t="n">
         <v/>
@@ -7313,7 +7325,7 @@
         <v>69</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C86" s="14" t="n">
         <v/>
@@ -7365,13 +7377,13 @@
     </row>
     <row customHeight="1" ht="25" r="91" spans="1:3">
       <c r="A91" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="92" spans="1:3">
@@ -7426,7 +7438,7 @@
         <v>65</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C97" s="14" t="n">
         <v/>
@@ -7437,7 +7449,7 @@
         <v>67</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C98" s="14" t="n">
         <v/>
@@ -7448,7 +7460,7 @@
         <v>69</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C99" s="14" t="n">
         <v/>
@@ -7492,7 +7504,7 @@
         <v>2</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>0.739</v>
+        <v>0.725</v>
       </c>
       <c r="C103" s="14" t="n">
         <v/>
@@ -7500,13 +7512,13 @@
     </row>
     <row customHeight="1" ht="25" r="104" spans="1:3">
       <c r="A104" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="105" spans="1:3">
@@ -7539,7 +7551,7 @@
         <v>65</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C108" s="14" t="n">
         <v/>
@@ -7550,7 +7562,7 @@
         <v>67</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C109" s="14" t="n">
         <v/>
@@ -7561,7 +7573,7 @@
         <v>69</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C110" s="14" t="n">
         <v/>
@@ -7613,13 +7625,13 @@
     </row>
     <row customHeight="1" ht="25" r="115" spans="1:3">
       <c r="A115" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="116" spans="1:3">
@@ -7762,7 +7774,7 @@
         <v>67</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C129" s="14" t="n">
         <v/>
@@ -7773,7 +7785,7 @@
         <v>69</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C130" s="14" t="n">
         <v/>
@@ -7817,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="C134" s="14" t="n">
         <v/>
@@ -7825,13 +7837,13 @@
     </row>
     <row customHeight="1" ht="25" r="135" spans="1:3">
       <c r="A135" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="136" spans="1:3">
@@ -7875,7 +7887,7 @@
         <v>67</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C140" s="14" t="n">
         <v/>
@@ -7886,7 +7898,7 @@
         <v>69</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C141" s="14" t="n">
         <v/>
@@ -7930,7 +7942,7 @@
         <v>2</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="C145" s="14" t="n">
         <v/>
@@ -7938,13 +7950,13 @@
     </row>
     <row customHeight="1" ht="25" r="146" spans="1:3">
       <c r="A146" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="147" spans="1:3">
@@ -7988,7 +8000,7 @@
         <v>67</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C151" s="14" t="n">
         <v/>
@@ -7999,7 +8011,7 @@
         <v>69</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C152" s="14" t="n">
         <v/>
@@ -8043,7 +8055,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="3" t="n">
-        <v>0.964</v>
+        <v>0.96</v>
       </c>
       <c r="C156" s="14" t="n">
         <v/>
@@ -8051,13 +8063,13 @@
     </row>
     <row customHeight="1" ht="25" r="157" spans="1:3">
       <c r="A157" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="158" spans="1:3">
@@ -8090,7 +8102,7 @@
         <v>65</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C161" s="14" t="n">
         <v/>
@@ -8112,7 +8124,7 @@
         <v>69</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C163" s="14" t="n">
         <v/>
@@ -8164,18 +8176,18 @@
     </row>
     <row customHeight="1" ht="25" r="168" spans="1:3">
       <c r="A168" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="169" spans="1:3">
       <c r="A169" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B169" s="3" t="n">
         <v>1153896</v>
@@ -8186,7 +8198,7 @@
     </row>
     <row customHeight="1" ht="25" r="170" spans="1:3">
       <c r="A170" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B170" s="3" t="n">
         <v>522145</v>
@@ -8197,7 +8209,7 @@
     </row>
     <row customHeight="1" ht="25" r="171" spans="1:3">
       <c r="A171" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B171" s="3" t="n">
         <v>247494</v>
@@ -8208,7 +8220,7 @@
     </row>
     <row customHeight="1" ht="25" r="172" spans="1:3">
       <c r="A172" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B172" s="3" t="n">
         <v>225410</v>
@@ -8219,7 +8231,7 @@
     </row>
     <row customHeight="1" ht="25" r="173" spans="1:3">
       <c r="A173" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B173" s="3" t="n">
         <v>126491</v>
@@ -8230,7 +8242,7 @@
     </row>
     <row customHeight="1" ht="25" r="174" spans="1:3">
       <c r="A174" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B174" s="3" t="n">
         <v>123249</v>
@@ -8241,7 +8253,7 @@
     </row>
     <row customHeight="1" ht="25" r="175" spans="1:3">
       <c r="A175" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B175" s="3" t="n">
         <v>104612</v>
@@ -8252,7 +8264,7 @@
     </row>
     <row customHeight="1" ht="25" r="176" spans="1:3">
       <c r="A176" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B176" s="3" t="n">
         <v>60503</v>
@@ -8263,7 +8275,7 @@
     </row>
     <row customHeight="1" ht="25" r="177" spans="1:3">
       <c r="A177" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B177" s="3" t="n">
         <v>60167</v>
@@ -8274,7 +8286,7 @@
     </row>
     <row customHeight="1" ht="25" r="178" spans="1:3">
       <c r="A178" s="10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B178" s="11" t="n">
         <v>50978</v>
@@ -8302,7 +8314,7 @@
         <v>65</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C181" s="14" t="n">
         <v/>
@@ -8324,7 +8336,7 @@
         <v>69</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C183" s="14" t="n">
         <v/>
@@ -8376,13 +8388,13 @@
     </row>
     <row customHeight="1" ht="25" r="188" spans="1:3">
       <c r="A188" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B188" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="189" spans="1:3">
@@ -8514,7 +8526,7 @@
         <v>65</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C201" s="14" t="n">
         <v/>
@@ -8525,7 +8537,7 @@
         <v>67</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C202" s="14" t="n">
         <v/>
@@ -8536,7 +8548,7 @@
         <v>69</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C203" s="14" t="n">
         <v/>
@@ -8588,18 +8600,18 @@
     </row>
     <row customHeight="1" ht="25" r="208" spans="1:3">
       <c r="A208" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B208" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C208" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="209" spans="1:3">
       <c r="A209" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B209" s="3" t="n">
         <v>275029</v>
@@ -8610,7 +8622,7 @@
     </row>
     <row customHeight="1" ht="25" r="210" spans="1:3">
       <c r="A210" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B210" s="3" t="n">
         <v>67105</v>
@@ -8621,7 +8633,7 @@
     </row>
     <row customHeight="1" ht="25" r="211" spans="1:3">
       <c r="A211" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B211" s="3" t="n">
         <v>54859</v>
@@ -8632,7 +8644,7 @@
     </row>
     <row customHeight="1" ht="25" r="212" spans="1:3">
       <c r="A212" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B212" s="3" t="n">
         <v>52750</v>
@@ -8643,7 +8655,7 @@
     </row>
     <row customHeight="1" ht="25" r="213" spans="1:3">
       <c r="A213" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B213" s="3" t="n">
         <v>48808</v>
@@ -8654,7 +8666,7 @@
     </row>
     <row customHeight="1" ht="25" r="214" spans="1:3">
       <c r="A214" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B214" s="3" t="n">
         <v>39895</v>
@@ -8665,7 +8677,7 @@
     </row>
     <row customHeight="1" ht="25" r="215" spans="1:3">
       <c r="A215" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B215" s="3" t="n">
         <v>30459</v>
@@ -8676,7 +8688,7 @@
     </row>
     <row customHeight="1" ht="25" r="216" spans="1:3">
       <c r="A216" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B216" s="3" t="n">
         <v>30377</v>
@@ -8687,7 +8699,7 @@
     </row>
     <row customHeight="1" ht="25" r="217" spans="1:3">
       <c r="A217" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B217" s="3" t="n">
         <v>26632</v>
@@ -8698,7 +8710,7 @@
     </row>
     <row customHeight="1" ht="25" r="218" spans="1:3">
       <c r="A218" s="10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B218" s="11" t="n">
         <v>26103</v>
@@ -8726,7 +8738,7 @@
         <v>65</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C221" s="14" t="n">
         <v/>
@@ -8737,7 +8749,7 @@
         <v>67</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C222" s="14" t="n">
         <v/>
@@ -8748,7 +8760,7 @@
         <v>69</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C223" s="14" t="n">
         <v/>
@@ -8800,13 +8812,13 @@
     </row>
     <row customHeight="1" ht="25" r="228" spans="1:3">
       <c r="A228" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C228" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="229" spans="1:3">
@@ -8938,7 +8950,7 @@
         <v>65</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C241" s="14" t="n">
         <v/>
@@ -8960,7 +8972,7 @@
         <v>69</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C243" s="14" t="n">
         <v/>
@@ -9012,13 +9024,13 @@
     </row>
     <row customHeight="1" ht="25" r="248" spans="1:3">
       <c r="A248" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B248" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C248" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="249" spans="1:3">
@@ -9073,7 +9085,7 @@
         <v>65</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C254" s="14" t="n">
         <v/>
@@ -9084,7 +9096,7 @@
         <v>67</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C255" s="14" t="n">
         <v/>
@@ -9095,7 +9107,7 @@
         <v>69</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C256" s="14" t="n">
         <v/>
@@ -9147,13 +9159,13 @@
     </row>
     <row customHeight="1" ht="25" r="261" spans="1:3">
       <c r="A261" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B261" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C261" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="262" spans="1:3">
@@ -9285,7 +9297,7 @@
         <v>65</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C274" s="14" t="n">
         <v/>
@@ -9296,7 +9308,7 @@
         <v>67</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C275" s="14" t="n">
         <v/>
@@ -9307,7 +9319,7 @@
         <v>69</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C276" s="14" t="n">
         <v/>
@@ -9359,13 +9371,13 @@
     </row>
     <row customHeight="1" ht="25" r="281" spans="1:3">
       <c r="A281" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C281" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="282" spans="1:3">
@@ -9497,7 +9509,7 @@
         <v>65</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C294" s="14" t="n">
         <v/>
@@ -9519,7 +9531,7 @@
         <v>69</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C296" s="14" t="n">
         <v/>
@@ -9563,7 +9575,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="3" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C300" s="14" t="n">
         <v/>
@@ -9571,13 +9583,13 @@
     </row>
     <row customHeight="1" ht="25" r="301" spans="1:3">
       <c r="A301" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C301" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="302" spans="1:3">
@@ -9610,7 +9622,7 @@
         <v>65</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C305" s="14" t="n">
         <v/>
@@ -9621,7 +9633,7 @@
         <v>67</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C306" s="14" t="n">
         <v/>
@@ -9632,7 +9644,7 @@
         <v>69</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C307" s="14" t="n">
         <v/>
@@ -9684,13 +9696,13 @@
     </row>
     <row customHeight="1" ht="25" r="312" spans="1:3">
       <c r="A312" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C312" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="313" spans="1:3">
@@ -9767,7 +9779,7 @@
         <v>65</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C320" s="14" t="n">
         <v/>
@@ -9778,7 +9790,7 @@
         <v>67</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C321" s="14" t="n">
         <v/>
@@ -9789,7 +9801,7 @@
         <v>69</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C322" s="14" t="n">
         <v/>
@@ -9841,13 +9853,13 @@
     </row>
     <row customHeight="1" ht="25" r="327" spans="1:3">
       <c r="A327" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B327" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C327" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="328" spans="1:3">
@@ -9979,7 +9991,7 @@
         <v>65</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C340" s="14" t="n">
         <v/>
@@ -9990,7 +10002,7 @@
         <v>67</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C341" s="14" t="n">
         <v/>
@@ -10001,7 +10013,7 @@
         <v>69</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C342" s="14" t="n">
         <v/>
@@ -10053,13 +10065,13 @@
     </row>
     <row customHeight="1" ht="25" r="347" spans="1:3">
       <c r="A347" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C347" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="348" spans="1:3">
@@ -10092,7 +10104,7 @@
         <v>65</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C351" s="14" t="n">
         <v/>
@@ -10114,7 +10126,7 @@
         <v>69</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C353" s="14" t="n">
         <v/>
@@ -10166,13 +10178,13 @@
     </row>
     <row customHeight="1" ht="25" r="358" spans="1:3">
       <c r="A358" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B358" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C358" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="359" spans="1:3">
@@ -10315,7 +10327,7 @@
         <v>65</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C372" s="14" t="n">
         <v/>
@@ -10326,7 +10338,7 @@
         <v>67</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C373" s="14" t="n">
         <v/>
@@ -10337,7 +10349,7 @@
         <v>69</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C374" s="14" t="n">
         <v/>
@@ -10381,7 +10393,7 @@
         <v>2</v>
       </c>
       <c r="B378" s="3" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C378" s="14" t="n">
         <v/>
@@ -10389,18 +10401,18 @@
     </row>
     <row customHeight="1" ht="25" r="379" spans="1:3">
       <c r="A379" s="15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B379" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C379" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="380" spans="1:3">
       <c r="A380" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B380" s="11" t="n">
         <v>56462</v>

--- a/test/output/data_compare_properties_2016.xlsx
+++ b/test/output/data_compare_properties_2016.xlsx
@@ -218,8 +218,8 @@
     <t>sample_value</t>
   </si>
   <si>
-    <t>11908772
-13117269</t>
+    <t>12374081
+12953838</t>
   </si>
   <si>
     <t>nan_rate</t>
@@ -248,8 +248,8 @@
     <t>overlap rate</t>
   </si>
   <si>
-    <t>60375003.0011
-60590320.292</t>
+    <t>60590749.023003004
+60379201.081002004</t>
   </si>
   <si>
     <t>0.004
@@ -260,8 +260,8 @@
 99513/2982285</t>
   </si>
   <si>
-    <t>6.0373007013e+13
-6.0371212102e+13</t>
+    <t>60372149011001.0
+60374811031004.0</t>
   </si>
   <si>
     <t>0.025
@@ -275,8 +275,8 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>1196.0
-396.0</t>
+    <t>153.0
+895.0</t>
   </si>
   <si>
     <t>0.999
@@ -335,659 +335,663 @@
 32.0</t>
   </si>
   <si>
+    <t>3.0
+2.0</t>
+  </si>
+  <si>
+    <t>21/2973767
+25/2982272</t>
+  </si>
+  <si>
+    <t>3.089
+3.093</t>
+  </si>
+  <si>
+    <t>3.0
+3.0</t>
+  </si>
+  <si>
+    <t>20.0
+25.0</t>
+  </si>
+  <si>
+    <t>1.0
+4.0</t>
+  </si>
+  <si>
+    <t>0.043
+0.039</t>
+  </si>
+  <si>
+    <t>34/2856305
+36/2868061</t>
+  </si>
+  <si>
+    <t>1.0
+1.0</t>
+  </si>
+  <si>
+    <t>2.299
+2.304</t>
+  </si>
+  <si>
+    <t>1948.0
+1628.0</t>
+  </si>
+  <si>
+    <t>0.932
+0.932</t>
+  </si>
+  <si>
+    <t>4604/202717
+4625/203758</t>
+  </si>
+  <si>
+    <t>3.0
+1.0</t>
+  </si>
+  <si>
+    <t>1380.63
+1379.78</t>
+  </si>
+  <si>
+    <t>1283.0
+1281.0</t>
+  </si>
+  <si>
+    <t>31303.0
+31303.0</t>
+  </si>
+  <si>
+    <t>2008.0
+1510.0</t>
+  </si>
+  <si>
+    <t>0.019
+0.015</t>
+  </si>
+  <si>
+    <t>12587/2929652
+12631/2940120</t>
+  </si>
+  <si>
+    <t>1827.162
+1831.455</t>
+  </si>
+  <si>
+    <t>1572.0
+1574.0</t>
+  </si>
+  <si>
+    <t>952576.0
+952576.0</t>
+  </si>
+  <si>
+    <t>1274.0
+1579.0</t>
+  </si>
+  <si>
+    <t>0.092
+0.089</t>
+  </si>
+  <si>
+    <t>10670/2709184
+10732/2720786</t>
+  </si>
+  <si>
+    <t>1760.001
+1764.045</t>
+  </si>
+  <si>
+    <t>1539.0
+1542.0</t>
+  </si>
+  <si>
+    <t>290345.0
+427079.0</t>
+  </si>
+  <si>
+    <t>1200.0
+1344.0</t>
+  </si>
+  <si>
+    <t>0.997
+0.997</t>
+  </si>
+  <si>
+    <t>250/7672
+250/7671</t>
+  </si>
+  <si>
+    <t>120.0
+120.0</t>
+  </si>
+  <si>
+    <t>1178.901
+1178.917</t>
+  </si>
+  <si>
+    <t>1296.0
+1296.0</t>
+  </si>
+  <si>
+    <t>2688.0
+2688.0</t>
+  </si>
+  <si>
+    <t>3048.0
+2540.0</t>
+  </si>
+  <si>
+    <t>0.936
+0.936</t>
+  </si>
+  <si>
+    <t>8816/190798
+8798/190185</t>
+  </si>
+  <si>
+    <t>112.0
+112.0</t>
+  </si>
+  <si>
+    <t>2739.187
+2754.869</t>
+  </si>
+  <si>
+    <t>2172.0
+2173.0</t>
+  </si>
+  <si>
+    <t>820242.0
+820242.0</t>
+  </si>
+  <si>
+    <t>1353.0
+904.0</t>
+  </si>
+  <si>
+    <t>4802/202717
+4888/203758</t>
+  </si>
+  <si>
+    <t>1388.945
+1392.029</t>
+  </si>
+  <si>
+    <t>1284.0
+1284.0</t>
+  </si>
+  <si>
+    <t>31303.0
+41906.0</t>
+  </si>
+  <si>
+    <t>3681.0
+2714.0</t>
+  </si>
+  <si>
+    <t>0.993
+0.993</t>
+  </si>
+  <si>
+    <t>4251/22001
+4221/21482</t>
+  </si>
+  <si>
+    <t>117.0
+117.0</t>
+  </si>
+  <si>
+    <t>2414.339
+2427.555</t>
+  </si>
+  <si>
+    <t>1992.0
+2008.0</t>
+  </si>
+  <si>
+    <t>0.895
+0.895</t>
+  </si>
+  <si>
+    <t>9/312637
+9/313124</t>
+  </si>
+  <si>
+    <t>1.169
+1.169</t>
+  </si>
+  <si>
+    <t>9.0
+9.0</t>
+  </si>
+  <si>
+    <t>20/2856305
+22/2868061</t>
+  </si>
+  <si>
+    <t>2.244
+2.248</t>
+  </si>
+  <si>
+    <t>2.0
+1.0</t>
+  </si>
+  <si>
+    <t>0.704
+0.702</t>
+  </si>
+  <si>
+    <t>24/883267
+24/891008</t>
+  </si>
+  <si>
+    <t>1.824
+1.827</t>
+  </si>
+  <si>
+    <t>25.0
+25.0</t>
+  </si>
+  <si>
+    <t>1370.0
+584.0</t>
+  </si>
+  <si>
+    <t>2240/883267
+2253/891008</t>
+  </si>
+  <si>
+    <t>383.769
+383.156</t>
+  </si>
+  <si>
+    <t>441.0
+441.0</t>
+  </si>
+  <si>
+    <t>7749.0
+7749.0</t>
+  </si>
+  <si>
+    <t>34681827.0
+34234738.0</t>
+  </si>
+  <si>
+    <t>852325/2973780
+852718/2982285</t>
+  </si>
+  <si>
+    <t>33324388.0
+33324388.0</t>
+  </si>
+  <si>
+    <t>34001468.654
+34001306.006</t>
+  </si>
+  <si>
+    <t>34008249.0
+34008074.0</t>
+  </si>
+  <si>
+    <t>34819650.0
+34819650.0</t>
+  </si>
+  <si>
+    <t>-118259381.0
+-117822929.0</t>
+  </si>
+  <si>
+    <t>1042550/2973780
+1043238/2982285</t>
+  </si>
+  <si>
+    <t>-119475780.0
+-119475780.0</t>
+  </si>
+  <si>
+    <t>-118201934.159
+-118201663.079</t>
+  </si>
+  <si>
+    <t>-118172540.5
+-118172091.0</t>
+  </si>
+  <si>
+    <t>-117554316.0
+-117554316.0</t>
+  </si>
+  <si>
+    <t>7265.0
+3767.0</t>
+  </si>
+  <si>
+    <t>0.092
+0.091</t>
+  </si>
+  <si>
+    <t>69953/2709118
+70214/2712511</t>
+  </si>
+  <si>
+    <t>100.0
+100.0</t>
+  </si>
+  <si>
+    <t>22822.806
+22603.755</t>
+  </si>
+  <si>
+    <t>7000.0
+7000.0</t>
+  </si>
+  <si>
+    <t>328263808.0
+371000512.0</t>
+  </si>
+  <si>
+    <t>0.827
+0.819</t>
+  </si>
+  <si>
+    <t>1/517534
+1/539632</t>
+  </si>
+  <si>
+    <t>646.0
+525.0</t>
+  </si>
+  <si>
+    <t>0.991
+0.991</t>
+  </si>
+  <si>
+    <t>907/27960
+907/27958</t>
+  </si>
+  <si>
+    <t>19.0
+19.0</t>
+  </si>
+  <si>
+    <t>519.711
+519.715</t>
+  </si>
+  <si>
+    <t>495.0
+495.0</t>
+  </si>
+  <si>
+    <t>17410.0
+17410.0</t>
+  </si>
+  <si>
+    <t>5.0
+0.0</t>
+  </si>
+  <si>
+    <t>36/2973742
+36/2982248</t>
+  </si>
+  <si>
+    <t>1.475
+1.474</t>
+  </si>
+  <si>
+    <t>96.0
+96.0</t>
+  </si>
+  <si>
+    <t>0.896
+0.894</t>
+  </si>
+  <si>
+    <t>7/311631
+7/316357</t>
+  </si>
+  <si>
+    <t>1.01
+1.011</t>
+  </si>
+  <si>
+    <t>7.0
+7.0</t>
+  </si>
+  <si>
+    <t>0.338
+0.336</t>
+  </si>
+  <si>
+    <t>146/1977490
+154/1981042</t>
+  </si>
+  <si>
+    <t>1.181
+1.18</t>
+  </si>
+  <si>
+    <t>997.0
+997.0</t>
+  </si>
+  <si>
+    <t>300.0
+192.0</t>
+  </si>
+  <si>
+    <t>0.973
+0.973</t>
+  </si>
+  <si>
+    <t>1636/80355
+1664/81588</t>
+  </si>
+  <si>
+    <t>10.0
+10.0</t>
+  </si>
+  <si>
+    <t>319.803
+321.542</t>
+  </si>
+  <si>
+    <t>270.0
+270.0</t>
+  </si>
+  <si>
+    <t>7983.0
+7983.0</t>
+  </si>
+  <si>
+    <t>100.0
+18.0</t>
+  </si>
+  <si>
+    <t>594/2647
+594/2646</t>
+  </si>
+  <si>
+    <t>278.297
+278.365</t>
+  </si>
+  <si>
+    <t>168.0
+168.0</t>
+  </si>
+  <si>
+    <t>6141.0
+6141.0</t>
+  </si>
+  <si>
+    <t>0.772
+0.77</t>
+  </si>
+  <si>
+    <t>12/682069
+12/685676</t>
+  </si>
+  <si>
+    <t>1.401
+1.401</t>
+  </si>
+  <si>
+    <t>41.0
+41.0</t>
+  </si>
+  <si>
+    <t>135307.0
+83554.0</t>
+  </si>
+  <si>
+    <t>0.018
+0.016</t>
+  </si>
+  <si>
+    <t>426150/2930235
+437542/2938753</t>
+  </si>
+  <si>
+    <t>170883.577
+178142.888</t>
+  </si>
+  <si>
+    <t>122590.0
+127066.0</t>
+  </si>
+  <si>
+    <t>251486000.0
+255321161.0</t>
+  </si>
+  <si>
+    <t>349054.0
+53471.0</t>
+  </si>
+  <si>
+    <t>0.014
+0.011</t>
+  </si>
+  <si>
+    <t>638920/2942667
+661520/2950951</t>
+  </si>
+  <si>
+    <t>420478.991
+443527.931</t>
+  </si>
+  <si>
+    <t>306086.0
+321161.0</t>
+  </si>
+  <si>
+    <t>282786000.0
+319622473.0</t>
+  </si>
+  <si>
+    <t>225000.0
+1247860.0</t>
+  </si>
+  <si>
+    <t>0.023
+0.02</t>
+  </si>
+  <si>
+    <t>531408/2917484
+553303/2925291</t>
+  </si>
+  <si>
+    <t>252478.029
+268455.769</t>
+  </si>
+  <si>
+    <t>167042.0
+176619.0</t>
+  </si>
+  <si>
+    <t>90246219.0
+94011079.0</t>
+  </si>
+  <si>
+    <t>2846.49
+8819.37</t>
+  </si>
+  <si>
+    <t>0.01
+0.008</t>
+  </si>
+  <si>
+    <t>1045757/2953967
+1050011/2962465</t>
+  </si>
+  <si>
+    <t>1.34
+0.24</t>
+  </si>
+  <si>
+    <t>5377.607
+5408.949</t>
+  </si>
+  <si>
+    <t>3991.78
+4007.62</t>
+  </si>
+  <si>
+    <t>3458861.12
+3823175.65</t>
+  </si>
+  <si>
+    <t>15.0
+15.0</t>
+  </si>
+  <si>
+    <t>0.981
+0.981</t>
+  </si>
+  <si>
+    <t>32/56464
+31/56517</t>
+  </si>
+  <si>
+    <t>13.892
+13.892</t>
+  </si>
+  <si>
+    <t>14.0
+14.0</t>
+  </si>
+  <si>
+    <t>99.0
+99.0</t>
+  </si>
+  <si>
+    <t>0.728
+0.727</t>
+  </si>
+  <si>
+    <t>7/811519
+7/815362</t>
+  </si>
+  <si>
+    <t>top 10 values</t>
+  </si>
+  <si>
+    <t>count_1</t>
+  </si>
+  <si>
+    <t>count_2</t>
+  </si>
+  <si>
+    <t>0.998
+0.998</t>
+  </si>
+  <si>
+    <t>8/6061
+8/6061</t>
+  </si>
+  <si>
     <t>4.0
 4.0</t>
   </si>
   <si>
-    <t>21/2973767
-25/2982272</t>
-  </si>
-  <si>
-    <t>3.089
-3.093</t>
-  </si>
-  <si>
-    <t>3.0
-3.0</t>
-  </si>
-  <si>
-    <t>20.0
-25.0</t>
-  </si>
-  <si>
-    <t>1.0
-2.0</t>
-  </si>
-  <si>
-    <t>0.043
-0.039</t>
-  </si>
-  <si>
-    <t>34/2856305
-36/2868061</t>
-  </si>
-  <si>
-    <t>1.0
-1.0</t>
-  </si>
-  <si>
-    <t>2.299
-2.304</t>
-  </si>
-  <si>
-    <t>1644.0
-1020.0</t>
-  </si>
-  <si>
-    <t>0.932
-0.932</t>
-  </si>
-  <si>
-    <t>4604/202717
-4625/203758</t>
-  </si>
-  <si>
-    <t>3.0
-1.0</t>
-  </si>
-  <si>
-    <t>1380.63
-1379.78</t>
-  </si>
-  <si>
-    <t>1283.0
-1281.0</t>
-  </si>
-  <si>
-    <t>31303.0
-31303.0</t>
-  </si>
-  <si>
-    <t>7229.0
-5045.0</t>
-  </si>
-  <si>
-    <t>0.019
-0.015</t>
-  </si>
-  <si>
-    <t>12587/2929652
-12631/2940120</t>
-  </si>
-  <si>
-    <t>1827.162
-1831.455</t>
-  </si>
-  <si>
-    <t>1572.0
-1574.0</t>
-  </si>
-  <si>
-    <t>952576.0
-952576.0</t>
-  </si>
-  <si>
-    <t>1700.0
-962.0</t>
-  </si>
-  <si>
-    <t>0.092
-0.089</t>
-  </si>
-  <si>
-    <t>10670/2709184
-10732/2720786</t>
-  </si>
-  <si>
-    <t>1760.001
-1764.045</t>
-  </si>
-  <si>
-    <t>1539.0
-1542.0</t>
-  </si>
-  <si>
-    <t>290345.0
-427079.0</t>
-  </si>
-  <si>
-    <t>1536.0
-1620.0</t>
-  </si>
-  <si>
-    <t>0.997
-0.997</t>
-  </si>
-  <si>
-    <t>250/7672
-250/7671</t>
-  </si>
-  <si>
-    <t>120.0
-120.0</t>
-  </si>
-  <si>
-    <t>1178.901
-1178.917</t>
-  </si>
-  <si>
-    <t>1296.0
-1296.0</t>
-  </si>
-  <si>
-    <t>2688.0
-2688.0</t>
-  </si>
-  <si>
-    <t>2225.0
-2042.0</t>
-  </si>
-  <si>
-    <t>0.936
-0.936</t>
-  </si>
-  <si>
-    <t>8816/190798
-8798/190185</t>
-  </si>
-  <si>
-    <t>112.0
-112.0</t>
-  </si>
-  <si>
-    <t>2739.187
-2754.869</t>
-  </si>
-  <si>
-    <t>2172.0
-2173.0</t>
-  </si>
-  <si>
-    <t>820242.0
-820242.0</t>
-  </si>
-  <si>
-    <t>2205.0
-882.0</t>
-  </si>
-  <si>
-    <t>4802/202717
-4888/203758</t>
-  </si>
-  <si>
-    <t>1388.945
-1392.029</t>
-  </si>
-  <si>
-    <t>1284.0
-1284.0</t>
-  </si>
-  <si>
-    <t>31303.0
-41906.0</t>
-  </si>
-  <si>
-    <t>1194.0
-2108.0</t>
-  </si>
-  <si>
-    <t>0.993
-0.993</t>
-  </si>
-  <si>
-    <t>4251/22001
-4221/21482</t>
-  </si>
-  <si>
-    <t>117.0
-117.0</t>
-  </si>
-  <si>
-    <t>2414.339
-2427.555</t>
-  </si>
-  <si>
-    <t>1992.0
-2008.0</t>
-  </si>
-  <si>
-    <t>0.895
-0.895</t>
-  </si>
-  <si>
-    <t>9/312637
-9/313124</t>
-  </si>
-  <si>
-    <t>1.169
-1.169</t>
-  </si>
-  <si>
-    <t>9.0
-9.0</t>
-  </si>
-  <si>
-    <t>20/2856305
-22/2868061</t>
-  </si>
-  <si>
-    <t>2.244
-2.248</t>
-  </si>
-  <si>
-    <t>2.0
-1.0</t>
-  </si>
-  <si>
-    <t>0.704
-0.702</t>
-  </si>
-  <si>
-    <t>24/883267
-24/891008</t>
-  </si>
-  <si>
-    <t>1.824
-1.827</t>
-  </si>
-  <si>
-    <t>25.0
-25.0</t>
-  </si>
-  <si>
-    <t>495.0
-441.0</t>
-  </si>
-  <si>
-    <t>2240/883267
-2253/891008</t>
-  </si>
-  <si>
-    <t>383.769
-383.156</t>
-  </si>
-  <si>
-    <t>441.0
-441.0</t>
-  </si>
-  <si>
-    <t>7749.0
-7749.0</t>
-  </si>
-  <si>
-    <t>34042648.0
-34451181.0</t>
-  </si>
-  <si>
-    <t>852325/2973780
-852718/2982285</t>
-  </si>
-  <si>
-    <t>33324388.0
-33324388.0</t>
-  </si>
-  <si>
-    <t>34001468.654
-34001306.006</t>
-  </si>
-  <si>
-    <t>34008249.0
-34008074.0</t>
-  </si>
-  <si>
-    <t>34819650.0
-34819650.0</t>
-  </si>
-  <si>
-    <t>-118111431.0
--118173505.0</t>
-  </si>
-  <si>
-    <t>1042550/2973780
-1043238/2982285</t>
-  </si>
-  <si>
-    <t>-119475780.0
--119475780.0</t>
-  </si>
-  <si>
-    <t>-118201934.159
--118201663.079</t>
-  </si>
-  <si>
-    <t>-118172540.5
--118172091.0</t>
-  </si>
-  <si>
-    <t>-117554316.0
--117554316.0</t>
-  </si>
-  <si>
-    <t>3018.0
-8750.0</t>
-  </si>
-  <si>
-    <t>0.092
-0.091</t>
-  </si>
-  <si>
-    <t>69953/2709118
-70214/2712511</t>
-  </si>
-  <si>
-    <t>100.0
-100.0</t>
-  </si>
-  <si>
-    <t>22822.806
-22603.755</t>
-  </si>
-  <si>
-    <t>7000.0
-7000.0</t>
-  </si>
-  <si>
-    <t>328263808.0
-371000512.0</t>
-  </si>
-  <si>
-    <t>0.827
-0.819</t>
-  </si>
-  <si>
-    <t>1/517534
-1/539632</t>
-  </si>
-  <si>
-    <t>325.0
-420.0</t>
-  </si>
-  <si>
-    <t>0.991
-0.991</t>
-  </si>
-  <si>
-    <t>907/27960
-907/27958</t>
-  </si>
-  <si>
-    <t>19.0
-19.0</t>
-  </si>
-  <si>
-    <t>519.711
-519.715</t>
-  </si>
-  <si>
-    <t>495.0
-495.0</t>
-  </si>
-  <si>
-    <t>17410.0
-17410.0</t>
-  </si>
-  <si>
-    <t>0.0
-4.0</t>
-  </si>
-  <si>
-    <t>36/2973742
-36/2982248</t>
-  </si>
-  <si>
-    <t>1.475
-1.474</t>
-  </si>
-  <si>
-    <t>96.0
-96.0</t>
-  </si>
-  <si>
-    <t>0.896
-0.894</t>
-  </si>
-  <si>
-    <t>7/311631
-7/316357</t>
-  </si>
-  <si>
-    <t>1.01
-1.011</t>
-  </si>
-  <si>
-    <t>7.0
-7.0</t>
-  </si>
-  <si>
-    <t>0.338
-0.336</t>
-  </si>
-  <si>
-    <t>146/1977490
-154/1981042</t>
-  </si>
-  <si>
-    <t>1.181
-1.18</t>
-  </si>
-  <si>
-    <t>997.0
-997.0</t>
-  </si>
-  <si>
-    <t>540.0
-200.0</t>
-  </si>
-  <si>
-    <t>0.973
-0.973</t>
-  </si>
-  <si>
-    <t>1636/80355
-1664/81588</t>
-  </si>
-  <si>
-    <t>10.0
-10.0</t>
-  </si>
-  <si>
-    <t>319.803
-321.542</t>
-  </si>
-  <si>
-    <t>270.0
-270.0</t>
-  </si>
-  <si>
-    <t>7983.0
-7983.0</t>
-  </si>
-  <si>
-    <t>336.0
-352.0</t>
-  </si>
-  <si>
-    <t>594/2647
-594/2646</t>
-  </si>
-  <si>
-    <t>278.297
-278.365</t>
-  </si>
-  <si>
-    <t>168.0
-168.0</t>
-  </si>
-  <si>
-    <t>6141.0
-6141.0</t>
-  </si>
-  <si>
-    <t>0.772
-0.77</t>
-  </si>
-  <si>
-    <t>12/682069
-12/685676</t>
-  </si>
-  <si>
-    <t>1.401
-1.401</t>
-  </si>
-  <si>
-    <t>41.0
-41.0</t>
-  </si>
-  <si>
-    <t>105000.0
-64536.0</t>
-  </si>
-  <si>
-    <t>0.018
-0.016</t>
-  </si>
-  <si>
-    <t>426150/2930235
-437542/2938753</t>
-  </si>
-  <si>
-    <t>170883.577
-178142.888</t>
-  </si>
-  <si>
-    <t>122590.0
-127066.0</t>
-  </si>
-  <si>
-    <t>251486000.0
-255321161.0</t>
-  </si>
-  <si>
-    <t>95563.0
-494111.0</t>
-  </si>
-  <si>
-    <t>0.014
-0.011</t>
-  </si>
-  <si>
-    <t>638920/2942667
-661520/2950951</t>
-  </si>
-  <si>
-    <t>420478.991
-443527.931</t>
-  </si>
-  <si>
-    <t>306086.0
-321161.0</t>
-  </si>
-  <si>
-    <t>282786000.0
-319622473.0</t>
-  </si>
-  <si>
-    <t>111605.0
-179319.0</t>
-  </si>
-  <si>
-    <t>0.023
-0.02</t>
-  </si>
-  <si>
-    <t>531408/2917484
-553303/2925291</t>
-  </si>
-  <si>
-    <t>252478.029
-268455.769</t>
-  </si>
-  <si>
-    <t>167042.0
-176619.0</t>
-  </si>
-  <si>
-    <t>90246219.0
-94011079.0</t>
-  </si>
-  <si>
-    <t>4074.4
-9596.53</t>
-  </si>
-  <si>
-    <t>0.01
-0.008</t>
-  </si>
-  <si>
-    <t>1045757/2953967
-1050011/2962465</t>
-  </si>
-  <si>
-    <t>1.34
-0.24</t>
-  </si>
-  <si>
-    <t>5377.607
-5408.949</t>
-  </si>
-  <si>
-    <t>3991.78
-4007.62</t>
-  </si>
-  <si>
-    <t>3458861.12
-3823175.65</t>
-  </si>
-  <si>
-    <t>14.0
-15.0</t>
-  </si>
-  <si>
-    <t>0.981
-0.981</t>
-  </si>
-  <si>
-    <t>32/56464
-31/56517</t>
-  </si>
-  <si>
-    <t>13.892
-13.892</t>
-  </si>
-  <si>
-    <t>14.0
-14.0</t>
-  </si>
-  <si>
-    <t>99.0
-99.0</t>
-  </si>
-  <si>
-    <t>0.728
-0.727</t>
-  </si>
-  <si>
-    <t>7/811519
-7/815362</t>
-  </si>
-  <si>
-    <t>top 10 values</t>
-  </si>
-  <si>
-    <t>count_1</t>
-  </si>
-  <si>
-    <t>count_2</t>
-  </si>
-  <si>
-    <t>0.998
-0.998</t>
-  </si>
-  <si>
-    <t>8/6061
-8/6061</t>
-  </si>
-  <si>
     <t>0.996
 0.996</t>
   </si>
@@ -997,7 +1001,7 @@
   </si>
   <si>
     <t>7.0
-5.0</t>
+6.0</t>
   </si>
   <si>
     <t>0.351
@@ -1020,7 +1024,7 @@
 1/17379</t>
   </si>
   <si>
-    <t>6037.0
+    <t>6059.0
 6037.0</t>
   </si>
   <si>
@@ -1040,10 +1044,6 @@
 1/50062</t>
   </si>
   <si>
-    <t>7.0
-2.0</t>
-  </si>
-  <si>
     <t>0.395
 0.374</t>
   </si>
@@ -1077,7 +1077,7 @@
   </si>
   <si>
     <t>0100
-0100</t>
+1129</t>
   </si>
   <si>
     <t>240/2972940
@@ -1122,8 +1122,8 @@
 16/2982285</t>
   </si>
   <si>
-    <t>LCR110
-LAR1</t>
+    <t>SPR1E*
+LRRA6500*</t>
   </si>
   <si>
     <t>0.337
@@ -1164,8 +1164,8 @@
     <t>LARA</t>
   </si>
   <si>
-    <t>40227.0
-34543.0</t>
+    <t>18874.0
+27110.0</t>
   </si>
   <si>
     <t>0.021
@@ -1176,12 +1176,12 @@
 186/2923089</t>
   </si>
   <si>
-    <t>3101.0
-1286.0</t>
-  </si>
-  <si>
-    <t>403184.0
-273257.0</t>
+    <t>1286.0
+3101.0</t>
+  </si>
+  <si>
+    <t>411433.0
+273400.0</t>
   </si>
   <si>
     <t>0.613
@@ -1192,8 +1192,8 @@
 529/1156741</t>
   </si>
   <si>
-    <t>96185.0
-96083.0</t>
+    <t>96218.0
+96415.0</t>
   </si>
   <si>
     <t>0.005
@@ -1216,8 +1216,8 @@
 5/6746</t>
   </si>
   <si>
-    <t>1950.0
-1946.0</t>
+    <t>1976.0
+1924.0</t>
   </si>
   <si>
     <t>0.02
@@ -2625,8 +2625,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="42"/>
-    <col customWidth="1" max="2" min="2" width="30"/>
-    <col customWidth="1" max="3" min="3" width="30"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="25" r="0" spans="1:3"/>
@@ -3298,8 +3298,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="49.5"/>
+    <col customWidth="1" max="1" min="1" width="21"/>
+    <col customWidth="1" max="2" min="2" width="55.5"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
   <sheetData>
@@ -3572,7 +3572,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="18"/>
     <col customWidth="1" max="2" min="2" width="46.5"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
@@ -5574,7 +5574,7 @@
         <v>65</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C222" s="8" t="n">
         <v/>
@@ -6421,7 +6421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="1" min="1" width="21"/>
     <col customWidth="1" max="2" min="2" width="37.5"/>
     <col customWidth="1" max="3" min="3" width="37.5"/>
   </cols>
@@ -6810,7 +6810,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="C37" s="14" t="n">
         <v/>
@@ -6821,7 +6821,7 @@
         <v>67</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C38" s="14" t="n">
         <v/>
@@ -6832,7 +6832,7 @@
         <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C39" s="14" t="n">
         <v/>
@@ -6967,7 +6967,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C52" s="14" t="n">
         <v/>
@@ -6978,7 +6978,7 @@
         <v>67</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C53" s="14" t="n">
         <v/>
@@ -6989,7 +6989,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C54" s="14" t="n">
         <v/>
@@ -7190,7 +7190,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C73" s="14" t="n">
         <v/>
@@ -7201,7 +7201,7 @@
         <v>67</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C74" s="14" t="n">
         <v/>
@@ -7212,7 +7212,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C75" s="14" t="n">
         <v/>
@@ -7303,7 +7303,7 @@
         <v>65</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C84" s="14" t="n">
         <v/>
@@ -7325,7 +7325,7 @@
         <v>69</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C86" s="14" t="n">
         <v/>
@@ -7438,7 +7438,7 @@
         <v>65</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C97" s="14" t="n">
         <v/>
@@ -7449,7 +7449,7 @@
         <v>67</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C98" s="14" t="n">
         <v/>
@@ -7460,7 +7460,7 @@
         <v>69</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C99" s="14" t="n">
         <v/>
@@ -7551,7 +7551,7 @@
         <v>65</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="C108" s="14" t="n">
         <v/>
@@ -8972,7 +8972,7 @@
         <v>69</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C243" s="14" t="n">
         <v/>
@@ -9991,7 +9991,7 @@
         <v>65</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C340" s="14" t="n">
         <v/>
@@ -10427,434 +10427,434 @@
       <c r="C381" s="13" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B9:B16">
+  <conditionalFormatting sqref="B10:B16">
     <cfRule priority="1" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="744291"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C16">
+  <conditionalFormatting sqref="C10:C16">
     <cfRule priority="2" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="744291"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B34">
+  <conditionalFormatting sqref="B27:B34">
     <cfRule priority="3" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5251"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C34">
+  <conditionalFormatting sqref="C27:C34">
     <cfRule priority="4" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5251"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B44:B49">
+  <conditionalFormatting sqref="B45:B49">
     <cfRule priority="5" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="9500"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:C49">
+  <conditionalFormatting sqref="C45:C49">
     <cfRule priority="6" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="9500"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B59:B70">
+  <conditionalFormatting sqref="B60:B70">
     <cfRule priority="7" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1133238"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C59:C70">
+  <conditionalFormatting sqref="C60:C70">
     <cfRule priority="8" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1133238"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B80:B81">
+  <conditionalFormatting sqref="B81">
     <cfRule priority="9" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="17379"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80:C81">
+  <conditionalFormatting sqref="C81">
     <cfRule priority="10" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="17379"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B91:B94">
+  <conditionalFormatting sqref="B92:B94">
     <cfRule priority="11" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2012741"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91:C94">
+  <conditionalFormatting sqref="C92:C94">
     <cfRule priority="12" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2012741"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B105">
+  <conditionalFormatting sqref="B105">
     <cfRule priority="13" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="69014"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104:C105">
+  <conditionalFormatting sqref="C105">
     <cfRule priority="14" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="69014"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B115:B125">
+  <conditionalFormatting sqref="B116:B125">
     <cfRule priority="15" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1168610"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C115:C125">
+  <conditionalFormatting sqref="C116:C125">
     <cfRule priority="16" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1168610"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B135:B136">
+  <conditionalFormatting sqref="B136">
     <cfRule priority="17" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="36939"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135:C136">
+  <conditionalFormatting sqref="C136">
     <cfRule priority="18" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="36939"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B146:B147">
+  <conditionalFormatting sqref="B147">
     <cfRule priority="19" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="33056"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C146:C147">
+  <conditionalFormatting sqref="C147">
     <cfRule priority="20" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="33056"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B157:B158">
+  <conditionalFormatting sqref="B158">
     <cfRule priority="21" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="505895"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C157:C158">
+  <conditionalFormatting sqref="C158">
     <cfRule priority="22" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="505895"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B168:B178">
+  <conditionalFormatting sqref="B169:B178">
     <cfRule priority="23" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1153896"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C168:C178">
+  <conditionalFormatting sqref="C169:C178">
     <cfRule priority="24" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1153896"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B188:B198">
+  <conditionalFormatting sqref="B189:B198">
     <cfRule priority="25" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2152863"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C188:C198">
+  <conditionalFormatting sqref="C189:C198">
     <cfRule priority="26" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2152863"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B208:B218">
+  <conditionalFormatting sqref="B209:B218">
     <cfRule priority="27" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="275246"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C208:C218">
+  <conditionalFormatting sqref="C209:C218">
     <cfRule priority="28" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="275246"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B228:B238">
+  <conditionalFormatting sqref="B229:B238">
     <cfRule priority="29" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="670925"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C228:C238">
+  <conditionalFormatting sqref="C229:C238">
     <cfRule priority="30" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="670925"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B248:B251">
+  <conditionalFormatting sqref="B249:B251">
     <cfRule priority="31" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2012741"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C248:C251">
+  <conditionalFormatting sqref="C249:C251">
     <cfRule priority="32" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2012741"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B261:B271">
+  <conditionalFormatting sqref="B262:B271">
     <cfRule priority="33" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="32267"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C261:C271">
+  <conditionalFormatting sqref="C262:C271">
     <cfRule priority="34" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="32267"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B281:B291">
+  <conditionalFormatting sqref="B282:B291">
     <cfRule priority="35" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="22025"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C281:C291">
+  <conditionalFormatting sqref="C282:C291">
     <cfRule priority="36" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="22025"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B301:B302">
+  <conditionalFormatting sqref="B302">
     <cfRule priority="37" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1624"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C301:C302">
+  <conditionalFormatting sqref="C302">
     <cfRule priority="38" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1624"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B312:B317">
+  <conditionalFormatting sqref="B313:B317">
     <cfRule priority="39" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="6670"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C312:C317">
+  <conditionalFormatting sqref="C313:C317">
     <cfRule priority="40" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="6670"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B327:B337">
+  <conditionalFormatting sqref="B328:B337">
     <cfRule priority="41" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="88586"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C327:C337">
+  <conditionalFormatting sqref="C328:C337">
     <cfRule priority="42" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="88586"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B347:B348">
+  <conditionalFormatting sqref="B348">
     <cfRule priority="43" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5163"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C347:C348">
+  <conditionalFormatting sqref="C348">
     <cfRule priority="44" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5163"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B358:B369">
+  <conditionalFormatting sqref="B359:B369">
     <cfRule priority="45" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2978601"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C358:C369">
+  <conditionalFormatting sqref="C359:C369">
     <cfRule priority="46" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2978601"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B379:B380">
+  <conditionalFormatting sqref="B380">
     <cfRule priority="47" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="56515"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C379:C380">
+  <conditionalFormatting sqref="C380">
     <cfRule priority="48" type="dataBar">
       <dataBar showValue="1">
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="56515"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>

--- a/test/output/data_compare_properties_2016.xlsx
+++ b/test/output/data_compare_properties_2016.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
   <si>
     <t>column</t>
   </si>
@@ -218,8 +218,8 @@
     <t>sample_value</t>
   </si>
   <si>
-    <t>12374081
-12953838</t>
+    <t>12305940
+12019523</t>
   </si>
   <si>
     <t>nan_rate</t>
@@ -248,8 +248,8 @@
     <t>overlap rate</t>
   </si>
   <si>
-    <t>60590749.023003004
-60379201.081002004</t>
+    <t>60374824.021006
+60590525.172019</t>
   </si>
   <si>
     <t>0.004
@@ -260,8 +260,8 @@
 99513/2982285</t>
   </si>
   <si>
-    <t>60372149011001.0
-60374811031004.0</t>
+    <t>60372225001001.0
+60374805001012.0</t>
   </si>
   <si>
     <t>0.025
@@ -275,8 +275,8 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>153.0
-895.0</t>
+    <t>456.0
+840.0</t>
   </si>
   <si>
     <t>0.999
@@ -315,50 +315,50 @@
 8516.0</t>
   </si>
   <si>
+    <t>1.0
+2.0</t>
+  </si>
+  <si>
+    <t>37/2973755
+39/2982260</t>
+  </si>
+  <si>
+    <t>2.209
+2.216</t>
+  </si>
+  <si>
+    <t>2.0
+2.0</t>
+  </si>
+  <si>
+    <t>20.0
+32.0</t>
+  </si>
+  <si>
+    <t>4.0
+4.0</t>
+  </si>
+  <si>
+    <t>21/2973767
+25/2982272</t>
+  </si>
+  <si>
+    <t>3.089
+3.093</t>
+  </si>
+  <si>
+    <t>3.0
+3.0</t>
+  </si>
+  <si>
+    <t>20.0
+25.0</t>
+  </si>
+  <si>
     <t>2.0
 3.0</t>
   </si>
   <si>
-    <t>37/2973755
-39/2982260</t>
-  </si>
-  <si>
-    <t>2.209
-2.216</t>
-  </si>
-  <si>
-    <t>2.0
-2.0</t>
-  </si>
-  <si>
-    <t>20.0
-32.0</t>
-  </si>
-  <si>
-    <t>3.0
-2.0</t>
-  </si>
-  <si>
-    <t>21/2973767
-25/2982272</t>
-  </si>
-  <si>
-    <t>3.089
-3.093</t>
-  </si>
-  <si>
-    <t>3.0
-3.0</t>
-  </si>
-  <si>
-    <t>20.0
-25.0</t>
-  </si>
-  <si>
-    <t>1.0
-4.0</t>
-  </si>
-  <si>
     <t>0.043
 0.039</t>
   </si>
@@ -375,8 +375,8 @@
 2.304</t>
   </si>
   <si>
-    <t>1948.0
-1628.0</t>
+    <t>799.0
+1052.0</t>
   </si>
   <si>
     <t>0.932
@@ -403,8 +403,8 @@
 31303.0</t>
   </si>
   <si>
-    <t>2008.0
-1510.0</t>
+    <t>1287.0
+1027.0</t>
   </si>
   <si>
     <t>0.019
@@ -427,8 +427,8 @@
 952576.0</t>
   </si>
   <si>
-    <t>1274.0
-1579.0</t>
+    <t>1225.0
+1739.0</t>
   </si>
   <si>
     <t>0.092
@@ -451,8 +451,8 @@
 427079.0</t>
   </si>
   <si>
-    <t>1200.0
-1344.0</t>
+    <t>1440.0
+1152.0</t>
   </si>
   <si>
     <t>0.997
@@ -479,8 +479,8 @@
 2688.0</t>
   </si>
   <si>
-    <t>3048.0
-2540.0</t>
+    <t>2912.0
+1629.0</t>
   </si>
   <si>
     <t>0.936
@@ -507,8 +507,8 @@
 820242.0</t>
   </si>
   <si>
-    <t>1353.0
-904.0</t>
+    <t>1416.0
+1097.0</t>
   </si>
   <si>
     <t>4802/202717
@@ -527,8 +527,8 @@
 41906.0</t>
   </si>
   <si>
-    <t>3681.0
-2714.0</t>
+    <t>1218.0
+772.0</t>
   </si>
   <si>
     <t>0.993
@@ -567,6 +567,10 @@
 9.0</t>
   </si>
   <si>
+    <t>5.0
+3.0</t>
+  </si>
+  <si>
     <t>20/2856305
 22/2868061</t>
   </si>
@@ -575,254 +579,250 @@
 2.248</t>
   </si>
   <si>
+    <t>0.704
+0.702</t>
+  </si>
+  <si>
+    <t>24/883267
+24/891008</t>
+  </si>
+  <si>
+    <t>1.824
+1.827</t>
+  </si>
+  <si>
+    <t>25.0
+25.0</t>
+  </si>
+  <si>
+    <t>627.0
+0.0</t>
+  </si>
+  <si>
+    <t>2240/883267
+2253/891008</t>
+  </si>
+  <si>
+    <t>383.769
+383.156</t>
+  </si>
+  <si>
+    <t>441.0
+441.0</t>
+  </si>
+  <si>
+    <t>7749.0
+7749.0</t>
+  </si>
+  <si>
+    <t>33951589.0
+33976093.0</t>
+  </si>
+  <si>
+    <t>852325/2973780
+852718/2982285</t>
+  </si>
+  <si>
+    <t>33324388.0
+33324388.0</t>
+  </si>
+  <si>
+    <t>34001468.654
+34001306.006</t>
+  </si>
+  <si>
+    <t>34008249.0
+34008074.0</t>
+  </si>
+  <si>
+    <t>34819650.0
+34819650.0</t>
+  </si>
+  <si>
+    <t>-118108219.0
+-118324226.0</t>
+  </si>
+  <si>
+    <t>1042550/2973780
+1043238/2982285</t>
+  </si>
+  <si>
+    <t>-119475780.0
+-119475780.0</t>
+  </si>
+  <si>
+    <t>-118201934.159
+-118201663.079</t>
+  </si>
+  <si>
+    <t>-118172540.5
+-118172091.0</t>
+  </si>
+  <si>
+    <t>-117554316.0
+-117554316.0</t>
+  </si>
+  <si>
+    <t>100153.0
+6000.0</t>
+  </si>
+  <si>
+    <t>0.092
+0.091</t>
+  </si>
+  <si>
+    <t>69953/2709118
+70214/2712511</t>
+  </si>
+  <si>
+    <t>100.0
+100.0</t>
+  </si>
+  <si>
+    <t>22822.806
+22603.755</t>
+  </si>
+  <si>
+    <t>7000.0
+7000.0</t>
+  </si>
+  <si>
+    <t>328263808.0
+371000512.0</t>
+  </si>
+  <si>
+    <t>0.827
+0.819</t>
+  </si>
+  <si>
+    <t>1/517534
+1/539632</t>
+  </si>
+  <si>
+    <t>720.0
+627.0</t>
+  </si>
+  <si>
+    <t>0.991
+0.991</t>
+  </si>
+  <si>
+    <t>907/27960
+907/27958</t>
+  </si>
+  <si>
+    <t>19.0
+19.0</t>
+  </si>
+  <si>
+    <t>519.711
+519.715</t>
+  </si>
+  <si>
+    <t>495.0
+495.0</t>
+  </si>
+  <si>
+    <t>17410.0
+17410.0</t>
+  </si>
+  <si>
+    <t>36/2973742
+36/2982248</t>
+  </si>
+  <si>
+    <t>1.475
+1.474</t>
+  </si>
+  <si>
+    <t>96.0
+96.0</t>
+  </si>
+  <si>
+    <t>0.896
+0.894</t>
+  </si>
+  <si>
+    <t>7/311631
+7/316357</t>
+  </si>
+  <si>
+    <t>1.01
+1.011</t>
+  </si>
+  <si>
+    <t>7.0
+7.0</t>
+  </si>
+  <si>
+    <t>0.338
+0.336</t>
+  </si>
+  <si>
+    <t>146/1977490
+154/1981042</t>
+  </si>
+  <si>
+    <t>1.181
+1.18</t>
+  </si>
+  <si>
+    <t>997.0
+997.0</t>
+  </si>
+  <si>
+    <t>100.0
+1124.0</t>
+  </si>
+  <si>
+    <t>0.973
+0.973</t>
+  </si>
+  <si>
+    <t>1636/80355
+1664/81588</t>
+  </si>
+  <si>
+    <t>10.0
+10.0</t>
+  </si>
+  <si>
+    <t>319.803
+321.542</t>
+  </si>
+  <si>
+    <t>270.0
+270.0</t>
+  </si>
+  <si>
+    <t>7983.0
+7983.0</t>
+  </si>
+  <si>
+    <t>1600.0
+100.0</t>
+  </si>
+  <si>
+    <t>594/2647
+594/2646</t>
+  </si>
+  <si>
+    <t>278.297
+278.365</t>
+  </si>
+  <si>
+    <t>168.0
+168.0</t>
+  </si>
+  <si>
+    <t>6141.0
+6141.0</t>
+  </si>
+  <si>
     <t>2.0
 1.0</t>
   </si>
   <si>
-    <t>0.704
-0.702</t>
-  </si>
-  <si>
-    <t>24/883267
-24/891008</t>
-  </si>
-  <si>
-    <t>1.824
-1.827</t>
-  </si>
-  <si>
-    <t>25.0
-25.0</t>
-  </si>
-  <si>
-    <t>1370.0
-584.0</t>
-  </si>
-  <si>
-    <t>2240/883267
-2253/891008</t>
-  </si>
-  <si>
-    <t>383.769
-383.156</t>
-  </si>
-  <si>
-    <t>441.0
-441.0</t>
-  </si>
-  <si>
-    <t>7749.0
-7749.0</t>
-  </si>
-  <si>
-    <t>34681827.0
-34234738.0</t>
-  </si>
-  <si>
-    <t>852325/2973780
-852718/2982285</t>
-  </si>
-  <si>
-    <t>33324388.0
-33324388.0</t>
-  </si>
-  <si>
-    <t>34001468.654
-34001306.006</t>
-  </si>
-  <si>
-    <t>34008249.0
-34008074.0</t>
-  </si>
-  <si>
-    <t>34819650.0
-34819650.0</t>
-  </si>
-  <si>
-    <t>-118259381.0
--117822929.0</t>
-  </si>
-  <si>
-    <t>1042550/2973780
-1043238/2982285</t>
-  </si>
-  <si>
-    <t>-119475780.0
--119475780.0</t>
-  </si>
-  <si>
-    <t>-118201934.159
--118201663.079</t>
-  </si>
-  <si>
-    <t>-118172540.5
--118172091.0</t>
-  </si>
-  <si>
-    <t>-117554316.0
--117554316.0</t>
-  </si>
-  <si>
-    <t>7265.0
-3767.0</t>
-  </si>
-  <si>
-    <t>0.092
-0.091</t>
-  </si>
-  <si>
-    <t>69953/2709118
-70214/2712511</t>
-  </si>
-  <si>
-    <t>100.0
-100.0</t>
-  </si>
-  <si>
-    <t>22822.806
-22603.755</t>
-  </si>
-  <si>
-    <t>7000.0
-7000.0</t>
-  </si>
-  <si>
-    <t>328263808.0
-371000512.0</t>
-  </si>
-  <si>
-    <t>0.827
-0.819</t>
-  </si>
-  <si>
-    <t>1/517534
-1/539632</t>
-  </si>
-  <si>
-    <t>646.0
-525.0</t>
-  </si>
-  <si>
-    <t>0.991
-0.991</t>
-  </si>
-  <si>
-    <t>907/27960
-907/27958</t>
-  </si>
-  <si>
-    <t>19.0
-19.0</t>
-  </si>
-  <si>
-    <t>519.711
-519.715</t>
-  </si>
-  <si>
-    <t>495.0
-495.0</t>
-  </si>
-  <si>
-    <t>17410.0
-17410.0</t>
-  </si>
-  <si>
-    <t>5.0
-0.0</t>
-  </si>
-  <si>
-    <t>36/2973742
-36/2982248</t>
-  </si>
-  <si>
-    <t>1.475
-1.474</t>
-  </si>
-  <si>
-    <t>96.0
-96.0</t>
-  </si>
-  <si>
-    <t>0.896
-0.894</t>
-  </si>
-  <si>
-    <t>7/311631
-7/316357</t>
-  </si>
-  <si>
-    <t>1.01
-1.011</t>
-  </si>
-  <si>
-    <t>7.0
-7.0</t>
-  </si>
-  <si>
-    <t>0.338
-0.336</t>
-  </si>
-  <si>
-    <t>146/1977490
-154/1981042</t>
-  </si>
-  <si>
-    <t>1.181
-1.18</t>
-  </si>
-  <si>
-    <t>997.0
-997.0</t>
-  </si>
-  <si>
-    <t>300.0
-192.0</t>
-  </si>
-  <si>
-    <t>0.973
-0.973</t>
-  </si>
-  <si>
-    <t>1636/80355
-1664/81588</t>
-  </si>
-  <si>
-    <t>10.0
-10.0</t>
-  </si>
-  <si>
-    <t>319.803
-321.542</t>
-  </si>
-  <si>
-    <t>270.0
-270.0</t>
-  </si>
-  <si>
-    <t>7983.0
-7983.0</t>
-  </si>
-  <si>
-    <t>100.0
-18.0</t>
-  </si>
-  <si>
-    <t>594/2647
-594/2646</t>
-  </si>
-  <si>
-    <t>278.297
-278.365</t>
-  </si>
-  <si>
-    <t>168.0
-168.0</t>
-  </si>
-  <si>
-    <t>6141.0
-6141.0</t>
-  </si>
-  <si>
     <t>0.772
 0.77</t>
   </si>
@@ -839,8 +839,8 @@
 41.0</t>
   </si>
   <si>
-    <t>135307.0
-83554.0</t>
+    <t>221734.0
+19497.0</t>
   </si>
   <si>
     <t>0.018
@@ -863,8 +863,8 @@
 255321161.0</t>
   </si>
   <si>
-    <t>349054.0
-53471.0</t>
+    <t>176754.0
+642029.0</t>
   </si>
   <si>
     <t>0.014
@@ -887,8 +887,8 @@
 319622473.0</t>
   </si>
   <si>
-    <t>225000.0
-1247860.0</t>
+    <t>346460.0
+32823.0</t>
   </si>
   <si>
     <t>0.023
@@ -911,8 +911,8 @@
 94011079.0</t>
   </si>
   <si>
-    <t>2846.49
-8819.37</t>
+    <t>2700.89
+4475.76</t>
   </si>
   <si>
     <t>0.01
@@ -939,8 +939,8 @@
 3823175.65</t>
   </si>
   <si>
-    <t>15.0
-15.0</t>
+    <t>14.0
+13.0</t>
   </si>
   <si>
     <t>0.981
@@ -963,6 +963,10 @@
 99.0</t>
   </si>
   <si>
+    <t>5.0
+13.0</t>
+  </si>
+  <si>
     <t>0.728
 0.727</t>
   </si>
@@ -980,6 +984,30 @@
     <t>count_2</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
     <t>0.998
 0.998</t>
   </si>
@@ -988,8 +1016,22 @@
 8/6061</t>
   </si>
   <si>
-    <t>4.0
-4.0</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
   </si>
   <si>
     <t>0.996
@@ -1000,8 +1042,11 @@
 5/12731</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
     <t>7.0
-6.0</t>
+8.0</t>
   </si>
   <si>
     <t>0.351
@@ -1012,6 +1057,9 @@
 12/1941395</t>
   </si>
   <si>
+    <t>6.0</t>
+  </si>
+  <si>
     <t>66.0
 66.0</t>
   </si>
@@ -1024,6 +1072,9 @@
 1/17379</t>
   </si>
   <si>
+    <t>66.0</t>
+  </si>
+  <si>
     <t>6059.0
 6037.0</t>
   </si>
@@ -1032,6 +1083,15 @@
 3/2982285</t>
   </si>
   <si>
+    <t>6037.0</t>
+  </si>
+  <si>
+    <t>6059.0</t>
+  </si>
+  <si>
+    <t>6111.0</t>
+  </si>
+  <si>
     <t>True
 True</t>
   </si>
@@ -1044,6 +1104,9 @@
 1/50062</t>
   </si>
   <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>0.395
 0.374</t>
   </si>
@@ -1052,6 +1115,18 @@
 14/1869164</t>
   </si>
   <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
     <t>0.988
 0.994</t>
   </si>
@@ -1077,7 +1152,7 @@
   </si>
   <si>
     <t>0100
-1129</t>
+0100</t>
   </si>
   <si>
     <t>240/2972940
@@ -1115,15 +1190,45 @@
   </si>
   <si>
     <t>261.0
-261.0</t>
+246.0</t>
   </si>
   <si>
     <t>15/2973780
 16/2982285</t>
   </si>
   <si>
-    <t>SPR1E*
-LRRA6500*</t>
+    <t>261.0</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>263.0</t>
+  </si>
+  <si>
+    <t>248.0</t>
+  </si>
+  <si>
+    <t>247.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>HHRAS1*
+LARD2</t>
   </si>
   <si>
     <t>0.337
@@ -1161,11 +1266,8 @@
     <t>TORR-LO</t>
   </si>
   <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>18874.0
-27110.0</t>
+    <t>118878.0
+12447.0</t>
   </si>
   <si>
     <t>0.021
@@ -1176,12 +1278,48 @@
 186/2923089</t>
   </si>
   <si>
+    <t>12447.0</t>
+  </si>
+  <si>
+    <t>46298.0</t>
+  </si>
+  <si>
+    <t>16764.0</t>
+  </si>
+  <si>
+    <t>52650.0</t>
+  </si>
+  <si>
+    <t>25218.0</t>
+  </si>
+  <si>
+    <t>54311.0</t>
+  </si>
+  <si>
+    <t>5534.0</t>
+  </si>
+  <si>
+    <t>47568.0</t>
+  </si>
+  <si>
+    <t>40227.0</t>
+  </si>
+  <si>
     <t>1286.0
 3101.0</t>
   </si>
   <si>
-    <t>411433.0
-273400.0</t>
+    <t>3101.0</t>
+  </si>
+  <si>
+    <t>1286.0</t>
+  </si>
+  <si>
+    <t>2061.0</t>
+  </si>
+  <si>
+    <t>275916.0
+276023.0</t>
   </si>
   <si>
     <t>0.613
@@ -1192,8 +1330,35 @@
 529/1156741</t>
   </si>
   <si>
-    <t>96218.0
-96415.0</t>
+    <t>118208.0</t>
+  </si>
+  <si>
+    <t>268496.0</t>
+  </si>
+  <si>
+    <t>48570.0</t>
+  </si>
+  <si>
+    <t>27080.0</t>
+  </si>
+  <si>
+    <t>37739.0</t>
+  </si>
+  <si>
+    <t>54300.0</t>
+  </si>
+  <si>
+    <t>33183.0</t>
+  </si>
+  <si>
+    <t>34213.0</t>
+  </si>
+  <si>
+    <t>51906.0</t>
+  </si>
+  <si>
+    <t>96097.0
+96267.0</t>
   </si>
   <si>
     <t>0.005
@@ -1204,6 +1369,36 @@
 403/2972503</t>
   </si>
   <si>
+    <t>96987.0</t>
+  </si>
+  <si>
+    <t>96193.0</t>
+  </si>
+  <si>
+    <t>97118.0</t>
+  </si>
+  <si>
+    <t>97319.0</t>
+  </si>
+  <si>
+    <t>96964.0</t>
+  </si>
+  <si>
+    <t>97318.0</t>
+  </si>
+  <si>
+    <t>96368.0</t>
+  </si>
+  <si>
+    <t>96990.0</t>
+  </si>
+  <si>
+    <t>96962.0</t>
+  </si>
+  <si>
+    <t>97328.0</t>
+  </si>
+  <si>
     <t>1/1624
 1/1623</t>
   </si>
@@ -1216,8 +1411,8 @@
 5/6746</t>
   </si>
   <si>
-    <t>1976.0
-1924.0</t>
+    <t>1961.0
+1986.0</t>
   </si>
   <si>
     <t>0.02
@@ -1228,6 +1423,36 @@
 183/2937384</t>
   </si>
   <si>
+    <t>1955.0</t>
+  </si>
+  <si>
+    <t>1950.0</t>
+  </si>
+  <si>
+    <t>1954.0</t>
+  </si>
+  <si>
+    <t>1953.0</t>
+  </si>
+  <si>
+    <t>1956.0</t>
+  </si>
+  <si>
+    <t>1964.0</t>
+  </si>
+  <si>
+    <t>1951.0</t>
+  </si>
+  <si>
+    <t>1963.0</t>
+  </si>
+  <si>
+    <t>1952.0</t>
+  </si>
+  <si>
+    <t>1947.0</t>
+  </si>
+  <si>
     <t>1/5163
 1/5163</t>
   </si>
@@ -1238,6 +1463,36 @@
   <si>
     <t>14/2973778
 14/2982284</t>
+  </si>
+  <si>
+    <t>2015.0</t>
+  </si>
+  <si>
+    <t>2014.0</t>
+  </si>
+  <si>
+    <t>2012.0</t>
+  </si>
+  <si>
+    <t>2004.0</t>
+  </si>
+  <si>
+    <t>2013.0</t>
+  </si>
+  <si>
+    <t>2003.0</t>
+  </si>
+  <si>
+    <t>2001.0</t>
+  </si>
+  <si>
+    <t>2010.0</t>
+  </si>
+  <si>
+    <t>2009.0</t>
+  </si>
+  <si>
+    <t>2016.0</t>
   </si>
   <si>
     <t>Y
@@ -2660,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0.893</v>
+        <v>0.929</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="4" spans="1:3">
@@ -2726,7 +2981,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.259</v>
+        <v>0.396</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="10" spans="1:3">
@@ -2748,7 +3003,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.984</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="12" spans="1:3">
@@ -2891,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>0.725</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="25" spans="1:3">
@@ -2902,7 +3157,7 @@
         <v>6</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="26" spans="1:3">
@@ -2968,7 +3223,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>0.46</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="32" spans="1:3">
@@ -2979,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="33" spans="1:3">
@@ -2990,7 +3245,7 @@
         <v>6</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="34" spans="1:3">
@@ -3012,7 +3267,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="3" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="36" spans="1:3">
@@ -3100,7 +3355,7 @@
         <v>6</v>
       </c>
       <c r="C43" s="3" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="44" spans="1:3">
@@ -3221,7 +3476,7 @@
         <v>6</v>
       </c>
       <c r="C54" s="3" t="n">
-        <v>0.677</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="55" spans="1:3">
@@ -3254,7 +3509,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="3" t="n">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="58" spans="1:3">
@@ -3299,7 +3554,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="21"/>
-    <col customWidth="1" max="2" min="2" width="55.5"/>
+    <col customWidth="1" max="2" min="2" width="49.5"/>
     <col customWidth="1" max="3" min="3" width="90"/>
   </cols>
   <sheetData>
@@ -4584,7 +4839,7 @@
         <v>65</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C112" s="8" t="n">
         <v/>
@@ -4674,7 +4929,7 @@
         <v>65</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C122" s="8" t="n">
         <v/>
@@ -4694,7 +4949,7 @@
         <v>69</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C124" s="9" t="n"/>
     </row>
@@ -4712,7 +4967,7 @@
         <v>87</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C126" s="9" t="n"/>
     </row>
@@ -4764,7 +5019,7 @@
         <v>65</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="C132" s="8" t="n">
         <v/>
@@ -5394,7 +5649,7 @@
         <v>65</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="C202" s="8" t="n">
         <v/>
@@ -5414,7 +5669,7 @@
         <v>69</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C204" s="9" t="n"/>
     </row>
@@ -5432,7 +5687,7 @@
         <v>87</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C206" s="9" t="n"/>
     </row>
@@ -5450,7 +5705,7 @@
         <v>91</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C208" s="9" t="n"/>
     </row>
@@ -5495,7 +5750,7 @@
         <v>67</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C213" s="9" t="n"/>
     </row>
@@ -5504,7 +5759,7 @@
         <v>69</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C214" s="9" t="n"/>
     </row>
@@ -5522,7 +5777,7 @@
         <v>87</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C216" s="9" t="n"/>
     </row>
@@ -5540,7 +5795,7 @@
         <v>91</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C218" s="9" t="n"/>
     </row>
@@ -5574,7 +5829,7 @@
         <v>65</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C222" s="8" t="n">
         <v/>
@@ -5585,7 +5840,7 @@
         <v>67</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C223" s="9" t="n"/>
     </row>
@@ -5594,7 +5849,7 @@
         <v>69</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C224" s="9" t="n"/>
     </row>
@@ -5612,7 +5867,7 @@
         <v>87</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C226" s="9" t="n"/>
     </row>
@@ -5630,7 +5885,7 @@
         <v>91</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C228" s="9" t="n"/>
     </row>
@@ -5664,7 +5919,7 @@
         <v>65</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C232" s="8" t="n">
         <v/>
@@ -5675,7 +5930,7 @@
         <v>67</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C233" s="9" t="n"/>
     </row>
@@ -5684,7 +5939,7 @@
         <v>69</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C234" s="9" t="n"/>
     </row>
@@ -5693,7 +5948,7 @@
         <v>85</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C235" s="9" t="n"/>
     </row>
@@ -5702,7 +5957,7 @@
         <v>87</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C236" s="9" t="n"/>
     </row>
@@ -5711,7 +5966,7 @@
         <v>89</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C237" s="9" t="n"/>
     </row>
@@ -5720,7 +5975,7 @@
         <v>91</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C238" s="9" t="n"/>
     </row>
@@ -5754,7 +6009,7 @@
         <v>65</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C242" s="8" t="n">
         <v/>
@@ -5774,7 +6029,7 @@
         <v>69</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C244" s="9" t="n"/>
     </row>
@@ -5783,7 +6038,7 @@
         <v>85</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C245" s="9" t="n"/>
     </row>
@@ -5792,7 +6047,7 @@
         <v>87</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C246" s="9" t="n"/>
     </row>
@@ -5801,7 +6056,7 @@
         <v>89</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C247" s="9" t="n"/>
     </row>
@@ -5810,7 +6065,7 @@
         <v>91</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C248" s="9" t="n"/>
     </row>
@@ -5844,7 +6099,7 @@
         <v>65</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>106</v>
+        <v>219</v>
       </c>
       <c r="C252" s="8" t="n">
         <v/>
@@ -6413,7 +6668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:C398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6441,7 +6696,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="C2" s="14" t="n">
         <v/>
@@ -6452,7 +6707,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C3" s="14" t="n">
         <v/>
@@ -6463,7 +6718,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C4" s="14" t="n">
         <v/>
@@ -6507,7 +6762,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.893</v>
+        <v>0.929</v>
       </c>
       <c r="C8" s="14" t="n">
         <v/>
@@ -6515,123 +6770,123 @@
     </row>
     <row customHeight="1" ht="25" r="9" spans="1:3">
       <c r="A9" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="10" spans="1:3">
-      <c r="A10" s="7" t="n">
-        <v>1</v>
+      <c r="A10" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="B10" s="3" t="n">
+        <v>2173698</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>2169855</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="3" t="n">
         <v>742364</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C11" s="14" t="n">
         <v>744291</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="11" spans="1:3">
-      <c r="A11" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="n">
+    <row customHeight="1" ht="25" r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="3" t="n">
         <v>58457</v>
       </c>
-      <c r="C11" s="14" t="n">
+      <c r="C12" s="14" t="n">
         <v>58487</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="12" spans="1:3">
-      <c r="A12" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="n">
+    <row customHeight="1" ht="25" r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="3" t="n">
         <v>8795</v>
       </c>
-      <c r="C12" s="14" t="n">
+      <c r="C13" s="14" t="n">
         <v>8795</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="13" spans="1:3">
-      <c r="A13" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="n">
+    <row customHeight="1" ht="25" r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="3" t="n">
         <v>1818</v>
       </c>
-      <c r="C13" s="14" t="n">
+      <c r="C14" s="14" t="n">
         <v>1818</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="14" spans="1:3">
-      <c r="A14" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="n">
+    <row customHeight="1" ht="25" r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C15" s="14" t="n">
         <v>59</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="15" spans="1:3">
-      <c r="A15" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="3" t="n">
+    <row customHeight="1" ht="25" r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C16" s="14" t="n">
         <v>1905</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="16" spans="1:3">
-      <c r="A16" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" s="11" t="n">
+    <row customHeight="1" ht="25" r="17" spans="1:3">
+      <c r="A17" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C17" s="18" t="n">
         <v>7</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="17" spans="1:3">
-      <c r="A17" s="13" t="s"/>
-      <c r="B17" s="13" t="n"/>
-      <c r="C17" s="13" t="n"/>
-    </row>
     <row customHeight="1" ht="40" r="18" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="13" t="s"/>
+      <c r="B18" s="13" t="n"/>
+      <c r="C18" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="19" spans="1:3">
-      <c r="A19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v/>
-      </c>
+      <c r="C19" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="C20" s="14" t="n">
         <v/>
@@ -6639,10 +6894,10 @@
     </row>
     <row customHeight="1" ht="40" r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C21" s="14" t="n">
         <v/>
@@ -6650,10 +6905,10 @@
     </row>
     <row customHeight="1" ht="40" r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="3" t="n">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="C22" s="14" t="n">
         <v/>
@@ -6661,10 +6916,10 @@
     </row>
     <row customHeight="1" ht="40" r="23" spans="1:3">
       <c r="A23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C23" s="14" t="n">
         <v/>
@@ -6672,7 +6927,7 @@
     </row>
     <row customHeight="1" ht="40" r="24" spans="1:3">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="3" t="n">
         <v>0</v>
@@ -6683,156 +6938,156 @@
     </row>
     <row customHeight="1" ht="40" r="25" spans="1:3">
       <c r="A25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="26" spans="1:3">
+      <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="26" spans="1:3">
-      <c r="A26" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="16" t="s">
+      <c r="C26" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="27" spans="1:3">
+      <c r="A27" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="27" spans="1:3">
-      <c r="A27" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B27" s="3" t="n">
+      <c r="C27" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="28" spans="1:3">
+      <c r="A28" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>2979156</v>
+      </c>
+      <c r="C28" s="14" t="n">
+        <v>2979156</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="29" spans="1:3">
+      <c r="A29" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="3" t="n">
         <v>5251</v>
       </c>
-      <c r="C27" s="14" t="n">
+      <c r="C29" s="14" t="n">
         <v>5251</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="28" spans="1:3">
-      <c r="A28" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B28" s="3" t="n">
+    <row customHeight="1" ht="25" r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30" s="3" t="n">
         <v>380</v>
       </c>
-      <c r="C28" s="14" t="n">
+      <c r="C30" s="14" t="n">
         <v>380</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="29" spans="1:3">
-      <c r="A29" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" s="3" t="n">
+    <row customHeight="1" ht="25" r="31" spans="1:3">
+      <c r="A31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B31" s="3" t="n">
         <v>201</v>
       </c>
-      <c r="C29" s="14" t="n">
+      <c r="C31" s="14" t="n">
         <v>201</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="30" spans="1:3">
-      <c r="A30" s="7" t="n">
-        <v>21</v>
-      </c>
-      <c r="B30" s="3" t="n">
+    <row customHeight="1" ht="25" r="32" spans="1:3">
+      <c r="A32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B32" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C32" s="14" t="n">
         <v>150</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="31" spans="1:3">
-      <c r="A31" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3" t="n">
+    <row customHeight="1" ht="25" r="33" spans="1:3">
+      <c r="A33" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="C31" s="14" t="n">
+      <c r="C33" s="14" t="n">
         <v>58</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="32" spans="1:3">
-      <c r="A32" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B32" s="3" t="n">
+    <row customHeight="1" ht="25" r="34" spans="1:3">
+      <c r="A34" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="C32" s="14" t="n">
+      <c r="C34" s="14" t="n">
         <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="33" spans="1:3">
-      <c r="A33" s="7" t="n">
-        <v>27</v>
-      </c>
-      <c r="B33" s="3" t="n">
+    <row customHeight="1" ht="25" r="35" spans="1:3">
+      <c r="A35" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C35" s="14" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="34" spans="1:3">
-      <c r="A34" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B34" s="11" t="n">
+    <row customHeight="1" ht="25" r="36" spans="1:3">
+      <c r="A36" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="18" t="n">
+      <c r="C36" s="18" t="n">
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="35" spans="1:3">
-      <c r="A35" s="13" t="s"/>
-      <c r="B35" s="13" t="n"/>
-      <c r="C35" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
+    <row customHeight="1" ht="40" r="37" spans="1:3">
+      <c r="A37" s="13" t="s"/>
+      <c r="B37" s="13" t="n"/>
+      <c r="C37" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="37" spans="1:3">
-      <c r="A37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="38" spans="1:3">
-      <c r="A38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="14" t="n">
-        <v/>
-      </c>
+      <c r="C38" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="39" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="C39" s="14" t="n">
         <v/>
@@ -6840,10 +7095,10 @@
     </row>
     <row customHeight="1" ht="40" r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="3" t="n">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="C40" s="14" t="n">
         <v/>
@@ -6851,10 +7106,10 @@
     </row>
     <row customHeight="1" ht="40" r="41" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="C41" s="14" t="n">
         <v/>
@@ -6862,10 +7117,10 @@
     </row>
     <row customHeight="1" ht="40" r="42" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C42" s="14" t="n">
         <v/>
@@ -6873,134 +7128,134 @@
     </row>
     <row customHeight="1" ht="40" r="43" spans="1:3">
       <c r="A43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="44" spans="1:3">
+      <c r="A44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="45" spans="1:3">
+      <c r="A45" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B45" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="44" spans="1:3">
-      <c r="A44" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B44" s="16" t="s">
+      <c r="C45" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="46" spans="1:3">
+      <c r="A46" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="45" spans="1:3">
-      <c r="A45" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B45" s="3" t="n">
+      <c r="C46" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="47" spans="1:3">
+      <c r="A47" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>2972588</v>
+      </c>
+      <c r="C47" s="14" t="n">
+        <v>2972486</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="48" spans="1:3">
+      <c r="A48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" s="3" t="n">
         <v>9265</v>
       </c>
-      <c r="C45" s="14" t="n">
+      <c r="C48" s="14" t="n">
         <v>9500</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="46" spans="1:3">
-      <c r="A46" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B46" s="3" t="n">
+    <row customHeight="1" ht="25" r="49" spans="1:3">
+      <c r="A49" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B49" s="3" t="n">
         <v>3161</v>
       </c>
-      <c r="C46" s="14" t="n">
+      <c r="C49" s="14" t="n">
         <v>3028</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="47" spans="1:3">
-      <c r="A47" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B47" s="3" t="n">
+    <row customHeight="1" ht="25" r="50" spans="1:3">
+      <c r="A50" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="C47" s="14" t="n">
+      <c r="C50" s="14" t="n">
         <v>84</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="48" spans="1:3">
-      <c r="A48" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="n">
+    <row customHeight="1" ht="25" r="51" spans="1:3">
+      <c r="A51" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="C48" s="14" t="n">
+      <c r="C51" s="14" t="n">
         <v>75</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="49" spans="1:3">
-      <c r="A49" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B49" s="11" t="n">
+    <row customHeight="1" ht="25" r="52" spans="1:3">
+      <c r="A52" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="11" t="n">
         <v>57</v>
       </c>
-      <c r="C49" s="18" t="n">
+      <c r="C52" s="18" t="n">
         <v>44</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="50" spans="1:3">
-      <c r="A50" s="13" t="s"/>
-      <c r="B50" s="13" t="n"/>
-      <c r="C50" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="51" spans="1:3">
-      <c r="A51" s="4" t="s">
+    <row customHeight="1" ht="40" r="53" spans="1:3">
+      <c r="A53" s="13" t="s"/>
+      <c r="B53" s="13" t="n"/>
+      <c r="C53" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="52" spans="1:3">
-      <c r="A52" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C52" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="53" spans="1:3">
-      <c r="A53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C53" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="54" spans="1:3">
-      <c r="A54" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C54" s="14" t="n">
-        <v/>
-      </c>
+      <c r="C54" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="55" spans="1:3">
       <c r="A55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="C55" s="14" t="n">
         <v/>
@@ -7008,10 +7263,10 @@
     </row>
     <row customHeight="1" ht="40" r="56" spans="1:3">
       <c r="A56" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="C56" s="14" t="n">
         <v/>
@@ -7019,10 +7274,10 @@
     </row>
     <row customHeight="1" ht="40" r="57" spans="1:3">
       <c r="A57" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="C57" s="14" t="n">
         <v/>
@@ -7030,211 +7285,211 @@
     </row>
     <row customHeight="1" ht="40" r="58" spans="1:3">
       <c r="A58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C58" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="59" spans="1:3">
+      <c r="A59" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="60" spans="1:3">
+      <c r="A60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="61" spans="1:3">
+      <c r="A61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="3" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="C58" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="59" spans="1:3">
-      <c r="A59" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B59" s="16" t="s">
+      <c r="B61" s="3" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="C61" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="62" spans="1:3">
+      <c r="A62" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="60" spans="1:3">
-      <c r="A60" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B60" s="3" t="n">
+      <c r="C62" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="63" spans="1:3">
+      <c r="A63" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" s="3" t="n">
         <v>1133238</v>
       </c>
-      <c r="C60" s="14" t="n">
+      <c r="C63" s="14" t="n">
         <v>190244</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="61" spans="1:3">
-      <c r="A61" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B61" s="3" t="n">
+    <row customHeight="1" ht="25" r="64" spans="1:3">
+      <c r="A64" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>1046729</v>
+      </c>
+      <c r="C64" s="14" t="n">
+        <v>1043822</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="65" spans="1:3">
+      <c r="A65" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="3" t="n">
         <v>692160</v>
       </c>
-      <c r="C61" s="14" t="n">
+      <c r="C65" s="14" t="n">
         <v>448049</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="62" spans="1:3">
-      <c r="A62" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" s="3" t="n">
+    <row customHeight="1" ht="25" r="66" spans="1:3">
+      <c r="A66" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B66" s="3" t="n">
         <v>69467</v>
       </c>
-      <c r="C62" s="14" t="n">
+      <c r="C66" s="14" t="n">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="63" spans="1:3">
-      <c r="A63" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B63" s="3" t="n">
+    <row customHeight="1" ht="25" r="67" spans="1:3">
+      <c r="A67" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67" s="3" t="n">
         <v>39713</v>
       </c>
-      <c r="C63" s="14" t="n">
+      <c r="C67" s="14" t="n">
         <v>10629</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="64" spans="1:3">
-      <c r="A64" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="B64" s="3" t="n">
+    <row customHeight="1" ht="25" r="68" spans="1:3">
+      <c r="A68" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="3" t="n">
         <v>3692</v>
       </c>
-      <c r="C64" s="14" t="n">
-        <v>4123</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="65" spans="1:3">
-      <c r="A65" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B65" s="3" t="n">
+      <c r="C68" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="69" spans="1:3">
+      <c r="A69" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="C65" s="14" t="n">
+      <c r="C69" s="14" t="n">
         <v>561502</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="66" spans="1:3">
-      <c r="A66" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B66" s="3" t="n">
+    <row customHeight="1" ht="25" r="70" spans="1:3">
+      <c r="A70" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="C66" s="14" t="n">
+      <c r="C70" s="14" t="n">
         <v>501925</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="67" spans="1:3">
-      <c r="A67" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B67" s="3" t="n">
+    <row customHeight="1" ht="25" r="71" spans="1:3">
+      <c r="A71" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="C67" s="14" t="n">
+      <c r="C71" s="14" t="n">
         <v>69428</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="68" spans="1:3">
-      <c r="A68" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B68" s="3" t="n">
+    <row customHeight="1" ht="25" r="72" spans="1:3">
+      <c r="A72" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="C68" s="14" t="n">
+      <c r="C72" s="14" t="n">
         <v>107053</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="69" spans="1:3">
-      <c r="A69" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="B69" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="C69" s="14" t="n">
+    <row customHeight="1" ht="25" r="73" spans="1:3">
+      <c r="A73" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" s="14" t="n">
         <v>28488</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="70" spans="1:3">
-      <c r="A70" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B70" s="11" t="n">
+    <row customHeight="1" ht="25" r="74" spans="1:3">
+      <c r="A74" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B74" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C70" s="18" t="n">
+      <c r="C74" s="18" t="n">
         <v>17858</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="71" spans="1:3">
-      <c r="A71" s="13" t="s"/>
-      <c r="B71" s="13" t="n"/>
-      <c r="C71" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="72" spans="1:3">
-      <c r="A72" s="4" t="s">
+    <row customHeight="1" ht="40" r="75" spans="1:3">
+      <c r="A75" s="13" t="s"/>
+      <c r="B75" s="13" t="n"/>
+      <c r="C75" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="76" spans="1:3">
+      <c r="A76" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B76" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="73" spans="1:3">
-      <c r="A73" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C73" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="74" spans="1:3">
-      <c r="A74" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C74" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="75" spans="1:3">
-      <c r="A75" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C75" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="76" spans="1:3">
-      <c r="A76" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B76" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" s="14" t="n">
-        <v/>
-      </c>
+      <c r="C76" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="77" spans="1:3">
       <c r="A77" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="3" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="C77" s="14" t="n">
         <v/>
@@ -7242,10 +7497,10 @@
     </row>
     <row customHeight="1" ht="40" r="78" spans="1:3">
       <c r="A78" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B78" s="3" t="n">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="C78" s="14" t="n">
         <v/>
@@ -7253,112 +7508,112 @@
     </row>
     <row customHeight="1" ht="40" r="79" spans="1:3">
       <c r="A79" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="80" spans="1:3">
+      <c r="A80" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="81" spans="1:3">
+      <c r="A81" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="82" spans="1:3">
+      <c r="A82" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B82" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="83" spans="1:3">
+      <c r="A83" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="3" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="C79" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="80" spans="1:3">
-      <c r="A80" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B80" s="16" t="s">
+      <c r="B83" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="84" spans="1:3">
+      <c r="A84" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="B84" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="81" spans="1:3">
-      <c r="A81" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="B81" s="11" t="n">
+      <c r="C84" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="85" spans="1:3">
+      <c r="A85" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="3" t="n">
+        <v>2968121</v>
+      </c>
+      <c r="C85" s="14" t="n">
+        <v>2967838</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="86" spans="1:3">
+      <c r="A86" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" s="11" t="n">
         <v>17096</v>
       </c>
-      <c r="C81" s="18" t="n">
+      <c r="C86" s="18" t="n">
         <v>17379</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="82" spans="1:3">
-      <c r="A82" s="13" t="s"/>
-      <c r="B82" s="13" t="n"/>
-      <c r="C82" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="83" spans="1:3">
-      <c r="A83" s="4" t="s">
+    <row customHeight="1" ht="40" r="87" spans="1:3">
+      <c r="A87" s="13" t="s"/>
+      <c r="B87" s="13" t="n"/>
+      <c r="C87" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="88" spans="1:3">
+      <c r="A88" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="84" spans="1:3">
-      <c r="A84" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C84" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="85" spans="1:3">
-      <c r="A85" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="86" spans="1:3">
-      <c r="A86" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C86" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="87" spans="1:3">
-      <c r="A87" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C87" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="88" spans="1:3">
-      <c r="A88" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" s="14" t="n">
-        <v/>
-      </c>
+      <c r="C88" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="89" spans="1:3">
       <c r="A89" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="3" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="C89" s="14" t="n">
         <v/>
@@ -7366,192 +7621,200 @@
     </row>
     <row customHeight="1" ht="40" r="90" spans="1:3">
       <c r="A90" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="91" spans="1:3">
+      <c r="A91" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="92" spans="1:3">
+      <c r="A92" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C92" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="93" spans="1:3">
+      <c r="A93" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="94" spans="1:3">
+      <c r="A94" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="95" spans="1:3">
+      <c r="A95" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B90" s="3" t="n">
+      <c r="B95" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C90" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="91" spans="1:3">
-      <c r="A91" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B91" s="16" t="s">
+      <c r="C95" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="96" spans="1:3">
+      <c r="A96" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="B96" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="92" spans="1:3">
-      <c r="A92" s="7" t="n">
-        <v>6037</v>
-      </c>
-      <c r="B92" s="3" t="n">
+      <c r="C96" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="97" spans="1:3">
+      <c r="A97" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="3" t="n">
         <v>2009362</v>
       </c>
-      <c r="C92" s="14" t="n">
+      <c r="C97" s="14" t="n">
         <v>2012741</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="93" spans="1:3">
-      <c r="A93" s="7" t="n">
-        <v>6059</v>
-      </c>
-      <c r="B93" s="3" t="n">
+    <row customHeight="1" ht="25" r="98" spans="1:3">
+      <c r="A98" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="3" t="n">
         <v>741565</v>
       </c>
-      <c r="C93" s="14" t="n">
+      <c r="C98" s="14" t="n">
         <v>745800</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="94" spans="1:3">
-      <c r="A94" s="10" t="n">
-        <v>6111</v>
-      </c>
-      <c r="B94" s="11" t="n">
+    <row customHeight="1" ht="25" r="99" spans="1:3">
+      <c r="A99" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="3" t="n">
         <v>222853</v>
       </c>
-      <c r="C94" s="18" t="n">
+      <c r="C99" s="14" t="n">
         <v>223744</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="95" spans="1:3">
-      <c r="A95" s="13" t="s"/>
-      <c r="B95" s="13" t="n"/>
-      <c r="C95" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="96" spans="1:3">
-      <c r="A96" s="4" t="s">
+    <row customHeight="1" ht="25" r="100" spans="1:3">
+      <c r="A100" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B100" s="11" t="n">
+        <v>11437</v>
+      </c>
+      <c r="C100" s="18" t="n">
+        <v>2932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="101" spans="1:3">
+      <c r="A101" s="13" t="s"/>
+      <c r="B101" s="13" t="n"/>
+      <c r="C101" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="102" spans="1:3">
+      <c r="A102" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C96" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="97" spans="1:3">
-      <c r="A97" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C97" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="98" spans="1:3">
-      <c r="A98" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C98" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="99" spans="1:3">
-      <c r="A99" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C99" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="100" spans="1:3">
-      <c r="A100" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C100" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="101" spans="1:3">
-      <c r="A101" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="102" spans="1:3">
-      <c r="A102" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" s="14" t="n">
-        <v/>
-      </c>
+      <c r="C102" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="103" spans="1:3">
       <c r="A103" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B103" s="3" t="n">
-        <v>0.725</v>
+        <v>65</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="C103" s="14" t="n">
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="104" spans="1:3">
-      <c r="A104" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B104" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="105" spans="1:3">
-      <c r="A105" s="10" t="b">
+    <row customHeight="1" ht="40" r="104" spans="1:3">
+      <c r="A104" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C104" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="105" spans="1:3">
+      <c r="A105" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="106" spans="1:3">
+      <c r="A106" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B105" s="11" t="n">
-        <v>69014</v>
-      </c>
-      <c r="C105" s="18" t="n">
-        <v>50062</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="106" spans="1:3">
-      <c r="A106" s="13" t="s"/>
-      <c r="B106" s="13" t="n"/>
-      <c r="C106" s="13" t="n"/>
+      <c r="C106" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="107" spans="1:3">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" s="6" t="s"/>
+      <c r="C107" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="108" spans="1:3">
       <c r="A108" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>203</v>
+        <v>73</v>
+      </c>
+      <c r="B108" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C108" s="14" t="n">
         <v/>
@@ -7559,324 +7822,324 @@
     </row>
     <row customHeight="1" ht="40" r="109" spans="1:3">
       <c r="A109" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="110" spans="1:3">
+      <c r="A110" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="111" spans="1:3">
+      <c r="A111" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B111" s="3" t="n">
+        <v>2916203</v>
+      </c>
+      <c r="C111" s="14" t="n">
+        <v>2935155</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="112" spans="1:3">
+      <c r="A112" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B112" s="11" t="n">
+        <v>69014</v>
+      </c>
+      <c r="C112" s="18" t="n">
+        <v>50062</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="113" spans="1:3">
+      <c r="A113" s="13" t="s"/>
+      <c r="B113" s="13" t="n"/>
+      <c r="C113" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="114" spans="1:3">
+      <c r="A114" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="115" spans="1:3">
+      <c r="A115" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="116" spans="1:3">
+      <c r="A116" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C109" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="110" spans="1:3">
-      <c r="A110" s="7" t="s">
+      <c r="B116" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C116" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="117" spans="1:3">
+      <c r="A117" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C110" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="111" spans="1:3">
-      <c r="A111" s="7" t="s">
+      <c r="B117" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C117" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="118" spans="1:3">
+      <c r="A118" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B111" s="3" t="n">
+      <c r="B118" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C111" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="112" spans="1:3">
-      <c r="A112" s="7" t="s">
+      <c r="C118" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="119" spans="1:3">
+      <c r="A119" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B112" s="3" t="n">
+      <c r="B119" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C112" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="113" spans="1:3">
-      <c r="A113" s="7" t="s">
+      <c r="C119" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="120" spans="1:3">
+      <c r="A120" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B113" s="3" t="n">
+      <c r="B120" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C113" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="114" spans="1:3">
-      <c r="A114" s="7" t="s">
+      <c r="C120" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="121" spans="1:3">
+      <c r="A121" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="3" t="n">
+      <c r="B121" s="3" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C121" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="122" spans="1:3">
+      <c r="A122" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="123" spans="1:3">
+      <c r="A123" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B123" s="3" t="n">
+        <v>1178816</v>
+      </c>
+      <c r="C123" s="14" t="n">
+        <v>1116053</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="124" spans="1:3">
+      <c r="A124" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B124" s="3" t="n">
+        <v>1156830</v>
+      </c>
+      <c r="C124" s="14" t="n">
+        <v>1168610</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="125" spans="1:3">
+      <c r="A125" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125" s="3" t="n">
+        <v>595453</v>
+      </c>
+      <c r="C125" s="14" t="n">
+        <v>646021</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="126" spans="1:3">
+      <c r="A126" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B126" s="3" t="n">
+        <v>27480</v>
+      </c>
+      <c r="C126" s="14" t="n">
+        <v>27481</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="127" spans="1:3">
+      <c r="A127" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B127" s="3" t="n">
+        <v>21107</v>
+      </c>
+      <c r="C127" s="14" t="n">
+        <v>21107</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="128" spans="1:3">
+      <c r="A128" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B128" s="3" t="n">
+        <v>3216</v>
+      </c>
+      <c r="C128" s="14" t="n">
+        <v>3630</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="129" spans="1:3">
+      <c r="A129" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="3" t="n">
+        <v>1342</v>
+      </c>
+      <c r="C129" s="14" t="n">
+        <v>1342</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="130" spans="1:3">
+      <c r="A130" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B130" s="3" t="n">
+        <v>586</v>
+      </c>
+      <c r="C130" s="14" t="n">
+        <v>586</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="131" spans="1:3">
+      <c r="A131" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" s="3" t="n">
+        <v>262</v>
+      </c>
+      <c r="C131" s="14" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="132" spans="1:3">
+      <c r="A132" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="C132" s="18" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="133" spans="1:3">
+      <c r="A133" s="13" t="s"/>
+      <c r="B133" s="13" t="n"/>
+      <c r="C133" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="134" spans="1:3">
+      <c r="A134" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="135" spans="1:3">
+      <c r="A135" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="136" spans="1:3">
+      <c r="A136" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C136" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="137" spans="1:3">
+      <c r="A137" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="138" spans="1:3">
+      <c r="A138" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B138" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C114" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="115" spans="1:3">
-      <c r="A115" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B115" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="116" spans="1:3">
-      <c r="A116" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B116" s="3" t="n">
-        <v>1156830</v>
-      </c>
-      <c r="C116" s="14" t="n">
-        <v>1168610</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="117" spans="1:3">
-      <c r="A117" s="7" t="n">
-        <v>7</v>
-      </c>
-      <c r="B117" s="3" t="n">
-        <v>595453</v>
-      </c>
-      <c r="C117" s="14" t="n">
-        <v>646021</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="118" spans="1:3">
-      <c r="A118" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B118" s="3" t="n">
-        <v>27480</v>
-      </c>
-      <c r="C118" s="14" t="n">
-        <v>27481</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="119" spans="1:3">
-      <c r="A119" s="7" t="n">
-        <v>24</v>
-      </c>
-      <c r="B119" s="3" t="n">
-        <v>21107</v>
-      </c>
-      <c r="C119" s="14" t="n">
-        <v>21107</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="120" spans="1:3">
-      <c r="A120" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="B120" s="3" t="n">
-        <v>3216</v>
-      </c>
-      <c r="C120" s="14" t="n">
-        <v>3630</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="121" spans="1:3">
-      <c r="A121" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B121" s="3" t="n">
-        <v>1342</v>
-      </c>
-      <c r="C121" s="14" t="n">
-        <v>1342</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="122" spans="1:3">
-      <c r="A122" s="7" t="n">
-        <v>18</v>
-      </c>
-      <c r="B122" s="3" t="n">
-        <v>586</v>
-      </c>
-      <c r="C122" s="14" t="n">
-        <v>586</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="123" spans="1:3">
-      <c r="A123" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B123" s="3" t="n">
-        <v>262</v>
-      </c>
-      <c r="C123" s="14" t="n">
-        <v>262</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="124" spans="1:3">
-      <c r="A124" s="7" t="n">
-        <v>14</v>
-      </c>
-      <c r="B124" s="3" t="n">
-        <v>41</v>
-      </c>
-      <c r="C124" s="14" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="125" spans="1:3">
-      <c r="A125" s="10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B125" s="11" t="n">
-        <v>39</v>
-      </c>
-      <c r="C125" s="18" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="126" spans="1:3">
-      <c r="A126" s="13" t="s"/>
-      <c r="B126" s="13" t="n"/>
-      <c r="C126" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="127" spans="1:3">
-      <c r="A127" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="128" spans="1:3">
-      <c r="A128" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C128" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="129" spans="1:3">
-      <c r="A129" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C129" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="130" spans="1:3">
-      <c r="A130" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C130" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="131" spans="1:3">
-      <c r="A131" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B131" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C131" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="132" spans="1:3">
-      <c r="A132" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B132" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C132" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="133" spans="1:3">
-      <c r="A133" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B133" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C133" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="134" spans="1:3">
-      <c r="A134" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B134" s="3" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="C134" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="135" spans="1:3">
-      <c r="A135" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C135" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="136" spans="1:3">
-      <c r="A136" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B136" s="11" t="n">
-        <v>36939</v>
-      </c>
-      <c r="C136" s="18" t="n">
-        <v>17006</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="137" spans="1:3">
-      <c r="A137" s="13" t="s"/>
-      <c r="B137" s="13" t="n"/>
-      <c r="C137" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="138" spans="1:3">
-      <c r="A138" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C138" s="6" t="s"/>
+      <c r="C138" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="139" spans="1:3">
       <c r="A139" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="B139" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C139" s="14" t="n">
         <v/>
@@ -7884,10 +8147,10 @@
     </row>
     <row customHeight="1" ht="40" r="140" spans="1:3">
       <c r="A140" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>280</v>
+        <v>73</v>
+      </c>
+      <c r="B140" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C140" s="14" t="n">
         <v/>
@@ -7895,101 +8158,101 @@
     </row>
     <row customHeight="1" ht="40" r="141" spans="1:3">
       <c r="A141" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="142" spans="1:3">
+      <c r="A142" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="143" spans="1:3">
+      <c r="A143" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B143" s="3" t="n">
+        <v>2948278</v>
+      </c>
+      <c r="C143" s="14" t="n">
+        <v>2968211</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="144" spans="1:3">
+      <c r="A144" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B144" s="11" t="n">
+        <v>36939</v>
+      </c>
+      <c r="C144" s="18" t="n">
+        <v>17006</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="145" spans="1:3">
+      <c r="A145" s="13" t="s"/>
+      <c r="B145" s="13" t="n"/>
+      <c r="C145" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="146" spans="1:3">
+      <c r="A146" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="147" spans="1:3">
+      <c r="A147" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C147" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="148" spans="1:3">
+      <c r="A148" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C148" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="149" spans="1:3">
+      <c r="A149" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C141" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="142" spans="1:3">
-      <c r="A142" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B142" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C142" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="143" spans="1:3">
-      <c r="A143" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B143" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C143" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="144" spans="1:3">
-      <c r="A144" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B144" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C144" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="145" spans="1:3">
-      <c r="A145" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" s="3" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="C145" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="146" spans="1:3">
-      <c r="A146" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C146" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="147" spans="1:3">
-      <c r="A147" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B147" s="11" t="n">
-        <v>32075</v>
-      </c>
-      <c r="C147" s="18" t="n">
-        <v>33056</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="148" spans="1:3">
-      <c r="A148" s="13" t="s"/>
-      <c r="B148" s="13" t="n"/>
-      <c r="C148" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="149" spans="1:3">
-      <c r="A149" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C149" s="6" t="s"/>
+      <c r="B149" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C149" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="150" spans="1:3">
       <c r="A150" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>106</v>
+        <v>71</v>
+      </c>
+      <c r="B150" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C150" s="14" t="n">
         <v/>
@@ -7997,10 +8260,10 @@
     </row>
     <row customHeight="1" ht="40" r="151" spans="1:3">
       <c r="A151" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>282</v>
+        <v>72</v>
+      </c>
+      <c r="B151" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C151" s="14" t="n">
         <v/>
@@ -8008,10 +8271,10 @@
     </row>
     <row customHeight="1" ht="40" r="152" spans="1:3">
       <c r="A152" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>283</v>
+        <v>73</v>
+      </c>
+      <c r="B152" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C152" s="14" t="n">
         <v/>
@@ -8019,7 +8282,7 @@
     </row>
     <row customHeight="1" ht="40" r="153" spans="1:3">
       <c r="A153" s="7" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B153" s="3" t="n">
         <v>1</v>
@@ -8028,81 +8291,81 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="154" spans="1:3">
-      <c r="A154" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B154" s="3" t="n">
+    <row customHeight="1" ht="25" r="154" spans="1:3">
+      <c r="A154" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B154" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="155" spans="1:3">
+      <c r="A155" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B155" s="3" t="n">
+        <v>2953142</v>
+      </c>
+      <c r="C155" s="14" t="n">
+        <v>2952161</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="156" spans="1:3">
+      <c r="A156" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" s="11" t="n">
+        <v>32075</v>
+      </c>
+      <c r="C156" s="18" t="n">
+        <v>33056</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="157" spans="1:3">
+      <c r="A157" s="13" t="s"/>
+      <c r="B157" s="13" t="n"/>
+      <c r="C157" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="158" spans="1:3">
+      <c r="A158" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C154" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="155" spans="1:3">
-      <c r="A155" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B155" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C155" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="156" spans="1:3">
-      <c r="A156" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="C156" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="157" spans="1:3">
-      <c r="A157" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B157" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="158" spans="1:3">
-      <c r="A158" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B158" s="11" t="n">
-        <v>485459</v>
-      </c>
-      <c r="C158" s="18" t="n">
-        <v>505895</v>
-      </c>
+      <c r="B158" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C158" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="159" spans="1:3">
-      <c r="A159" s="13" t="s"/>
-      <c r="B159" s="13" t="n"/>
-      <c r="C159" s="13" t="n"/>
+      <c r="A159" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="160" spans="1:3">
-      <c r="A160" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C160" s="6" t="s"/>
+      <c r="A160" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C160" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="161" spans="1:3">
       <c r="A161" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="C161" s="14" t="n">
         <v/>
@@ -8110,10 +8373,10 @@
     </row>
     <row customHeight="1" ht="40" r="162" spans="1:3">
       <c r="A162" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
+      </c>
+      <c r="B162" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C162" s="14" t="n">
         <v/>
@@ -8121,10 +8384,10 @@
     </row>
     <row customHeight="1" ht="40" r="163" spans="1:3">
       <c r="A163" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>285</v>
+        <v>72</v>
+      </c>
+      <c r="B163" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C163" s="14" t="n">
         <v/>
@@ -8132,10 +8395,10 @@
     </row>
     <row customHeight="1" ht="40" r="164" spans="1:3">
       <c r="A164" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B164" s="3" t="n">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="C164" s="14" t="n">
         <v/>
@@ -8143,949 +8406,949 @@
     </row>
     <row customHeight="1" ht="40" r="165" spans="1:3">
       <c r="A165" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B165" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="166" spans="1:3">
+      <c r="A166" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B166" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="167" spans="1:3">
+      <c r="A167" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B167" s="3" t="n">
+        <v>2499758</v>
+      </c>
+      <c r="C167" s="14" t="n">
+        <v>2479322</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="168" spans="1:3">
+      <c r="A168" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B168" s="11" t="n">
+        <v>485459</v>
+      </c>
+      <c r="C168" s="18" t="n">
+        <v>505895</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="169" spans="1:3">
+      <c r="A169" s="13" t="s"/>
+      <c r="B169" s="13" t="n"/>
+      <c r="C169" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="170" spans="1:3">
+      <c r="A170" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="171" spans="1:3">
+      <c r="A171" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C171" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="172" spans="1:3">
+      <c r="A172" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="173" spans="1:3">
+      <c r="A173" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C173" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="174" spans="1:3">
+      <c r="A174" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B174" s="3" t="n">
+        <v>234</v>
+      </c>
+      <c r="C174" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="175" spans="1:3">
+      <c r="A175" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B165" s="3" t="n">
+      <c r="B175" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C165" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="166" spans="1:3">
-      <c r="A166" s="7" t="s">
+      <c r="C175" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="176" spans="1:3">
+      <c r="A176" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B166" s="3" t="n">
+      <c r="B176" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C166" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="167" spans="1:3">
-      <c r="A167" s="7" t="s">
+      <c r="C176" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="177" spans="1:3">
+      <c r="A177" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B167" s="3" t="n">
+      <c r="B177" s="3" t="n">
         <v>0.977</v>
       </c>
-      <c r="C167" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="168" spans="1:3">
-      <c r="A168" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B168" s="16" t="s">
+      <c r="C177" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="178" spans="1:3">
+      <c r="A178" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C168" s="17" t="s">
+      <c r="B178" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="169" spans="1:3">
-      <c r="A169" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B169" s="3" t="n">
+      <c r="C178" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="179" spans="1:3">
+      <c r="A179" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B179" s="3" t="n">
         <v>1153896</v>
       </c>
-      <c r="C169" s="14" t="n">
+      <c r="C179" s="14" t="n">
         <v>1153332</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="170" spans="1:3">
-      <c r="A170" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B170" s="3" t="n">
+    <row customHeight="1" ht="25" r="180" spans="1:3">
+      <c r="A180" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B180" s="3" t="n">
         <v>522145</v>
       </c>
-      <c r="C170" s="14" t="n">
+      <c r="C180" s="14" t="n">
         <v>522127</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="171" spans="1:3">
-      <c r="A171" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B171" s="3" t="n">
+    <row customHeight="1" ht="25" r="181" spans="1:3">
+      <c r="A181" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B181" s="3" t="n">
         <v>247494</v>
       </c>
-      <c r="C171" s="14" t="n">
+      <c r="C181" s="14" t="n">
         <v>248386</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="172" spans="1:3">
-      <c r="A172" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B172" s="3" t="n">
+    <row customHeight="1" ht="25" r="182" spans="1:3">
+      <c r="A182" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B182" s="3" t="n">
         <v>225410</v>
       </c>
-      <c r="C172" s="14" t="n">
+      <c r="C182" s="14" t="n">
         <v>225950</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="173" spans="1:3">
-      <c r="A173" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B173" s="3" t="n">
+    <row customHeight="1" ht="25" r="183" spans="1:3">
+      <c r="A183" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B183" s="3" t="n">
         <v>126491</v>
       </c>
-      <c r="C173" s="14" t="n">
+      <c r="C183" s="14" t="n">
         <v>127012</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="174" spans="1:3">
-      <c r="A174" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B174" s="3" t="n">
+    <row customHeight="1" ht="25" r="184" spans="1:3">
+      <c r="A184" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B184" s="3" t="n">
         <v>123249</v>
       </c>
-      <c r="C174" s="14" t="n">
+      <c r="C184" s="14" t="n">
         <v>123249</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="175" spans="1:3">
-      <c r="A175" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B175" s="3" t="n">
+    <row customHeight="1" ht="25" r="185" spans="1:3">
+      <c r="A185" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" s="3" t="n">
         <v>104612</v>
       </c>
-      <c r="C175" s="14" t="n">
+      <c r="C185" s="14" t="n">
         <v>104140</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="176" spans="1:3">
-      <c r="A176" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B176" s="3" t="n">
+    <row customHeight="1" ht="25" r="186" spans="1:3">
+      <c r="A186" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B186" s="3" t="n">
         <v>60503</v>
       </c>
-      <c r="C176" s="14" t="n">
+      <c r="C186" s="14" t="n">
         <v>61040</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="177" spans="1:3">
-      <c r="A177" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B177" s="3" t="n">
+    <row customHeight="1" ht="25" r="187" spans="1:3">
+      <c r="A187" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B187" s="3" t="n">
         <v>60167</v>
       </c>
-      <c r="C177" s="14" t="n">
+      <c r="C187" s="14" t="n">
         <v>64040</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="178" spans="1:3">
-      <c r="A178" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B178" s="11" t="n">
+    <row customHeight="1" ht="25" r="188" spans="1:3">
+      <c r="A188" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B188" s="11" t="n">
         <v>50978</v>
       </c>
-      <c r="C178" s="18" t="n">
+      <c r="C188" s="18" t="n">
         <v>51061</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="179" spans="1:3">
-      <c r="A179" s="13" t="s"/>
-      <c r="B179" s="13" t="n"/>
-      <c r="C179" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="180" spans="1:3">
-      <c r="A180" s="4" t="s">
+    <row customHeight="1" ht="40" r="189" spans="1:3">
+      <c r="A189" s="13" t="s"/>
+      <c r="B189" s="13" t="n"/>
+      <c r="C189" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="190" spans="1:3">
+      <c r="A190" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B190" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C180" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="181" spans="1:3">
-      <c r="A181" s="7" t="s">
+      <c r="C190" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="191" spans="1:3">
+      <c r="A191" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="C181" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="182" spans="1:3">
-      <c r="A182" s="7" t="s">
+      <c r="B191" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C191" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="192" spans="1:3">
+      <c r="A192" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B192" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C182" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="183" spans="1:3">
-      <c r="A183" s="7" t="s">
+      <c r="C192" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="193" spans="1:3">
+      <c r="A193" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C183" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="184" spans="1:3">
-      <c r="A184" s="7" t="s">
+      <c r="B193" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C193" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="194" spans="1:3">
+      <c r="A194" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B184" s="3" t="n">
+      <c r="B194" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C184" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="185" spans="1:3">
-      <c r="A185" s="7" t="s">
+      <c r="C194" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="195" spans="1:3">
+      <c r="A195" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B185" s="3" t="n">
+      <c r="B195" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C185" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="186" spans="1:3">
-      <c r="A186" s="7" t="s">
+      <c r="C195" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="196" spans="1:3">
+      <c r="A196" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B186" s="3" t="n">
+      <c r="B196" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C186" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="187" spans="1:3">
-      <c r="A187" s="7" t="s">
+      <c r="C196" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="197" spans="1:3">
+      <c r="A197" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B187" s="3" t="n">
+      <c r="B197" s="3" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="C197" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="198" spans="1:3">
+      <c r="A198" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B198" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="199" spans="1:3">
+      <c r="A199" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B199" s="3" t="n">
+        <v>2148362</v>
+      </c>
+      <c r="C199" s="14" t="n">
+        <v>2152863</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="200" spans="1:3">
+      <c r="A200" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B200" s="3" t="n">
+        <v>481067</v>
+      </c>
+      <c r="C200" s="14" t="n">
+        <v>483789</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="201" spans="1:3">
+      <c r="A201" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B201" s="3" t="n">
+        <v>114888</v>
+      </c>
+      <c r="C201" s="14" t="n">
+        <v>114415</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="202" spans="1:3">
+      <c r="A202" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B202" s="3" t="n">
+        <v>61469</v>
+      </c>
+      <c r="C202" s="14" t="n">
+        <v>61559</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="203" spans="1:3">
+      <c r="A203" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="B203" s="3" t="n">
+        <v>58438</v>
+      </c>
+      <c r="C203" s="14" t="n">
+        <v>59344</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="204" spans="1:3">
+      <c r="A204" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B204" s="3" t="n">
+        <v>40325</v>
+      </c>
+      <c r="C204" s="14" t="n">
+        <v>40731</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="205" spans="1:3">
+      <c r="A205" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B205" s="3" t="n">
+        <v>40022</v>
+      </c>
+      <c r="C205" s="14" t="n">
+        <v>39977</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="206" spans="1:3">
+      <c r="A206" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B206" s="3" t="n">
+        <v>11437</v>
+      </c>
+      <c r="C206" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="207" spans="1:3">
+      <c r="A207" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B207" s="3" t="n">
+        <v>9462</v>
+      </c>
+      <c r="C207" s="14" t="n">
+        <v>9487</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="208" spans="1:3">
+      <c r="A208" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B208" s="3" t="n">
+        <v>9421</v>
+      </c>
+      <c r="C208" s="14" t="n">
+        <v>9421</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="209" spans="1:3">
+      <c r="A209" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B209" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" s="18" t="n">
+        <v>4379</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="210" spans="1:3">
+      <c r="A210" s="13" t="s"/>
+      <c r="B210" s="13" t="n"/>
+      <c r="C210" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="211" spans="1:3">
+      <c r="A211" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C211" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="212" spans="1:3">
+      <c r="A212" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C212" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="213" spans="1:3">
+      <c r="A213" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C213" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="214" spans="1:3">
+      <c r="A214" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C214" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="215" spans="1:3">
+      <c r="A215" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B215" s="3" t="n">
+        <v>5625</v>
+      </c>
+      <c r="C215" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="216" spans="1:3">
+      <c r="A216" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B216" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C216" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="217" spans="1:3">
+      <c r="A217" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B217" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C217" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="218" spans="1:3">
+      <c r="A218" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218" s="3" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C218" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="219" spans="1:3">
+      <c r="A219" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C219" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="220" spans="1:3">
+      <c r="A220" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B220" s="3" t="n">
+        <v>1006588</v>
+      </c>
+      <c r="C220" s="14" t="n">
+        <v>1002746</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="221" spans="1:3">
+      <c r="A221" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B221" s="3" t="n">
+        <v>275029</v>
+      </c>
+      <c r="C221" s="14" t="n">
+        <v>275246</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="222" spans="1:3">
+      <c r="A222" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B222" s="3" t="n">
+        <v>67105</v>
+      </c>
+      <c r="C222" s="14" t="n">
+        <v>67089</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="223" spans="1:3">
+      <c r="A223" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B223" s="3" t="n">
+        <v>54859</v>
+      </c>
+      <c r="C223" s="14" t="n">
+        <v>54862</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="224" spans="1:3">
+      <c r="A224" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B224" s="3" t="n">
+        <v>52750</v>
+      </c>
+      <c r="C224" s="14" t="n">
+        <v>52750</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="225" spans="1:3">
+      <c r="A225" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B225" s="3" t="n">
+        <v>48808</v>
+      </c>
+      <c r="C225" s="14" t="n">
+        <v>48858</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="226" spans="1:3">
+      <c r="A226" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B226" s="3" t="n">
+        <v>39895</v>
+      </c>
+      <c r="C226" s="14" t="n">
+        <v>39910</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="227" spans="1:3">
+      <c r="A227" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B227" s="3" t="n">
+        <v>30459</v>
+      </c>
+      <c r="C227" s="14" t="n">
+        <v>30458</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="228" spans="1:3">
+      <c r="A228" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B228" s="3" t="n">
+        <v>30377</v>
+      </c>
+      <c r="C228" s="14" t="n">
+        <v>30406</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="229" spans="1:3">
+      <c r="A229" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B229" s="11" t="n">
+        <v>26632</v>
+      </c>
+      <c r="C229" s="18" t="n">
+        <v>26637</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="230" spans="1:3">
+      <c r="A230" s="13" t="s"/>
+      <c r="B230" s="13" t="n"/>
+      <c r="C230" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="231" spans="1:3">
+      <c r="A231" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C231" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="232" spans="1:3">
+      <c r="A232" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C232" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="233" spans="1:3">
+      <c r="A233" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C233" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="234" spans="1:3">
+      <c r="A234" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C234" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="235" spans="1:3">
+      <c r="A235" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B235" s="3" t="n">
+        <v>186</v>
+      </c>
+      <c r="C235" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="236" spans="1:3">
+      <c r="A236" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B236" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="237" spans="1:3">
+      <c r="A237" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B237" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="238" spans="1:3">
+      <c r="A238" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C187" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="188" spans="1:3">
-      <c r="A188" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B188" s="16" t="s">
+      <c r="C238" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="239" spans="1:3">
+      <c r="A239" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C188" s="17" t="s">
+      <c r="B239" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="189" spans="1:3">
-      <c r="A189" s="7" t="n">
+      <c r="C239" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="240" spans="1:3">
+      <c r="A240" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B240" s="3" t="n">
+        <v>670925</v>
+      </c>
+      <c r="C240" s="14" t="n">
+        <v>670868</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="241" spans="1:3">
+      <c r="A241" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B241" s="3" t="n">
+        <v>93470</v>
+      </c>
+      <c r="C241" s="14" t="n">
+        <v>93454</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="242" spans="1:3">
+      <c r="A242" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B189" s="3" t="n">
-        <v>2148362</v>
-      </c>
-      <c r="C189" s="14" t="n">
-        <v>2152863</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="190" spans="1:3">
-      <c r="A190" s="7" t="n">
-        <v>266</v>
-      </c>
-      <c r="B190" s="3" t="n">
-        <v>481067</v>
-      </c>
-      <c r="C190" s="14" t="n">
-        <v>483789</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="191" spans="1:3">
-      <c r="A191" s="7" t="n">
-        <v>246</v>
-      </c>
-      <c r="B191" s="3" t="n">
-        <v>114888</v>
-      </c>
-      <c r="C191" s="14" t="n">
-        <v>114415</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="192" spans="1:3">
-      <c r="A192" s="7" t="n">
-        <v>269</v>
-      </c>
-      <c r="B192" s="3" t="n">
-        <v>61469</v>
-      </c>
-      <c r="C192" s="14" t="n">
-        <v>61559</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="193" spans="1:3">
-      <c r="A193" s="7" t="n">
-        <v>263</v>
-      </c>
-      <c r="B193" s="3" t="n">
-        <v>58438</v>
-      </c>
-      <c r="C193" s="14" t="n">
-        <v>59344</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="194" spans="1:3">
-      <c r="A194" s="7" t="n">
-        <v>248</v>
-      </c>
-      <c r="B194" s="3" t="n">
-        <v>40325</v>
-      </c>
-      <c r="C194" s="14" t="n">
-        <v>40731</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="195" spans="1:3">
-      <c r="A195" s="7" t="n">
-        <v>247</v>
-      </c>
-      <c r="B195" s="3" t="n">
-        <v>40022</v>
-      </c>
-      <c r="C195" s="14" t="n">
-        <v>39977</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="196" spans="1:3">
-      <c r="A196" s="7" t="n">
-        <v>31</v>
-      </c>
-      <c r="B196" s="3" t="n">
-        <v>9462</v>
-      </c>
-      <c r="C196" s="14" t="n">
-        <v>9487</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="197" spans="1:3">
-      <c r="A197" s="7" t="n">
-        <v>265</v>
-      </c>
-      <c r="B197" s="3" t="n">
-        <v>9421</v>
-      </c>
-      <c r="C197" s="14" t="n">
-        <v>9421</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="198" spans="1:3">
-      <c r="A198" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="B198" s="11" t="n">
-        <v>4314</v>
-      </c>
-      <c r="C198" s="18" t="n">
-        <v>4379</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="199" spans="1:3">
-      <c r="A199" s="13" t="s"/>
-      <c r="B199" s="13" t="n"/>
-      <c r="C199" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="200" spans="1:3">
-      <c r="A200" s="4" t="s">
+      <c r="B242" s="3" t="n">
+        <v>62845</v>
+      </c>
+      <c r="C242" s="14" t="n">
+        <v>62128</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="243" spans="1:3">
+      <c r="A243" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B243" s="3" t="n">
+        <v>59802</v>
+      </c>
+      <c r="C243" s="14" t="n">
+        <v>59793</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="244" spans="1:3">
+      <c r="A244" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B244" s="3" t="n">
+        <v>58234</v>
+      </c>
+      <c r="C244" s="14" t="n">
+        <v>58619</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="245" spans="1:3">
+      <c r="A245" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B245" s="3" t="n">
+        <v>56962</v>
+      </c>
+      <c r="C245" s="14" t="n">
+        <v>57013</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="246" spans="1:3">
+      <c r="A246" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B246" s="3" t="n">
+        <v>54277</v>
+      </c>
+      <c r="C246" s="14" t="n">
+        <v>54302</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="247" spans="1:3">
+      <c r="A247" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B247" s="3" t="n">
+        <v>49074</v>
+      </c>
+      <c r="C247" s="14" t="n">
+        <v>49123</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="248" spans="1:3">
+      <c r="A248" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B248" s="3" t="n">
+        <v>47758</v>
+      </c>
+      <c r="C248" s="14" t="n">
+        <v>47763</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="249" spans="1:3">
+      <c r="A249" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B249" s="11" t="n">
+        <v>46231</v>
+      </c>
+      <c r="C249" s="18" t="n">
+        <v>46279</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="250" spans="1:3">
+      <c r="A250" s="13" t="s"/>
+      <c r="B250" s="13" t="n"/>
+      <c r="C250" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="251" spans="1:3">
+      <c r="A251" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B200" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C200" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="201" spans="1:3">
-      <c r="A201" s="7" t="s">
+      <c r="B251" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C251" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="252" spans="1:3">
+      <c r="A252" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C201" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="202" spans="1:3">
-      <c r="A202" s="7" t="s">
+      <c r="B252" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C252" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="253" spans="1:3">
+      <c r="A253" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C202" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="203" spans="1:3">
-      <c r="A203" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C203" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="204" spans="1:3">
-      <c r="A204" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B204" s="3" t="n">
-        <v>5625</v>
-      </c>
-      <c r="C204" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="205" spans="1:3">
-      <c r="A205" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B205" s="3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C205" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="206" spans="1:3">
-      <c r="A206" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B206" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="C206" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="207" spans="1:3">
-      <c r="A207" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B207" s="3" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="C207" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="208" spans="1:3">
-      <c r="A208" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B208" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C208" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="209" spans="1:3">
-      <c r="A209" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B209" s="3" t="n">
-        <v>275029</v>
-      </c>
-      <c r="C209" s="14" t="n">
-        <v>275246</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="210" spans="1:3">
-      <c r="A210" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B210" s="3" t="n">
-        <v>67105</v>
-      </c>
-      <c r="C210" s="14" t="n">
-        <v>67089</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="211" spans="1:3">
-      <c r="A211" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B211" s="3" t="n">
-        <v>54859</v>
-      </c>
-      <c r="C211" s="14" t="n">
-        <v>54862</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="212" spans="1:3">
-      <c r="A212" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B212" s="3" t="n">
-        <v>52750</v>
-      </c>
-      <c r="C212" s="14" t="n">
-        <v>52750</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="213" spans="1:3">
-      <c r="A213" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B213" s="3" t="n">
-        <v>48808</v>
-      </c>
-      <c r="C213" s="14" t="n">
-        <v>48858</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="214" spans="1:3">
-      <c r="A214" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B214" s="3" t="n">
-        <v>39895</v>
-      </c>
-      <c r="C214" s="14" t="n">
-        <v>39910</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="215" spans="1:3">
-      <c r="A215" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B215" s="3" t="n">
-        <v>30459</v>
-      </c>
-      <c r="C215" s="14" t="n">
-        <v>30458</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="216" spans="1:3">
-      <c r="A216" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B216" s="3" t="n">
-        <v>30377</v>
-      </c>
-      <c r="C216" s="14" t="n">
-        <v>30406</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="217" spans="1:3">
-      <c r="A217" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B217" s="3" t="n">
-        <v>26632</v>
-      </c>
-      <c r="C217" s="14" t="n">
-        <v>26637</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="218" spans="1:3">
-      <c r="A218" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B218" s="11" t="n">
-        <v>26103</v>
-      </c>
-      <c r="C218" s="18" t="n">
-        <v>26124</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="219" spans="1:3">
-      <c r="A219" s="13" t="s"/>
-      <c r="B219" s="13" t="n"/>
-      <c r="C219" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="220" spans="1:3">
-      <c r="A220" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C220" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="221" spans="1:3">
-      <c r="A221" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C221" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="222" spans="1:3">
-      <c r="A222" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C222" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="223" spans="1:3">
-      <c r="A223" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C223" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="224" spans="1:3">
-      <c r="A224" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B224" s="3" t="n">
-        <v>186</v>
-      </c>
-      <c r="C224" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="225" spans="1:3">
-      <c r="A225" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B225" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C225" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="226" spans="1:3">
-      <c r="A226" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B226" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C226" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="227" spans="1:3">
-      <c r="A227" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B227" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C227" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="228" spans="1:3">
-      <c r="A228" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B228" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C228" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="229" spans="1:3">
-      <c r="A229" s="7" t="n">
-        <v>12447</v>
-      </c>
-      <c r="B229" s="3" t="n">
-        <v>670925</v>
-      </c>
-      <c r="C229" s="14" t="n">
-        <v>670868</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="230" spans="1:3">
-      <c r="A230" s="7" t="n">
-        <v>46298</v>
-      </c>
-      <c r="B230" s="3" t="n">
-        <v>93470</v>
-      </c>
-      <c r="C230" s="14" t="n">
-        <v>93454</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="231" spans="1:3">
-      <c r="A231" s="7" t="n">
-        <v>16764</v>
-      </c>
-      <c r="B231" s="3" t="n">
-        <v>59802</v>
-      </c>
-      <c r="C231" s="14" t="n">
-        <v>59793</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="232" spans="1:3">
-      <c r="A232" s="7" t="n">
-        <v>52650</v>
-      </c>
-      <c r="B232" s="3" t="n">
-        <v>58234</v>
-      </c>
-      <c r="C232" s="14" t="n">
-        <v>58619</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="233" spans="1:3">
-      <c r="A233" s="7" t="n">
-        <v>25218</v>
-      </c>
-      <c r="B233" s="3" t="n">
-        <v>56962</v>
-      </c>
-      <c r="C233" s="14" t="n">
-        <v>57013</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="234" spans="1:3">
-      <c r="A234" s="7" t="n">
-        <v>54311</v>
-      </c>
-      <c r="B234" s="3" t="n">
-        <v>54277</v>
-      </c>
-      <c r="C234" s="14" t="n">
-        <v>54302</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="235" spans="1:3">
-      <c r="A235" s="7" t="n">
-        <v>5534</v>
-      </c>
-      <c r="B235" s="3" t="n">
-        <v>49074</v>
-      </c>
-      <c r="C235" s="14" t="n">
-        <v>49123</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="236" spans="1:3">
-      <c r="A236" s="7" t="n">
-        <v>47568</v>
-      </c>
-      <c r="B236" s="3" t="n">
-        <v>47758</v>
-      </c>
-      <c r="C236" s="14" t="n">
-        <v>47763</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="237" spans="1:3">
-      <c r="A237" s="7" t="n">
-        <v>40227</v>
-      </c>
-      <c r="B237" s="3" t="n">
-        <v>46231</v>
-      </c>
-      <c r="C237" s="14" t="n">
-        <v>46279</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="238" spans="1:3">
-      <c r="A238" s="10" t="n">
-        <v>13150</v>
-      </c>
-      <c r="B238" s="11" t="n">
-        <v>41995</v>
-      </c>
-      <c r="C238" s="18" t="n">
-        <v>42112</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="239" spans="1:3">
-      <c r="A239" s="13" t="s"/>
-      <c r="B239" s="13" t="n"/>
-      <c r="C239" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="240" spans="1:3">
-      <c r="A240" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C240" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="241" spans="1:3">
-      <c r="A241" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C241" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="242" spans="1:3">
-      <c r="A242" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B242" s="3" t="s">
+      <c r="B253" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C242" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="243" spans="1:3">
-      <c r="A243" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C243" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="244" spans="1:3">
-      <c r="A244" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B244" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C244" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="245" spans="1:3">
-      <c r="A245" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B245" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C245" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="246" spans="1:3">
-      <c r="A246" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B246" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C246" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="247" spans="1:3">
-      <c r="A247" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B247" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C247" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="248" spans="1:3">
-      <c r="A248" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B248" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C248" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="249" spans="1:3">
-      <c r="A249" s="7" t="n">
-        <v>3101</v>
-      </c>
-      <c r="B249" s="3" t="n">
-        <v>2009362</v>
-      </c>
-      <c r="C249" s="14" t="n">
-        <v>2012741</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="250" spans="1:3">
-      <c r="A250" s="7" t="n">
-        <v>1286</v>
-      </c>
-      <c r="B250" s="3" t="n">
-        <v>741565</v>
-      </c>
-      <c r="C250" s="14" t="n">
-        <v>745800</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="251" spans="1:3">
-      <c r="A251" s="10" t="n">
-        <v>2061</v>
-      </c>
-      <c r="B251" s="11" t="n">
-        <v>222853</v>
-      </c>
-      <c r="C251" s="18" t="n">
-        <v>223744</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="252" spans="1:3">
-      <c r="A252" s="13" t="s"/>
-      <c r="B252" s="13" t="n"/>
-      <c r="C252" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="253" spans="1:3">
-      <c r="A253" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C253" s="6" t="s"/>
+      <c r="C253" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="254" spans="1:3">
       <c r="A254" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="C254" s="14" t="n">
         <v/>
@@ -9093,10 +9356,10 @@
     </row>
     <row customHeight="1" ht="40" r="255" spans="1:3">
       <c r="A255" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>316</v>
+        <v>71</v>
+      </c>
+      <c r="B255" s="3" t="n">
+        <v>3</v>
       </c>
       <c r="C255" s="14" t="n">
         <v/>
@@ -9104,10 +9367,10 @@
     </row>
     <row customHeight="1" ht="40" r="256" spans="1:3">
       <c r="A256" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>317</v>
+        <v>72</v>
+      </c>
+      <c r="B256" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C256" s="14" t="n">
         <v/>
@@ -9115,10 +9378,10 @@
     </row>
     <row customHeight="1" ht="40" r="257" spans="1:3">
       <c r="A257" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B257" s="3" t="n">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="C257" s="14" t="n">
         <v/>
@@ -9126,514 +9389,514 @@
     </row>
     <row customHeight="1" ht="40" r="258" spans="1:3">
       <c r="A258" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="259" spans="1:3">
+      <c r="A259" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C259" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="260" spans="1:3">
+      <c r="A260" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B260" s="3" t="n">
+        <v>2009362</v>
+      </c>
+      <c r="C260" s="14" t="n">
+        <v>2012741</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="261" spans="1:3">
+      <c r="A261" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B261" s="3" t="n">
+        <v>741565</v>
+      </c>
+      <c r="C261" s="14" t="n">
+        <v>745800</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="262" spans="1:3">
+      <c r="A262" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B262" s="3" t="n">
+        <v>222853</v>
+      </c>
+      <c r="C262" s="14" t="n">
+        <v>223744</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="263" spans="1:3">
+      <c r="A263" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B263" s="11" t="n">
+        <v>11437</v>
+      </c>
+      <c r="C263" s="18" t="n">
+        <v>2932</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="264" spans="1:3">
+      <c r="A264" s="13" t="s"/>
+      <c r="B264" s="13" t="n"/>
+      <c r="C264" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="265" spans="1:3">
+      <c r="A265" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C265" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="266" spans="1:3">
+      <c r="A266" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C266" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="267" spans="1:3">
+      <c r="A267" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C267" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="268" spans="1:3">
+      <c r="A268" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C268" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="269" spans="1:3">
+      <c r="A269" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B269" s="3" t="n">
+        <v>528</v>
+      </c>
+      <c r="C269" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="270" spans="1:3">
+      <c r="A270" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B258" s="3" t="n">
+      <c r="B270" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C258" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="259" spans="1:3">
-      <c r="A259" s="7" t="s">
+      <c r="C270" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="271" spans="1:3">
+      <c r="A271" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B259" s="3" t="n">
+      <c r="B271" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C259" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="260" spans="1:3">
-      <c r="A260" s="7" t="s">
+      <c r="C271" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="272" spans="1:3">
+      <c r="A272" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B260" s="3" t="n">
+      <c r="B272" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C260" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="261" spans="1:3">
-      <c r="A261" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B261" s="16" t="s">
+      <c r="C272" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="273" spans="1:3">
+      <c r="A273" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C261" s="17" t="s">
+      <c r="B273" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="262" spans="1:3">
-      <c r="A262" s="7" t="n">
-        <v>118208</v>
-      </c>
-      <c r="B262" s="3" t="n">
+      <c r="C273" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="274" spans="1:3">
+      <c r="A274" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B274" s="3" t="n">
+        <v>1828815</v>
+      </c>
+      <c r="C274" s="14" t="n">
+        <v>1828476</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="275" spans="1:3">
+      <c r="A275" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B275" s="3" t="n">
         <v>32267</v>
       </c>
-      <c r="C262" s="14" t="n">
+      <c r="C275" s="14" t="n">
         <v>32244</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="263" spans="1:3">
-      <c r="A263" s="7" t="n">
-        <v>268496</v>
-      </c>
-      <c r="B263" s="3" t="n">
+    <row customHeight="1" ht="25" r="276" spans="1:3">
+      <c r="A276" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B276" s="3" t="n">
         <v>23186</v>
       </c>
-      <c r="C263" s="14" t="n">
+      <c r="C276" s="14" t="n">
         <v>23182</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="264" spans="1:3">
-      <c r="A264" s="7" t="n">
-        <v>48570</v>
-      </c>
-      <c r="B264" s="3" t="n">
+    <row customHeight="1" ht="25" r="277" spans="1:3">
+      <c r="A277" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B277" s="3" t="n">
         <v>21186</v>
       </c>
-      <c r="C264" s="14" t="n">
+      <c r="C277" s="14" t="n">
         <v>21188</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="265" spans="1:3">
-      <c r="A265" s="7" t="n">
-        <v>27080</v>
-      </c>
-      <c r="B265" s="3" t="n">
+    <row customHeight="1" ht="25" r="278" spans="1:3">
+      <c r="A278" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B278" s="3" t="n">
         <v>18891</v>
       </c>
-      <c r="C265" s="14" t="n">
+      <c r="C278" s="14" t="n">
         <v>18883</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="266" spans="1:3">
-      <c r="A266" s="7" t="n">
-        <v>37739</v>
-      </c>
-      <c r="B266" s="3" t="n">
+    <row customHeight="1" ht="25" r="279" spans="1:3">
+      <c r="A279" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B279" s="3" t="n">
         <v>18645</v>
       </c>
-      <c r="C266" s="14" t="n">
+      <c r="C279" s="14" t="n">
         <v>18648</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="267" spans="1:3">
-      <c r="A267" s="7" t="n">
-        <v>54300</v>
-      </c>
-      <c r="B267" s="3" t="n">
+    <row customHeight="1" ht="25" r="280" spans="1:3">
+      <c r="A280" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B280" s="3" t="n">
         <v>17749</v>
       </c>
-      <c r="C267" s="14" t="n">
+      <c r="C280" s="14" t="n">
         <v>17745</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="268" spans="1:3">
-      <c r="A268" s="7" t="n">
-        <v>33183</v>
-      </c>
-      <c r="B268" s="3" t="n">
+    <row customHeight="1" ht="25" r="281" spans="1:3">
+      <c r="A281" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B281" s="3" t="n">
         <v>16953</v>
       </c>
-      <c r="C268" s="14" t="n">
+      <c r="C281" s="14" t="n">
         <v>16952</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="269" spans="1:3">
-      <c r="A269" s="7" t="n">
-        <v>34213</v>
-      </c>
-      <c r="B269" s="3" t="n">
+    <row customHeight="1" ht="25" r="282" spans="1:3">
+      <c r="A282" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B282" s="3" t="n">
         <v>16607</v>
       </c>
-      <c r="C269" s="14" t="n">
+      <c r="C282" s="14" t="n">
         <v>16611</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="270" spans="1:3">
-      <c r="A270" s="7" t="n">
-        <v>51906</v>
-      </c>
-      <c r="B270" s="3" t="n">
+    <row customHeight="1" ht="25" r="283" spans="1:3">
+      <c r="A283" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B283" s="11" t="n">
         <v>15660</v>
       </c>
-      <c r="C270" s="14" t="n">
+      <c r="C283" s="18" t="n">
         <v>15653</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="271" spans="1:3">
-      <c r="A271" s="10" t="n">
-        <v>41131</v>
-      </c>
-      <c r="B271" s="11" t="n">
-        <v>15451</v>
-      </c>
-      <c r="C271" s="18" t="n">
-        <v>15446</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="272" spans="1:3">
-      <c r="A272" s="13" t="s"/>
-      <c r="B272" s="13" t="n"/>
-      <c r="C272" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="273" spans="1:3">
-      <c r="A273" s="4" t="s">
+    <row customHeight="1" ht="40" r="284" spans="1:3">
+      <c r="A284" s="13" t="s"/>
+      <c r="B284" s="13" t="n"/>
+      <c r="C284" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="285" spans="1:3">
+      <c r="A285" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B285" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C273" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="274" spans="1:3">
-      <c r="A274" s="7" t="s">
+      <c r="C285" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="286" spans="1:3">
+      <c r="A286" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B274" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C274" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="275" spans="1:3">
-      <c r="A275" s="7" t="s">
+      <c r="B286" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C286" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="287" spans="1:3">
+      <c r="A287" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B275" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C275" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="276" spans="1:3">
-      <c r="A276" s="7" t="s">
+      <c r="B287" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C287" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="288" spans="1:3">
+      <c r="A288" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B276" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C276" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="277" spans="1:3">
-      <c r="A277" s="7" t="s">
+      <c r="B288" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C288" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="289" spans="1:3">
+      <c r="A289" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B277" s="3" t="n">
+      <c r="B289" s="3" t="n">
         <v>403</v>
       </c>
-      <c r="C277" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="278" spans="1:3">
-      <c r="A278" s="7" t="s">
+      <c r="C289" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="290" spans="1:3">
+      <c r="A290" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B278" s="3" t="n">
+      <c r="B290" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C278" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="279" spans="1:3">
-      <c r="A279" s="7" t="s">
+      <c r="C290" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="291" spans="1:3">
+      <c r="A291" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B279" s="3" t="n">
+      <c r="B291" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C279" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="280" spans="1:3">
-      <c r="A280" s="7" t="s">
+      <c r="C291" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="292" spans="1:3">
+      <c r="A292" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B280" s="3" t="n">
+      <c r="B292" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C280" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="281" spans="1:3">
-      <c r="A281" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B281" s="16" t="s">
+      <c r="C292" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="293" spans="1:3">
+      <c r="A293" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C281" s="17" t="s">
+      <c r="B293" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="282" spans="1:3">
-      <c r="A282" s="7" t="n">
-        <v>96987</v>
-      </c>
-      <c r="B282" s="3" t="n">
+      <c r="C293" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="294" spans="1:3">
+      <c r="A294" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B294" s="3" t="n">
         <v>22021</v>
       </c>
-      <c r="C282" s="14" t="n">
+      <c r="C294" s="14" t="n">
         <v>22025</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="283" spans="1:3">
-      <c r="A283" s="7" t="n">
-        <v>96193</v>
-      </c>
-      <c r="B283" s="3" t="n">
+    <row customHeight="1" ht="25" r="295" spans="1:3">
+      <c r="A295" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="B295" s="3" t="n">
         <v>21759</v>
       </c>
-      <c r="C283" s="14" t="n">
+      <c r="C295" s="14" t="n">
         <v>21756</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="284" spans="1:3">
-      <c r="A284" s="7" t="n">
-        <v>97118</v>
-      </c>
-      <c r="B284" s="3" t="n">
+    <row customHeight="1" ht="25" r="296" spans="1:3">
+      <c r="A296" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B296" s="3" t="n">
         <v>20612</v>
       </c>
-      <c r="C284" s="14" t="n">
+      <c r="C296" s="14" t="n">
         <v>20615</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="285" spans="1:3">
-      <c r="A285" s="7" t="n">
-        <v>97319</v>
-      </c>
-      <c r="B285" s="3" t="n">
+    <row customHeight="1" ht="25" r="297" spans="1:3">
+      <c r="A297" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B297" s="3" t="n">
         <v>20310</v>
       </c>
-      <c r="C285" s="14" t="n">
+      <c r="C297" s="14" t="n">
         <v>20337</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="286" spans="1:3">
-      <c r="A286" s="7" t="n">
-        <v>96964</v>
-      </c>
-      <c r="B286" s="3" t="n">
+    <row customHeight="1" ht="25" r="298" spans="1:3">
+      <c r="A298" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B298" s="3" t="n">
         <v>19898</v>
       </c>
-      <c r="C286" s="14" t="n">
+      <c r="C298" s="14" t="n">
         <v>19923</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="287" spans="1:3">
-      <c r="A287" s="7" t="n">
-        <v>97318</v>
-      </c>
-      <c r="B287" s="3" t="n">
+    <row customHeight="1" ht="25" r="299" spans="1:3">
+      <c r="A299" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B299" s="3" t="n">
         <v>19862</v>
       </c>
-      <c r="C287" s="14" t="n">
+      <c r="C299" s="14" t="n">
         <v>19880</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="288" spans="1:3">
-      <c r="A288" s="7" t="n">
-        <v>96368</v>
-      </c>
-      <c r="B288" s="3" t="n">
+    <row customHeight="1" ht="25" r="300" spans="1:3">
+      <c r="A300" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B300" s="3" t="n">
         <v>19761</v>
       </c>
-      <c r="C288" s="14" t="n">
+      <c r="C300" s="14" t="n">
         <v>19774</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="289" spans="1:3">
-      <c r="A289" s="7" t="n">
-        <v>96990</v>
-      </c>
-      <c r="B289" s="3" t="n">
+    <row customHeight="1" ht="25" r="301" spans="1:3">
+      <c r="A301" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B301" s="3" t="n">
         <v>19147</v>
       </c>
-      <c r="C289" s="14" t="n">
+      <c r="C301" s="14" t="n">
         <v>19215</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="290" spans="1:3">
-      <c r="A290" s="7" t="n">
-        <v>96962</v>
-      </c>
-      <c r="B290" s="3" t="n">
+    <row customHeight="1" ht="25" r="302" spans="1:3">
+      <c r="A302" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B302" s="3" t="n">
         <v>17682</v>
       </c>
-      <c r="C290" s="14" t="n">
+      <c r="C302" s="14" t="n">
         <v>17813</v>
       </c>
     </row>
-    <row customHeight="1" ht="25" r="291" spans="1:3">
-      <c r="A291" s="10" t="n">
-        <v>97328</v>
-      </c>
-      <c r="B291" s="11" t="n">
+    <row customHeight="1" ht="25" r="303" spans="1:3">
+      <c r="A303" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B303" s="11" t="n">
         <v>17304</v>
       </c>
-      <c r="C291" s="18" t="n">
+      <c r="C303" s="18" t="n">
         <v>17322</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="292" spans="1:3">
-      <c r="A292" s="13" t="s"/>
-      <c r="B292" s="13" t="n"/>
-      <c r="C292" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="293" spans="1:3">
-      <c r="A293" s="4" t="s">
+    <row customHeight="1" ht="40" r="304" spans="1:3">
+      <c r="A304" s="13" t="s"/>
+      <c r="B304" s="13" t="n"/>
+      <c r="C304" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="305" spans="1:3">
+      <c r="A305" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B305" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C293" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="294" spans="1:3">
-      <c r="A294" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B294" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C294" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="295" spans="1:3">
-      <c r="A295" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B295" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C295" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="296" spans="1:3">
-      <c r="A296" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B296" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C296" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="297" spans="1:3">
-      <c r="A297" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B297" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C297" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="298" spans="1:3">
-      <c r="A298" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B298" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C298" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="299" spans="1:3">
-      <c r="A299" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B299" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C299" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="300" spans="1:3">
-      <c r="A300" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B300" s="3" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="C300" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="301" spans="1:3">
-      <c r="A301" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B301" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C301" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="302" spans="1:3">
-      <c r="A302" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="B302" s="11" t="n">
-        <v>1624</v>
-      </c>
-      <c r="C302" s="18" t="n">
-        <v>1623</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="303" spans="1:3">
-      <c r="A303" s="13" t="s"/>
-      <c r="B303" s="13" t="n"/>
-      <c r="C303" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="304" spans="1:3">
-      <c r="A304" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B304" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C304" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="305" spans="1:3">
-      <c r="A305" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="C305" s="14" t="n">
-        <v/>
-      </c>
+      <c r="C305" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="306" spans="1:3">
       <c r="A306" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>260</v>
+        <v>202</v>
       </c>
       <c r="C306" s="14" t="n">
         <v/>
@@ -9641,10 +9904,10 @@
     </row>
     <row customHeight="1" ht="40" r="307" spans="1:3">
       <c r="A307" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="C307" s="14" t="n">
         <v/>
@@ -9652,10 +9915,10 @@
     </row>
     <row customHeight="1" ht="40" r="308" spans="1:3">
       <c r="A308" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B308" s="3" t="n">
-        <v>5</v>
+        <v>69</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="C308" s="14" t="n">
         <v/>
@@ -9663,10 +9926,10 @@
     </row>
     <row customHeight="1" ht="40" r="309" spans="1:3">
       <c r="A309" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B309" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" s="14" t="n">
         <v/>
@@ -9674,7 +9937,7 @@
     </row>
     <row customHeight="1" ht="40" r="310" spans="1:3">
       <c r="A310" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B310" s="3" t="n">
         <v>0</v>
@@ -9685,101 +9948,101 @@
     </row>
     <row customHeight="1" ht="40" r="311" spans="1:3">
       <c r="A311" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B311" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="312" spans="1:3">
+      <c r="A312" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B311" s="3" t="n">
+      <c r="B312" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C311" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="312" spans="1:3">
-      <c r="A312" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B312" s="16" t="s">
+      <c r="C312" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="313" spans="1:3">
+      <c r="A313" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C312" s="17" t="s">
+      <c r="B313" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="313" spans="1:3">
-      <c r="A313" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B313" s="3" t="n">
-        <v>6670</v>
-      </c>
-      <c r="C313" s="14" t="n">
-        <v>6669</v>
+      <c r="C313" s="17" t="s">
+        <v>260</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="314" spans="1:3">
-      <c r="A314" s="7" t="n">
-        <v>4</v>
+      <c r="A314" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="B314" s="3" t="n">
-        <v>59</v>
+        <v>2983593</v>
       </c>
       <c r="C314" s="14" t="n">
-        <v>59</v>
+        <v>2983594</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="315" spans="1:3">
-      <c r="A315" s="7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B315" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="C315" s="14" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="316" spans="1:3">
-      <c r="A316" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="B316" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C316" s="14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="317" spans="1:3">
-      <c r="A317" s="10" t="n">
-        <v>11</v>
-      </c>
-      <c r="B317" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C317" s="18" t="n">
-        <v>1</v>
-      </c>
+      <c r="A315" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B315" s="11" t="n">
+        <v>1624</v>
+      </c>
+      <c r="C315" s="18" t="n">
+        <v>1623</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="316" spans="1:3">
+      <c r="A316" s="13" t="s"/>
+      <c r="B316" s="13" t="n"/>
+      <c r="C316" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="317" spans="1:3">
+      <c r="A317" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B317" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C317" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="318" spans="1:3">
-      <c r="A318" s="13" t="s"/>
-      <c r="B318" s="13" t="n"/>
-      <c r="C318" s="13" t="n"/>
+      <c r="A318" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C318" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="319" spans="1:3">
-      <c r="A319" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B319" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C319" s="6" t="s"/>
+      <c r="A319" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C319" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="320" spans="1:3">
       <c r="A320" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="C320" s="14" t="n">
         <v/>
@@ -9787,10 +10050,10 @@
     </row>
     <row customHeight="1" ht="40" r="321" spans="1:3">
       <c r="A321" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>325</v>
+        <v>71</v>
+      </c>
+      <c r="B321" s="3" t="n">
+        <v>5</v>
       </c>
       <c r="C321" s="14" t="n">
         <v/>
@@ -9798,10 +10061,10 @@
     </row>
     <row customHeight="1" ht="40" r="322" spans="1:3">
       <c r="A322" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>326</v>
+        <v>72</v>
+      </c>
+      <c r="B322" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C322" s="14" t="n">
         <v/>
@@ -9809,10 +10072,10 @@
     </row>
     <row customHeight="1" ht="40" r="323" spans="1:3">
       <c r="A323" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B323" s="3" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="C323" s="14" t="n">
         <v/>
@@ -9820,335 +10083,335 @@
     </row>
     <row customHeight="1" ht="40" r="324" spans="1:3">
       <c r="A324" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B324" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="325" spans="1:3">
+      <c r="A325" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B325" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C325" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="326" spans="1:3">
+      <c r="A326" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B326" s="3" t="n">
+        <v>2978470</v>
+      </c>
+      <c r="C326" s="14" t="n">
+        <v>2978471</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="327" spans="1:3">
+      <c r="A327" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B327" s="3" t="n">
+        <v>6670</v>
+      </c>
+      <c r="C327" s="14" t="n">
+        <v>6669</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="328" spans="1:3">
+      <c r="A328" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B328" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="C328" s="14" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="329" spans="1:3">
+      <c r="A329" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B329" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C329" s="14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="330" spans="1:3">
+      <c r="A330" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B330" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C330" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="331" spans="1:3">
+      <c r="A331" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B331" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C331" s="18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="332" spans="1:3">
+      <c r="A332" s="13" t="s"/>
+      <c r="B332" s="13" t="n"/>
+      <c r="C332" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="333" spans="1:3">
+      <c r="A333" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B333" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C333" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="334" spans="1:3">
+      <c r="A334" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C334" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="335" spans="1:3">
+      <c r="A335" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C335" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="336" spans="1:3">
+      <c r="A336" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C336" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="337" spans="1:3">
+      <c r="A337" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B337" s="3" t="n">
+        <v>168</v>
+      </c>
+      <c r="C337" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="338" spans="1:3">
+      <c r="A338" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B324" s="3" t="n">
+      <c r="B338" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C324" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="325" spans="1:3">
-      <c r="A325" s="7" t="s">
+      <c r="C338" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="339" spans="1:3">
+      <c r="A339" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B325" s="3" t="n">
+      <c r="B339" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C325" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="326" spans="1:3">
-      <c r="A326" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B326" s="3" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="C326" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="327" spans="1:3">
-      <c r="A327" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B327" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C327" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="328" spans="1:3">
-      <c r="A328" s="7" t="n">
-        <v>1955</v>
-      </c>
-      <c r="B328" s="3" t="n">
-        <v>88586</v>
-      </c>
-      <c r="C328" s="14" t="n">
-        <v>88555</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="329" spans="1:3">
-      <c r="A329" s="7" t="n">
-        <v>1950</v>
-      </c>
-      <c r="B329" s="3" t="n">
-        <v>76142</v>
-      </c>
-      <c r="C329" s="14" t="n">
-        <v>76100</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="330" spans="1:3">
-      <c r="A330" s="7" t="n">
-        <v>1954</v>
-      </c>
-      <c r="B330" s="3" t="n">
-        <v>73307</v>
-      </c>
-      <c r="C330" s="14" t="n">
-        <v>73284</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="331" spans="1:3">
-      <c r="A331" s="7" t="n">
-        <v>1953</v>
-      </c>
-      <c r="B331" s="3" t="n">
-        <v>67085</v>
-      </c>
-      <c r="C331" s="14" t="n">
-        <v>67062</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="332" spans="1:3">
-      <c r="A332" s="7" t="n">
-        <v>1956</v>
-      </c>
-      <c r="B332" s="3" t="n">
-        <v>65736</v>
-      </c>
-      <c r="C332" s="14" t="n">
-        <v>65723</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="333" spans="1:3">
-      <c r="A333" s="7" t="n">
-        <v>1964</v>
-      </c>
-      <c r="B333" s="3" t="n">
-        <v>64929</v>
-      </c>
-      <c r="C333" s="14" t="n">
-        <v>64907</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="334" spans="1:3">
-      <c r="A334" s="7" t="n">
-        <v>1951</v>
-      </c>
-      <c r="B334" s="3" t="n">
-        <v>56686</v>
-      </c>
-      <c r="C334" s="14" t="n">
-        <v>56643</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="335" spans="1:3">
-      <c r="A335" s="7" t="n">
-        <v>1963</v>
-      </c>
-      <c r="B335" s="3" t="n">
-        <v>54593</v>
-      </c>
-      <c r="C335" s="14" t="n">
-        <v>54754</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="336" spans="1:3">
-      <c r="A336" s="7" t="n">
-        <v>1952</v>
-      </c>
-      <c r="B336" s="3" t="n">
-        <v>54405</v>
-      </c>
-      <c r="C336" s="14" t="n">
-        <v>54378</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="337" spans="1:3">
-      <c r="A337" s="10" t="n">
-        <v>1947</v>
-      </c>
-      <c r="B337" s="11" t="n">
-        <v>53006</v>
-      </c>
-      <c r="C337" s="18" t="n">
-        <v>52935</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="338" spans="1:3">
-      <c r="A338" s="13" t="s"/>
-      <c r="B338" s="13" t="n"/>
-      <c r="C338" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="339" spans="1:3">
-      <c r="A339" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B339" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C339" s="6" t="s"/>
+      <c r="C339" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="340" spans="1:3">
       <c r="A340" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>273</v>
+        <v>2</v>
+      </c>
+      <c r="B340" s="3" t="n">
+        <v>0.993</v>
       </c>
       <c r="C340" s="14" t="n">
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="341" spans="1:3">
-      <c r="A341" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B341" s="3" t="s">
+    <row customHeight="1" ht="25" r="341" spans="1:3">
+      <c r="A341" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B341" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C341" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C341" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="342" spans="1:3">
+    </row>
+    <row customHeight="1" ht="25" r="342" spans="1:3">
       <c r="A342" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>327</v>
+        <v>392</v>
+      </c>
+      <c r="B342" s="3" t="n">
+        <v>88586</v>
       </c>
       <c r="C342" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="343" spans="1:3">
+        <v>88555</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="343" spans="1:3">
       <c r="A343" s="7" t="s">
-        <v>71</v>
+        <v>393</v>
       </c>
       <c r="B343" s="3" t="n">
-        <v>1</v>
+        <v>76142</v>
       </c>
       <c r="C343" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="344" spans="1:3">
+        <v>76100</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="344" spans="1:3">
       <c r="A344" s="7" t="s">
-        <v>72</v>
+        <v>394</v>
       </c>
       <c r="B344" s="3" t="n">
+        <v>73307</v>
+      </c>
+      <c r="C344" s="14" t="n">
+        <v>73284</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="345" spans="1:3">
+      <c r="A345" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B345" s="3" t="n">
+        <v>67085</v>
+      </c>
+      <c r="C345" s="14" t="n">
+        <v>67062</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="346" spans="1:3">
+      <c r="A346" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B346" s="3" t="n">
+        <v>65736</v>
+      </c>
+      <c r="C346" s="14" t="n">
+        <v>65723</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="347" spans="1:3">
+      <c r="A347" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B347" s="3" t="n">
+        <v>64929</v>
+      </c>
+      <c r="C347" s="14" t="n">
+        <v>64907</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="348" spans="1:3">
+      <c r="A348" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B348" s="3" t="n">
+        <v>59928</v>
+      </c>
+      <c r="C348" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="C344" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="345" spans="1:3">
-      <c r="A345" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B345" s="3" t="n">
+    </row>
+    <row customHeight="1" ht="25" r="349" spans="1:3">
+      <c r="A349" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B349" s="3" t="n">
+        <v>56686</v>
+      </c>
+      <c r="C349" s="14" t="n">
+        <v>56643</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="350" spans="1:3">
+      <c r="A350" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B350" s="3" t="n">
+        <v>54593</v>
+      </c>
+      <c r="C350" s="14" t="n">
+        <v>54754</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="351" spans="1:3">
+      <c r="A351" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B351" s="3" t="n">
+        <v>54405</v>
+      </c>
+      <c r="C351" s="14" t="n">
+        <v>54378</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="352" spans="1:3">
+      <c r="A352" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B352" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="C345" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="346" spans="1:3">
-      <c r="A346" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B346" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C346" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="347" spans="1:3">
-      <c r="A347" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B347" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C347" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="348" spans="1:3">
-      <c r="A348" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="B348" s="11" t="n">
-        <v>5163</v>
-      </c>
-      <c r="C348" s="18" t="n">
-        <v>5163</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="349" spans="1:3">
-      <c r="A349" s="13" t="s"/>
-      <c r="B349" s="13" t="n"/>
-      <c r="C349" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="350" spans="1:3">
-      <c r="A350" s="4" t="s">
+      <c r="C352" s="18" t="n">
+        <v>52935</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="353" spans="1:3">
+      <c r="A353" s="13" t="s"/>
+      <c r="B353" s="13" t="n"/>
+      <c r="C353" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="354" spans="1:3">
+      <c r="A354" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B350" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C350" s="6" t="s"/>
-    </row>
-    <row customHeight="1" ht="40" r="351" spans="1:3">
-      <c r="A351" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C351" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="352" spans="1:3">
-      <c r="A352" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B352" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C352" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="353" spans="1:3">
-      <c r="A353" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B353" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C353" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="354" spans="1:3">
-      <c r="A354" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B354" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="C354" s="14" t="n">
-        <v/>
-      </c>
+      <c r="B354" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C354" s="6" t="s"/>
     </row>
     <row customHeight="1" ht="40" r="355" spans="1:3">
       <c r="A355" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B355" s="3" t="n">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>293</v>
       </c>
       <c r="C355" s="14" t="n">
         <v/>
@@ -10156,10 +10419,10 @@
     </row>
     <row customHeight="1" ht="40" r="356" spans="1:3">
       <c r="A356" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B356" s="3" t="n">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C356" s="14" t="n">
         <v/>
@@ -10167,167 +10430,167 @@
     </row>
     <row customHeight="1" ht="40" r="357" spans="1:3">
       <c r="A357" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C357" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="358" spans="1:3">
+      <c r="A358" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B358" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C358" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="359" spans="1:3">
+      <c r="A359" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B359" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C359" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="360" spans="1:3">
+      <c r="A360" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B360" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C360" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="361" spans="1:3">
+      <c r="A361" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B357" s="3" t="n">
-        <v>0.677</v>
-      </c>
-      <c r="C357" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="358" spans="1:3">
-      <c r="A358" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B358" s="16" t="s">
+      <c r="B361" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C361" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="362" spans="1:3">
+      <c r="A362" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C358" s="17" t="s">
+      <c r="B362" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="359" spans="1:3">
-      <c r="A359" s="7" t="n">
-        <v>2015</v>
-      </c>
-      <c r="B359" s="3" t="n">
-        <v>2972420</v>
-      </c>
-      <c r="C359" s="14" t="n">
-        <v>2342</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="360" spans="1:3">
-      <c r="A360" s="7" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B360" s="3" t="n">
-        <v>1306</v>
-      </c>
-      <c r="C360" s="14" t="n">
-        <v>1290</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="361" spans="1:3">
-      <c r="A361" s="7" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B361" s="3" t="n">
-        <v>26</v>
-      </c>
-      <c r="C361" s="14" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="362" spans="1:3">
-      <c r="A362" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B362" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C362" s="14" t="n">
-        <v>6</v>
+      <c r="C362" s="17" t="s">
+        <v>260</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="363" spans="1:3">
-      <c r="A363" s="7" t="n">
-        <v>2013</v>
+      <c r="A363" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="B363" s="3" t="n">
-        <v>4</v>
+        <v>2980054</v>
       </c>
       <c r="C363" s="14" t="n">
-        <v>4</v>
+        <v>2980054</v>
       </c>
     </row>
     <row customHeight="1" ht="25" r="364" spans="1:3">
-      <c r="A364" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B364" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C364" s="14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="365" spans="1:3">
-      <c r="A365" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B365" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C365" s="14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="366" spans="1:3">
-      <c r="A366" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B366" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C366" s="14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="367" spans="1:3">
-      <c r="A367" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="B367" s="3" t="n">
-        <v>2</v>
+      <c r="A364" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B364" s="11" t="n">
+        <v>5163</v>
+      </c>
+      <c r="C364" s="18" t="n">
+        <v>5163</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="365" spans="1:3">
+      <c r="A365" s="13" t="s"/>
+      <c r="B365" s="13" t="n"/>
+      <c r="C365" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="366" spans="1:3">
+      <c r="A366" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C366" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="367" spans="1:3">
+      <c r="A367" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="C367" s="14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="368" spans="1:3">
-      <c r="A368" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B368" s="3" t="n">
-        <v>2</v>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="368" spans="1:3">
+      <c r="A368" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C368" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="369" spans="1:3">
+      <c r="A369" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C369" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="370" spans="1:3">
+      <c r="A370" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B370" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C370" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="371" spans="1:3">
+      <c r="A371" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B371" s="3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="369" spans="1:3">
-      <c r="A369" s="10" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B369" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C369" s="18" t="n">
-        <v>2978601</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="370" spans="1:3">
-      <c r="A370" s="13" t="s"/>
-      <c r="B370" s="13" t="n"/>
-      <c r="C370" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="40" r="371" spans="1:3">
-      <c r="A371" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B371" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C371" s="6" t="s"/>
+      <c r="C371" s="14" t="n">
+        <v/>
+      </c>
     </row>
     <row customHeight="1" ht="40" r="372" spans="1:3">
       <c r="A372" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>330</v>
+        <v>73</v>
+      </c>
+      <c r="B372" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C372" s="14" t="n">
         <v/>
@@ -10335,153 +10598,332 @@
     </row>
     <row customHeight="1" ht="40" r="373" spans="1:3">
       <c r="A373" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B373" s="3" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C373" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="374" spans="1:3">
+      <c r="A374" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B374" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C374" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="375" spans="1:3">
+      <c r="A375" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B375" s="3" t="n">
+        <v>2972420</v>
+      </c>
+      <c r="C375" s="14" t="n">
+        <v>2342</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="376" spans="1:3">
+      <c r="A376" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B376" s="3" t="n">
+        <v>11439</v>
+      </c>
+      <c r="C376" s="14" t="n">
+        <v>2933</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="377" spans="1:3">
+      <c r="A377" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B377" s="3" t="n">
+        <v>1306</v>
+      </c>
+      <c r="C377" s="14" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="378" spans="1:3">
+      <c r="A378" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B378" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="C378" s="14" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="379" spans="1:3">
+      <c r="A379" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B379" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C379" s="14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="380" spans="1:3">
+      <c r="A380" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B380" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C380" s="14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="381" spans="1:3">
+      <c r="A381" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B381" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C381" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="382" spans="1:3">
+      <c r="A382" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B382" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C382" s="14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="383" spans="1:3">
+      <c r="A383" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B383" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C383" s="14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="384" spans="1:3">
+      <c r="A384" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B384" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C384" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="385" spans="1:3">
+      <c r="A385" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="B385" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" s="18" t="n">
+        <v>2978601</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="386" spans="1:3">
+      <c r="A386" s="13" t="s"/>
+      <c r="B386" s="13" t="n"/>
+      <c r="C386" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="40" r="387" spans="1:3">
+      <c r="A387" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C387" s="6" t="s"/>
+    </row>
+    <row customHeight="1" ht="40" r="388" spans="1:3">
+      <c r="A388" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C388" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="389" spans="1:3">
+      <c r="A389" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B389" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C373" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="374" spans="1:3">
-      <c r="A374" s="7" t="s">
+      <c r="C389" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="390" spans="1:3">
+      <c r="A390" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B374" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C374" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="375" spans="1:3">
-      <c r="A375" s="7" t="s">
+      <c r="B390" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C390" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="391" spans="1:3">
+      <c r="A391" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B375" s="3" t="n">
+      <c r="B391" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C375" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="376" spans="1:3">
-      <c r="A376" s="7" t="s">
+      <c r="C391" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="392" spans="1:3">
+      <c r="A392" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B376" s="3" t="n">
+      <c r="B392" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C376" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="377" spans="1:3">
-      <c r="A377" s="7" t="s">
+      <c r="C392" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="393" spans="1:3">
+      <c r="A393" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B377" s="3" t="n">
+      <c r="B393" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C377" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="40" r="378" spans="1:3">
-      <c r="A378" s="7" t="s">
+      <c r="C393" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="40" r="394" spans="1:3">
+      <c r="A394" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B378" s="3" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="C378" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="25" r="379" spans="1:3">
-      <c r="A379" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B379" s="16" t="s">
+      <c r="B394" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C394" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="395" spans="1:3">
+      <c r="A395" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C379" s="17" t="s">
+      <c r="B395" s="16" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row customHeight="1" ht="25" r="380" spans="1:3">
-      <c r="A380" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B380" s="11" t="n">
+      <c r="C395" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="396" spans="1:3">
+      <c r="A396" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B396" s="3" t="n">
+        <v>2928755</v>
+      </c>
+      <c r="C396" s="14" t="n">
+        <v>2928702</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25" r="397" spans="1:3">
+      <c r="A397" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B397" s="11" t="n">
         <v>56462</v>
       </c>
-      <c r="C380" s="18" t="n">
+      <c r="C397" s="18" t="n">
         <v>56515</v>
       </c>
     </row>
-    <row customHeight="1" ht="40" r="381" spans="1:3">
-      <c r="A381" s="13" t="s"/>
-      <c r="B381" s="13" t="n"/>
-      <c r="C381" s="13" t="n"/>
+    <row customHeight="1" ht="40" r="398" spans="1:3">
+      <c r="A398" s="13" t="s"/>
+      <c r="B398" s="13" t="n"/>
+      <c r="C398" s="13" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B16">
+  <conditionalFormatting sqref="B10:B17">
     <cfRule priority="1" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="744291"/>
+        <cfvo type="num" val="2173698"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C10:C16">
+  <conditionalFormatting sqref="C10:C17">
     <cfRule priority="2" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="744291"/>
+        <cfvo type="num" val="2173698"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:B34">
+  <conditionalFormatting sqref="B28:B36">
     <cfRule priority="3" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5251"/>
+        <cfvo type="num" val="2979156"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C34">
+  <conditionalFormatting sqref="C28:C36">
     <cfRule priority="4" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5251"/>
+        <cfvo type="num" val="2979156"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B49">
+  <conditionalFormatting sqref="B47:B52">
     <cfRule priority="5" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="9500"/>
+        <cfvo type="num" val="2972588"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C45:C49">
+  <conditionalFormatting sqref="C47:C52">
     <cfRule priority="6" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="9500"/>
+        <cfvo type="num" val="2972588"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:B70">
+  <conditionalFormatting sqref="B63:B74">
     <cfRule priority="7" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10490,7 +10932,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C70">
+  <conditionalFormatting sqref="C63:C74">
     <cfRule priority="8" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10499,25 +10941,25 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
+  <conditionalFormatting sqref="B85:B86">
     <cfRule priority="9" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="17379"/>
+        <cfvo type="num" val="2968121"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
+  <conditionalFormatting sqref="C85:C86">
     <cfRule priority="10" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="17379"/>
+        <cfvo type="num" val="2968121"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B92:B94">
+  <conditionalFormatting sqref="B97:B100">
     <cfRule priority="11" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10526,7 +10968,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C94">
+  <conditionalFormatting sqref="C97:C100">
     <cfRule priority="12" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10535,97 +10977,97 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
+  <conditionalFormatting sqref="B111:B112">
     <cfRule priority="13" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="69014"/>
+        <cfvo type="num" val="2935155"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
+  <conditionalFormatting sqref="C111:C112">
     <cfRule priority="14" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="69014"/>
+        <cfvo type="num" val="2935155"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B116:B125">
+  <conditionalFormatting sqref="B123:B132">
     <cfRule priority="15" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1168610"/>
+        <cfvo type="num" val="1178816"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C116:C125">
+  <conditionalFormatting sqref="C123:C132">
     <cfRule priority="16" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1168610"/>
+        <cfvo type="num" val="1178816"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
+  <conditionalFormatting sqref="B143:B144">
     <cfRule priority="17" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="36939"/>
+        <cfvo type="num" val="2968211"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
+  <conditionalFormatting sqref="C143:C144">
     <cfRule priority="18" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="36939"/>
+        <cfvo type="num" val="2968211"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B147">
+  <conditionalFormatting sqref="B155:B156">
     <cfRule priority="19" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="33056"/>
+        <cfvo type="num" val="2953142"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
+  <conditionalFormatting sqref="C155:C156">
     <cfRule priority="20" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="33056"/>
+        <cfvo type="num" val="2953142"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B158">
+  <conditionalFormatting sqref="B167:B168">
     <cfRule priority="21" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="505895"/>
+        <cfvo type="num" val="2499758"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
+  <conditionalFormatting sqref="C167:C168">
     <cfRule priority="22" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="505895"/>
+        <cfvo type="num" val="2499758"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B169:B178">
+  <conditionalFormatting sqref="B179:B188">
     <cfRule priority="23" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10634,7 +11076,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C169:C178">
+  <conditionalFormatting sqref="C179:C188">
     <cfRule priority="24" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10643,7 +11085,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B189:B198">
+  <conditionalFormatting sqref="B199:B209">
     <cfRule priority="25" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10652,7 +11094,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C189:C198">
+  <conditionalFormatting sqref="C199:C209">
     <cfRule priority="26" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10661,25 +11103,25 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B209:B218">
+  <conditionalFormatting sqref="B220:B229">
     <cfRule priority="27" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="275246"/>
+        <cfvo type="num" val="1006588"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C209:C218">
+  <conditionalFormatting sqref="C220:C229">
     <cfRule priority="28" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="275246"/>
+        <cfvo type="num" val="1006588"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B229:B238">
+  <conditionalFormatting sqref="B240:B249">
     <cfRule priority="29" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10688,7 +11130,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C229:C238">
+  <conditionalFormatting sqref="C240:C249">
     <cfRule priority="30" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10697,7 +11139,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B249:B251">
+  <conditionalFormatting sqref="B260:B263">
     <cfRule priority="31" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10706,7 +11148,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C249:C251">
+  <conditionalFormatting sqref="C260:C263">
     <cfRule priority="32" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10715,25 +11157,25 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B262:B271">
+  <conditionalFormatting sqref="B274:B283">
     <cfRule priority="33" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="32267"/>
+        <cfvo type="num" val="1828815"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C262:C271">
+  <conditionalFormatting sqref="C274:C283">
     <cfRule priority="34" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="32267"/>
+        <cfvo type="num" val="1828815"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B282:B291">
+  <conditionalFormatting sqref="B294:B303">
     <cfRule priority="35" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10742,7 +11184,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C282:C291">
+  <conditionalFormatting sqref="C294:C303">
     <cfRule priority="36" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10751,43 +11193,43 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B302">
+  <conditionalFormatting sqref="B314:B315">
     <cfRule priority="37" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1624"/>
+        <cfvo type="num" val="2983594"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C302">
+  <conditionalFormatting sqref="C314:C315">
     <cfRule priority="38" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1624"/>
+        <cfvo type="num" val="2983594"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B313:B317">
+  <conditionalFormatting sqref="B326:B331">
     <cfRule priority="39" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="6670"/>
+        <cfvo type="num" val="2978471"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C313:C317">
+  <conditionalFormatting sqref="C326:C331">
     <cfRule priority="40" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="6670"/>
+        <cfvo type="num" val="2978471"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B328:B337">
+  <conditionalFormatting sqref="B342:B352">
     <cfRule priority="41" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10796,7 +11238,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C328:C337">
+  <conditionalFormatting sqref="C342:C352">
     <cfRule priority="42" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10805,25 +11247,25 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B348">
+  <conditionalFormatting sqref="B363:B364">
     <cfRule priority="43" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5163"/>
+        <cfvo type="num" val="2980054"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C348">
+  <conditionalFormatting sqref="C363:C364">
     <cfRule priority="44" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="5163"/>
+        <cfvo type="num" val="2980054"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B359:B369">
+  <conditionalFormatting sqref="B375:B385">
     <cfRule priority="45" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10832,7 +11274,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C359:C369">
+  <conditionalFormatting sqref="C375:C385">
     <cfRule priority="46" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
@@ -10841,20 +11283,20 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B380">
+  <conditionalFormatting sqref="B396:B397">
     <cfRule priority="47" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="56515"/>
+        <cfvo type="num" val="2928755"/>
         <color rgb="004BACC6"/>
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C380">
+  <conditionalFormatting sqref="C396:C397">
     <cfRule priority="48" type="dataBar">
       <dataBar showValue="1">
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="56515"/>
+        <cfvo type="num" val="2928755"/>
         <color rgb="00F79646"/>
       </dataBar>
     </cfRule>
